--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -5,15 +5,32 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaoc\OneDrive\Ambiente de Trabalho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaoc\OneDrive\Ambiente de Trabalho\ipca_gym\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5B3750-41F0-48CF-ABB3-CC0C4A71252D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BE74E5-8B2C-47F0-AD34-7F9AB62F8BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma_Projecto" sheetId="1" r:id="rId1"/>
+    <sheet name="E - Sprint 1" sheetId="2" r:id="rId2"/>
+    <sheet name="E - Sprint 2" sheetId="3" r:id="rId3"/>
+    <sheet name="E - Sprint 3" sheetId="4" r:id="rId4"/>
+    <sheet name="E - Sprint 4" sheetId="5" r:id="rId5"/>
+    <sheet name="E - Sprint 5" sheetId="6" r:id="rId6"/>
+    <sheet name="E - Sprint 6" sheetId="7" r:id="rId7"/>
+    <sheet name="E - Sprint 7" sheetId="8" r:id="rId8"/>
+    <sheet name="I - Sprint 1" sheetId="9" r:id="rId9"/>
+    <sheet name="I - Sprint 2" sheetId="10" r:id="rId10"/>
+    <sheet name="I - Sprint 3" sheetId="11" r:id="rId11"/>
+    <sheet name="I - Sprint 4" sheetId="12" r:id="rId12"/>
+    <sheet name="I - Sprint 5" sheetId="13" r:id="rId13"/>
+    <sheet name="I - Sprint 6" sheetId="14" r:id="rId14"/>
+    <sheet name="I - Sprint 7" sheetId="15" r:id="rId15"/>
+    <sheet name="I - Sprint 8" sheetId="16" r:id="rId16"/>
+    <sheet name="I - Sprint 9" sheetId="17" r:id="rId17"/>
+    <sheet name="I - Sprint 10" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="88">
   <si>
     <t>Dom</t>
   </si>
@@ -136,13 +153,181 @@
   </si>
   <si>
     <t>Poster (ingles)</t>
+  </si>
+  <si>
+    <t>Cronograma</t>
+  </si>
+  <si>
+    <t>Release Goal:</t>
+  </si>
+  <si>
+    <t>Especificações</t>
+  </si>
+  <si>
+    <t>Start date:</t>
+  </si>
+  <si>
+    <t>End date:</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Estimate (hours)</t>
+  </si>
+  <si>
+    <t>Who</t>
+  </si>
+  <si>
+    <t>Real time (hours)</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>MUST</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>Todos</t>
+  </si>
+  <si>
+    <t>4h</t>
+  </si>
+  <si>
+    <t>1h</t>
+  </si>
+  <si>
+    <t>Diagrama de componentes</t>
+  </si>
+  <si>
+    <t>2h30</t>
+  </si>
+  <si>
+    <t>Pedro e Gonçalo</t>
+  </si>
+  <si>
+    <t>Diagrama de casos de uso</t>
+  </si>
+  <si>
+    <t>João e Pedro</t>
+  </si>
+  <si>
+    <t>Diagrama de classes</t>
+  </si>
+  <si>
+    <t>8h</t>
+  </si>
+  <si>
+    <t>Contextualização (documento)</t>
+  </si>
+  <si>
+    <t>Brainstorm e estabelecimento das funcionalidades</t>
+  </si>
+  <si>
+    <t>Preparar repositórios (GitHub)</t>
+  </si>
+  <si>
+    <t>30min</t>
+  </si>
+  <si>
+    <t>João</t>
+  </si>
+  <si>
+    <t>Levantamento de requisitos funcionais e não funcionais</t>
+  </si>
+  <si>
+    <t>Cliente e Utilizadores (contextualizacão)</t>
+  </si>
+  <si>
+    <t>Gonçalo</t>
+  </si>
+  <si>
+    <t>Pedro e João</t>
+  </si>
+  <si>
+    <t>João e Gonçalo</t>
+  </si>
+  <si>
+    <t>6h</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>Beneficios e Impacto (contextualização)</t>
+  </si>
+  <si>
+    <t>Ideia do projeto</t>
+  </si>
+  <si>
+    <t>Modelo Canvas</t>
+  </si>
+  <si>
+    <t>Stakeholders</t>
+  </si>
+  <si>
+    <t>Sistema de avaliação</t>
+  </si>
+  <si>
+    <t>3h</t>
+  </si>
+  <si>
+    <t>Atas</t>
+  </si>
+  <si>
+    <t>Product backlog</t>
+  </si>
+  <si>
+    <t>Tutoriais (hardware e software)</t>
+  </si>
+  <si>
+    <t>Diagrama Entidade-Relação</t>
+  </si>
+  <si>
+    <t>Diagrama de BPMN</t>
+  </si>
+  <si>
+    <t>Desenvolvimento da base de dados</t>
+  </si>
+  <si>
+    <t>Must</t>
+  </si>
+  <si>
+    <t>Testes base de dados</t>
+  </si>
+  <si>
+    <t>Gonçalo e Pedro</t>
+  </si>
+  <si>
+    <t>Diagrama de Atividades</t>
+  </si>
+  <si>
+    <t>Diagrama de Estados</t>
+  </si>
+  <si>
+    <t>Implementação</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,8 +408,55 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -243,8 +475,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -319,11 +569,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -359,15 +635,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -375,9 +642,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -398,9 +662,6 @@
     <xf numFmtId="20" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -419,11 +680,94 @@
     <xf numFmtId="20" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="10" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="10" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="10" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="10" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="10" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="10" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -722,8 +1066,8 @@
   </sheetPr>
   <dimension ref="A2:AP112"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView showRuler="0" topLeftCell="C6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.6640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -731,13 +1075,14 @@
     <col min="2" max="2" width="1.33203125" customWidth="1"/>
     <col min="3" max="3" width="9.109375" customWidth="1"/>
     <col min="4" max="5" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="47.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="40.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="33.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -745,7 +1090,7 @@
     <col min="20" max="20" width="3.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="7.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="3.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="28" width="17" style="1" bestFit="1" customWidth="1"/>
@@ -758,43 +1103,43 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="17"/>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="17"/>
-      <c r="AH2" s="17"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="31"/>
     </row>
     <row r="5" spans="2:42" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="32" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="2">
@@ -833,7 +1178,7 @@
       <c r="O5" s="2">
         <v>30</v>
       </c>
-      <c r="P5" s="2"/>
+      <c r="P5"/>
       <c r="Q5"/>
       <c r="R5"/>
       <c r="S5"/>
@@ -854,7 +1199,7 @@
       <c r="AH5"/>
     </row>
     <row r="6" spans="2:42" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C6" s="21"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="2" t="s">
         <v>1</v>
       </c>
@@ -867,7 +1212,7 @@
       <c r="G6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="51" t="s">
         <v>4</v>
       </c>
       <c r="I6" s="2" t="s">
@@ -888,10 +1233,10 @@
       <c r="N6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="O6" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="P6" s="2"/>
+      <c r="P6"/>
       <c r="Q6"/>
       <c r="R6"/>
       <c r="S6"/>
@@ -912,30 +1257,26 @@
       <c r="AH6"/>
     </row>
     <row r="7" spans="2:42" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C7" s="21"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22" t="s">
+      <c r="C7" s="32"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="22" t="s">
+      <c r="H7" s="50"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="M7" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="23"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7"/>
       <c r="Q7"/>
       <c r="R7"/>
       <c r="S7"/>
@@ -956,45 +1297,45 @@
       <c r="AH7"/>
     </row>
     <row r="8" spans="2:42" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="18"/>
-      <c r="V8" s="18"/>
-      <c r="W8" s="18"/>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="18"/>
-      <c r="AA8" s="18"/>
-      <c r="AB8" s="18"/>
-      <c r="AC8" s="18"/>
-      <c r="AD8" s="18"/>
-      <c r="AE8" s="18"/>
-      <c r="AF8" s="18"/>
-      <c r="AG8" s="18"/>
-      <c r="AH8" s="18"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="15"/>
+      <c r="AB8" s="15"/>
+      <c r="AC8" s="15"/>
+      <c r="AD8" s="15"/>
+      <c r="AE8" s="15"/>
+      <c r="AF8" s="15"/>
+      <c r="AG8" s="15"/>
+      <c r="AH8" s="15"/>
       <c r="AM8" s="14"/>
     </row>
     <row r="9" spans="2:42" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="25">
         <v>1</v>
       </c>
       <c r="E9" s="2">
@@ -1035,8 +1376,8 @@
       </c>
     </row>
     <row r="10" spans="2:42" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C10" s="15"/>
-      <c r="D10" s="30" t="s">
+      <c r="C10" s="33"/>
+      <c r="D10" s="25" t="s">
         <v>5</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -1054,7 +1395,7 @@
       <c r="I10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="51" t="s">
         <v>4</v>
       </c>
       <c r="K10" s="2" t="s">
@@ -1077,25 +1418,25 @@
       </c>
     </row>
     <row r="11" spans="2:42" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C11" s="15"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="22" t="s">
+      <c r="C11" s="33"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
     </row>
     <row r="12" spans="2:42" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C12" s="15"/>
+      <c r="C12" s="33"/>
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
@@ -1108,12 +1449,12 @@
       <c r="AE12" s="5"/>
       <c r="AF12" s="5"/>
       <c r="AG12" s="5"/>
-      <c r="AH12" s="19"/>
+      <c r="AH12" s="16"/>
       <c r="AI12" s="7"/>
     </row>
     <row r="13" spans="2:42" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C13" s="15"/>
-      <c r="D13" s="30">
+      <c r="C13" s="33"/>
+      <c r="D13" s="25">
         <v>14</v>
       </c>
       <c r="E13" s="2">
@@ -1154,8 +1495,8 @@
       </c>
     </row>
     <row r="14" spans="2:42" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C14" s="15"/>
-      <c r="D14" s="30" t="s">
+      <c r="C14" s="33"/>
+      <c r="D14" s="52" t="s">
         <v>4</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -1176,7 +1517,7 @@
       <c r="J14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="51" t="s">
         <v>4</v>
       </c>
       <c r="L14" s="2" t="s">
@@ -1201,24 +1542,26 @@
       <c r="AP14" s="1"/>
     </row>
     <row r="15" spans="2:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="15"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="27" t="s">
+      <c r="C15" s="33"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="22" t="s">
+      <c r="H15" s="21"/>
+      <c r="I15" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" s="38"/>
+      <c r="K15" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="24"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="28" t="s">
+      <c r="L15" s="20"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="46" t="s">
         <v>25</v>
       </c>
       <c r="AL15" s="1"/>
@@ -1229,12 +1572,12 @@
     </row>
     <row r="16" spans="2:42" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
-      <c r="C16" s="15"/>
+      <c r="C16" s="33"/>
     </row>
     <row r="17" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="30">
+      <c r="C17" s="33"/>
+      <c r="D17" s="25">
         <v>27</v>
       </c>
       <c r="E17" s="2">
@@ -1252,11 +1595,11 @@
     </row>
     <row r="18" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="30" t="s">
+      <c r="C18" s="33"/>
+      <c r="D18" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="51" t="s">
         <v>4</v>
       </c>
       <c r="F18" s="2" t="s">
@@ -1271,26 +1614,24 @@
     </row>
     <row r="19" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="33" t="s">
+      <c r="C19" s="33"/>
+      <c r="D19" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="22"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="18"/>
     </row>
     <row r="20" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
     </row>
     <row r="21" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="11"/>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="30">
+      <c r="D21" s="25">
         <v>1</v>
       </c>
       <c r="E21" s="2">
@@ -1329,12 +1670,12 @@
       <c r="P21" s="2">
         <v>13</v>
       </c>
-      <c r="AH21" s="18"/>
+      <c r="AH21" s="15"/>
     </row>
     <row r="22" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="11"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="30" t="s">
+      <c r="C22" s="33"/>
+      <c r="D22" s="25" t="s">
         <v>6</v>
       </c>
       <c r="E22" s="2" t="s">
@@ -1343,7 +1684,7 @@
       <c r="F22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="51" t="s">
         <v>4</v>
       </c>
       <c r="H22" s="2" t="s">
@@ -1364,7 +1705,7 @@
       <c r="M22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="2" t="s">
+      <c r="N22" s="51" t="s">
         <v>4</v>
       </c>
       <c r="O22" s="2" t="s">
@@ -1373,73 +1714,67 @@
       <c r="P22" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AH22" s="18"/>
+      <c r="AH22" s="15"/>
     </row>
     <row r="23" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="11"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="27" t="s">
+      <c r="C23" s="33"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="G23" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="H23" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="I23" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="AH23" s="18"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="AH23" s="15"/>
     </row>
     <row r="24" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="11"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="20"/>
-      <c r="S24" s="20"/>
-      <c r="T24" s="20"/>
-      <c r="U24" s="20"/>
-      <c r="V24" s="20"/>
-      <c r="W24" s="20"/>
-      <c r="X24" s="20"/>
-      <c r="Y24" s="20"/>
-      <c r="Z24" s="20"/>
-      <c r="AA24" s="20"/>
-      <c r="AB24" s="20"/>
-      <c r="AC24" s="20"/>
-      <c r="AD24" s="20"/>
-      <c r="AE24" s="20"/>
-      <c r="AF24" s="20"/>
-      <c r="AG24" s="20"/>
-      <c r="AH24" s="20"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="17"/>
+      <c r="W24" s="17"/>
+      <c r="X24" s="17"/>
+      <c r="Y24" s="17"/>
+      <c r="Z24" s="17"/>
+      <c r="AA24" s="17"/>
+      <c r="AB24" s="17"/>
+      <c r="AC24" s="17"/>
+      <c r="AD24" s="17"/>
+      <c r="AE24" s="17"/>
+      <c r="AF24" s="17"/>
+      <c r="AG24" s="17"/>
+      <c r="AH24" s="17"/>
     </row>
     <row r="25" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="11"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="30">
+      <c r="C25" s="33"/>
+      <c r="D25" s="25">
         <v>14</v>
       </c>
       <c r="E25" s="2">
@@ -1493,8 +1828,8 @@
     </row>
     <row r="26" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="30" t="s">
+      <c r="C26" s="33"/>
+      <c r="D26" s="25" t="s">
         <v>1</v>
       </c>
       <c r="E26" s="2" t="s">
@@ -1506,7 +1841,7 @@
       <c r="G26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" s="51" t="s">
         <v>4</v>
       </c>
       <c r="I26" s="2" t="s">
@@ -1527,7 +1862,7 @@
       <c r="N26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O26" s="2" t="s">
+      <c r="O26" s="51" t="s">
         <v>4</v>
       </c>
       <c r="P26" s="2" t="s">
@@ -1548,40 +1883,32 @@
     </row>
     <row r="27" spans="2:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="11"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22" t="s">
+      <c r="C27" s="33"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22" t="s">
+      <c r="G27" s="18"/>
+      <c r="H27" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22" t="s">
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="N27" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="O27" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="P27" s="28" t="s">
+      <c r="N27" s="37"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="Q27" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="R27" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="S27" s="22"/>
-      <c r="T27" s="22"/>
+      <c r="Q27" s="48"/>
+      <c r="R27" s="49"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="18"/>
     </row>
     <row r="28" spans="2:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="11"/>
@@ -1691,7 +2018,7 @@
       <c r="D30" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="51" t="s">
         <v>4</v>
       </c>
       <c r="F30" s="2" t="s">
@@ -1712,7 +2039,7 @@
       <c r="K30" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L30" s="2" t="s">
+      <c r="L30" s="51" t="s">
         <v>4</v>
       </c>
       <c r="M30" s="2" t="s">
@@ -1733,7 +2060,7 @@
       <c r="R30" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="S30" s="2" t="s">
+      <c r="S30" s="51" t="s">
         <v>4</v>
       </c>
       <c r="T30" s="2" t="s">
@@ -1754,7 +2081,7 @@
       <c r="Y30" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Z30" s="2" t="s">
+      <c r="Z30" s="51" t="s">
         <v>4</v>
       </c>
       <c r="AA30" s="2" t="s">
@@ -1775,96 +2102,92 @@
       <c r="AF30" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AG30" s="2" t="s">
+      <c r="AG30" s="51" t="s">
         <v>4</v>
       </c>
       <c r="AH30" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="2:34" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:34" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="11"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="36" t="s">
+      <c r="C31" s="15"/>
+      <c r="D31" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="E31" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="F31" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="G31" s="36" t="s">
+      <c r="E31" s="43"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="27" t="s">
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="K31" s="23"/>
-      <c r="L31" s="22" t="s">
+      <c r="K31" s="19"/>
+      <c r="L31" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="M31" s="23"/>
-      <c r="N31" s="27" t="s">
+      <c r="M31" s="19"/>
+      <c r="N31" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="O31" s="22"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="22"/>
-      <c r="S31" s="22"/>
-      <c r="T31" s="23"/>
-      <c r="U31" s="23"/>
-      <c r="V31" s="23"/>
-      <c r="W31" s="26"/>
-      <c r="X31" s="26"/>
-      <c r="Y31" s="26"/>
-      <c r="Z31" s="26"/>
-      <c r="AA31" s="23"/>
-      <c r="AB31" s="23"/>
-      <c r="AC31" s="26"/>
-      <c r="AD31" s="26"/>
-      <c r="AE31" s="26"/>
-      <c r="AF31" s="26"/>
-      <c r="AG31" s="26"/>
-      <c r="AH31" s="23"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="19"/>
+      <c r="W31" s="22"/>
+      <c r="X31" s="22"/>
+      <c r="Y31" s="22"/>
+      <c r="Z31" s="22"/>
+      <c r="AA31" s="19"/>
+      <c r="AB31" s="19"/>
+      <c r="AC31" s="22"/>
+      <c r="AD31" s="22"/>
+      <c r="AE31" s="22"/>
+      <c r="AF31" s="22"/>
+      <c r="AG31" s="22"/>
+      <c r="AH31" s="19"/>
     </row>
     <row r="32" spans="2:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="11"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="18"/>
-      <c r="O32" s="18"/>
-      <c r="P32" s="18"/>
-      <c r="Q32" s="18"/>
-      <c r="R32" s="18"/>
-      <c r="S32" s="18"/>
-      <c r="T32" s="18"/>
-      <c r="U32" s="18"/>
-      <c r="V32" s="18"/>
-      <c r="W32" s="18"/>
-      <c r="X32" s="18"/>
-      <c r="Y32" s="18"/>
-      <c r="Z32" s="18"/>
-      <c r="AA32" s="18"/>
-      <c r="AB32" s="18"/>
-      <c r="AC32" s="18"/>
-      <c r="AD32" s="18"/>
-      <c r="AE32" s="18"/>
-      <c r="AF32" s="18"/>
-      <c r="AG32" s="18"/>
-      <c r="AH32" s="18"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="15"/>
+      <c r="S32" s="15"/>
+      <c r="T32" s="15"/>
+      <c r="U32" s="15"/>
+      <c r="V32" s="15"/>
+      <c r="W32" s="15"/>
+      <c r="X32" s="15"/>
+      <c r="Y32" s="15"/>
+      <c r="Z32" s="15"/>
+      <c r="AA32" s="15"/>
+      <c r="AB32" s="15"/>
+      <c r="AC32" s="15"/>
+      <c r="AD32" s="15"/>
+      <c r="AE32" s="15"/>
+      <c r="AF32" s="15"/>
+      <c r="AG32" s="15"/>
+      <c r="AH32" s="15"/>
     </row>
     <row r="33" spans="1:39" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33"/>
@@ -1930,39 +2253,6 @@
       </c>
       <c r="W33" s="2">
         <v>20</v>
-      </c>
-      <c r="X33" s="2">
-        <v>21</v>
-      </c>
-      <c r="Y33" s="2">
-        <v>22</v>
-      </c>
-      <c r="Z33" s="2">
-        <v>23</v>
-      </c>
-      <c r="AA33" s="2">
-        <v>24</v>
-      </c>
-      <c r="AB33" s="2">
-        <v>25</v>
-      </c>
-      <c r="AC33" s="2">
-        <v>26</v>
-      </c>
-      <c r="AD33" s="2">
-        <v>27</v>
-      </c>
-      <c r="AE33" s="2">
-        <v>28</v>
-      </c>
-      <c r="AF33" s="2">
-        <v>29</v>
-      </c>
-      <c r="AG33" s="10">
-        <v>30</v>
-      </c>
-      <c r="AH33" s="2">
-        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:39" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1983,7 +2273,7 @@
       <c r="H34" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="I34" s="51" t="s">
         <v>4</v>
       </c>
       <c r="J34" s="2" t="s">
@@ -2004,7 +2294,7 @@
       <c r="O34" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="P34" s="2" t="s">
+      <c r="P34" s="51" t="s">
         <v>4</v>
       </c>
       <c r="Q34" s="2" t="s">
@@ -2028,84 +2318,40 @@
       <c r="W34" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="X34" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y34" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA34" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB34" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC34" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD34" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE34" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF34" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG34" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH34" s="2" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="35" spans="1:39" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22" t="s">
+      <c r="C35" s="15"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="27" t="s">
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="O35" s="22"/>
-      <c r="P35" s="22" t="s">
+      <c r="O35" s="18"/>
+      <c r="P35" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="Q35" s="23"/>
-      <c r="R35" s="23"/>
-      <c r="S35" s="22" t="s">
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="T35" s="22"/>
-      <c r="U35" s="22"/>
-      <c r="V35" s="22"/>
-      <c r="W35" s="22" t="s">
+      <c r="T35" s="18"/>
+      <c r="U35" s="18"/>
+      <c r="V35" s="18"/>
+      <c r="W35" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="X35" s="22"/>
-      <c r="Y35" s="22"/>
-      <c r="Z35" s="23"/>
-      <c r="AA35" s="23"/>
-      <c r="AB35" s="22"/>
-      <c r="AC35" s="22"/>
-      <c r="AD35" s="22"/>
-      <c r="AE35" s="23"/>
-      <c r="AF35" s="23"/>
-      <c r="AG35" s="22"/>
-      <c r="AH35" s="22"/>
     </row>
     <row r="36" spans="1:39" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36"/>
@@ -3277,11 +3523,18 @@
       <c r="A112" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="11">
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F23:I23"/>
     <mergeCell ref="C2:AH2"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="C9:C19"/>
     <mergeCell ref="C21:C27"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="I15:J15"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -3299,4 +3552,3039 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF50040-4BB5-458D-9086-73113923FCEB}">
+  <dimension ref="B2:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="56"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="57">
+        <v>44877</v>
+      </c>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="57">
+        <v>44883</v>
+      </c>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="58" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="59">
+        <v>1</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="61"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="59">
+        <v>2</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="61"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="59">
+        <v>3</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="61"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B37289-8B84-4EB2-9BD0-AE396547AF0D}">
+  <dimension ref="B2:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="56"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="57">
+        <v>44884</v>
+      </c>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="57">
+        <v>44890</v>
+      </c>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="58" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="59">
+        <v>1</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="61"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="59">
+        <v>2</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="61"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="59">
+        <v>3</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="61"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93651796-FB77-4096-A18E-5AD6A42E5EF1}">
+  <dimension ref="B2:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="56"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="57">
+        <v>44891</v>
+      </c>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="57">
+        <v>44897</v>
+      </c>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="58" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="59">
+        <v>1</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="61"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="59">
+        <v>2</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="61"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="59">
+        <v>3</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="61"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD9D32F-4E0E-4F37-AA4E-F7DF6B0A90F4}">
+  <dimension ref="B2:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="56"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="57">
+        <v>44898</v>
+      </c>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="57">
+        <v>44904</v>
+      </c>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="58" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="59">
+        <v>1</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="61"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="59">
+        <v>2</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="61"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="59">
+        <v>3</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="61"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D4BD6B-A863-49B8-9700-377978A2FDC0}">
+  <dimension ref="B2:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="56"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="57">
+        <v>44905</v>
+      </c>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="57">
+        <v>44911</v>
+      </c>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="58" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="59">
+        <v>1</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="61"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="59">
+        <v>2</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="61"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="59">
+        <v>3</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="61"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB0B3956-A732-4402-86E6-397B6D0A9EC0}">
+  <dimension ref="B2:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="56"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="57">
+        <v>44912</v>
+      </c>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="57">
+        <v>44918</v>
+      </c>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="58" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="59">
+        <v>1</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="61"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="59">
+        <v>2</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="61"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="59">
+        <v>3</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="61"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB677AA4-99B9-4D7D-9849-08E3ECE68FB3}">
+  <dimension ref="B2:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="56"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="57">
+        <v>44919</v>
+      </c>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="57">
+        <v>44925</v>
+      </c>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="58" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="59">
+        <v>1</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="61"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="59">
+        <v>2</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="61"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="59">
+        <v>3</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="61"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{600E5422-430A-4CED-9F3A-19A88DE65923}">
+  <dimension ref="B2:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="56"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="57">
+        <v>44926</v>
+      </c>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="57">
+        <v>44932</v>
+      </c>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="58" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="59">
+        <v>1</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="61"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="59">
+        <v>2</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="61"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="59">
+        <v>3</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="61"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DF5A3B7-072D-4F33-9723-F2D96E8294CC}">
+  <dimension ref="B2:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="56"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="57">
+        <v>44902</v>
+      </c>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="57">
+        <v>44939</v>
+      </c>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="58" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="59">
+        <v>1</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="61"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="59">
+        <v>2</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="61"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="59">
+        <v>3</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="61"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A93215B2-2908-47F4-81BB-E0FA7835F392}">
+  <dimension ref="B2:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="56"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="57">
+        <v>44823</v>
+      </c>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="57">
+        <v>44827</v>
+      </c>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="58" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="59">
+        <v>1</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="59">
+        <v>2</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="59">
+        <v>3</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4234758-78F1-4AE1-AE09-B9CC27C0ECC7}">
+  <dimension ref="B2:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="56"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="57">
+        <v>44828</v>
+      </c>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="57">
+        <v>44834</v>
+      </c>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="58" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="59">
+        <v>1</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="59">
+        <v>2</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="59">
+        <v>3</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6103438-BDA7-4E28-8BD4-B744E4B5BEA0}">
+  <dimension ref="B2:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="56"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="57">
+        <v>44835</v>
+      </c>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="57">
+        <v>44841</v>
+      </c>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="58" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="59">
+        <v>1</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" s="62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="59">
+        <v>2</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="59">
+        <v>3</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EB60B63-F71C-4BCF-A02E-4040A6DC1E7A}">
+  <dimension ref="B2:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="56"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="57">
+        <v>44842</v>
+      </c>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="57">
+        <v>44848</v>
+      </c>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="58" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="59">
+        <v>1</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="59">
+        <v>2</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" s="62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="59">
+        <v>3</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="59">
+        <v>4</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" s="62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08B12089-A125-43C4-B991-1713BAF1DE71}">
+  <dimension ref="B2:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="56"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="57">
+        <v>44849</v>
+      </c>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="57">
+        <v>44855</v>
+      </c>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="58" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="59">
+        <v>1</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="59">
+        <v>2</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE48A7C-8AF9-4A0B-A8FC-E8EB53F5818B}">
+  <dimension ref="B2:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="56"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="57">
+        <v>44856</v>
+      </c>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="57">
+        <v>44862</v>
+      </c>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="58" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="59">
+        <v>1</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="59">
+        <v>2</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="59">
+        <v>3</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="59">
+        <v>4</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="59">
+        <v>5</v>
+      </c>
+      <c r="C12" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="59">
+        <v>6</v>
+      </c>
+      <c r="C13" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" s="62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E93D4C0-ACF0-4739-93C1-77C45861417D}">
+  <dimension ref="B2:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="56"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="57">
+        <v>44863</v>
+      </c>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="57">
+        <v>44869</v>
+      </c>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="58" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="59">
+        <v>1</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="59">
+        <v>2</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="59">
+        <v>3</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" s="62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AC03989-E616-4342-AB75-86A3E48665FE}">
+  <dimension ref="B2:I10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="56"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="57">
+        <v>44870</v>
+      </c>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="57">
+        <v>44876</v>
+      </c>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="58" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="59">
+        <v>1</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="61"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="59">
+        <v>2</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="61"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="59">
+        <v>3</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="61"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaoc\OneDrive\Ambiente de Trabalho\ipca_gym\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gonçalo Cunha\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BE74E5-8B2C-47F0-AD34-7F9AB62F8BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{60ACC727-EC7E-421E-AE7F-A8A7C8D24B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20520" yWindow="-120" windowWidth="20640" windowHeight="11160" firstSheet="11" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma_Projecto" sheetId="1" r:id="rId1"/>
@@ -21,16 +21,16 @@
     <sheet name="E - Sprint 5" sheetId="6" r:id="rId6"/>
     <sheet name="E - Sprint 6" sheetId="7" r:id="rId7"/>
     <sheet name="E - Sprint 7" sheetId="8" r:id="rId8"/>
-    <sheet name="I - Sprint 1" sheetId="9" r:id="rId9"/>
-    <sheet name="I - Sprint 2" sheetId="10" r:id="rId10"/>
-    <sheet name="I - Sprint 3" sheetId="11" r:id="rId11"/>
-    <sheet name="I - Sprint 4" sheetId="12" r:id="rId12"/>
-    <sheet name="I - Sprint 5" sheetId="13" r:id="rId13"/>
-    <sheet name="I - Sprint 6" sheetId="14" r:id="rId14"/>
-    <sheet name="I - Sprint 7" sheetId="15" r:id="rId15"/>
-    <sheet name="I - Sprint 8" sheetId="16" r:id="rId16"/>
-    <sheet name="I - Sprint 9" sheetId="17" r:id="rId17"/>
-    <sheet name="I - Sprint 10" sheetId="18" r:id="rId18"/>
+    <sheet name="I - Sprint 1" sheetId="10" r:id="rId9"/>
+    <sheet name="I - Sprint 2" sheetId="11" r:id="rId10"/>
+    <sheet name="I - Sprint 3" sheetId="12" r:id="rId11"/>
+    <sheet name="I - Sprint 4 " sheetId="13" r:id="rId12"/>
+    <sheet name="I - Sprint 5" sheetId="14" r:id="rId13"/>
+    <sheet name="I - Sprint 6" sheetId="15" r:id="rId14"/>
+    <sheet name="I - Sprint 7" sheetId="16" r:id="rId15"/>
+    <sheet name="I - Sprint 8" sheetId="17" r:id="rId16"/>
+    <sheet name="I - Sprint 9" sheetId="23" r:id="rId17"/>
+    <sheet name="I - Sprint 10" sheetId="24" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="98">
   <si>
     <t>Dom</t>
   </si>
@@ -106,9 +106,6 @@
     <t>Levantamento de requisitos</t>
   </si>
   <si>
-    <t>Validação de requisitos e prototipagem</t>
-  </si>
-  <si>
     <t>Entrega 1</t>
   </si>
   <si>
@@ -133,28 +130,9 @@
     <t>Inicialização do documento (contextualização)</t>
   </si>
   <si>
-    <t>Casos de uso</t>
-  </si>
-  <si>
-    <t>Diagrama ER</t>
-  </si>
-  <si>
-    <t>Diagrama de atividades</t>
-  </si>
-  <si>
-    <t>Diagrama de estados</t>
-  </si>
-  <si>
-    <t>Diagrama de sequencia
-Mockups</t>
-  </si>
-  <si>
     <t>Mockups</t>
   </si>
   <si>
-    <t>Poster (ingles)</t>
-  </si>
-  <si>
     <t>Cronograma</t>
   </si>
   <si>
@@ -321,13 +299,64 @@
   </si>
   <si>
     <t>Implementação</t>
+  </si>
+  <si>
+    <t>18h</t>
+  </si>
+  <si>
+    <t>20h</t>
+  </si>
+  <si>
+    <t>Implementação Inicial</t>
+  </si>
+  <si>
+    <t>5h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Continuação da Implementação </t>
+  </si>
+  <si>
+    <t>Ponto de situação Código</t>
+  </si>
+  <si>
+    <t>João, Pedro</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Documento de projeto</t>
+  </si>
+  <si>
+    <t>Testes Finais</t>
+  </si>
+  <si>
+    <t>Preparação da defesa</t>
+  </si>
+  <si>
+    <t>Teste base de dados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poster </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Continuação da Implementação  </t>
+  </si>
+  <si>
+    <t>Finalização da Implementação</t>
+  </si>
+  <si>
+    <t>Continuação da Implementação</t>
+  </si>
+  <si>
+    <t>Documento do Projeto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -455,8 +484,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -491,6 +536,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
         <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -599,7 +656,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -650,47 +707,17 @@
     <xf numFmtId="20" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="20" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -701,43 +728,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="10" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="10" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="10" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="10" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="10" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="10" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -769,6 +760,73 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="10" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="10" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="10" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="18" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="18" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="18" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1066,80 +1124,83 @@
   </sheetPr>
   <dimension ref="A2:AP112"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="C6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView showRuler="0" topLeftCell="J22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.6640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="1.33203125" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" customWidth="1"/>
-    <col min="4" max="5" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="47.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="40.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="33.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="3.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="3.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="3.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="1.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="37.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26" style="1" customWidth="1"/>
+    <col min="6" max="6" width="33.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="47.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="61" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="40.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="49.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="23.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="27.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="33.42578125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="19.140625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="10.7109375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="14.140625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="12.85546875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="11" style="1" customWidth="1"/>
+    <col min="26" max="27" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="27.7109375" style="1" customWidth="1"/>
+    <col min="29" max="29" width="8.5703125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="14.42578125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="16.42578125" style="1" customWidth="1"/>
+    <col min="32" max="32" width="15.7109375" style="1" customWidth="1"/>
+    <col min="33" max="33" width="18.5703125" style="1" customWidth="1"/>
+    <col min="34" max="34" width="25.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="30" t="s">
+    <row r="2" spans="2:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="31"/>
-      <c r="AA2" s="31"/>
-      <c r="AB2" s="31"/>
-      <c r="AC2" s="31"/>
-      <c r="AD2" s="31"/>
-      <c r="AE2" s="31"/>
-      <c r="AF2" s="31"/>
-      <c r="AG2" s="31"/>
-      <c r="AH2" s="31"/>
-    </row>
-    <row r="5" spans="2:42" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C5" s="32" t="s">
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="48"/>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="48"/>
+      <c r="AE2" s="48"/>
+      <c r="AF2" s="48"/>
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="48"/>
+    </row>
+    <row r="5" spans="2:42" ht="15" x14ac:dyDescent="0.25">
+      <c r="C5" s="49" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="2">
@@ -1198,8 +1259,8 @@
       <c r="AG5"/>
       <c r="AH5"/>
     </row>
-    <row r="6" spans="2:42" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C6" s="32"/>
+    <row r="6" spans="2:42" ht="15" x14ac:dyDescent="0.25">
+      <c r="C6" s="49"/>
       <c r="D6" s="2" t="s">
         <v>1</v>
       </c>
@@ -1212,7 +1273,7 @@
       <c r="G6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="51" t="s">
+      <c r="H6" s="29" t="s">
         <v>4</v>
       </c>
       <c r="I6" s="2" t="s">
@@ -1233,7 +1294,7 @@
       <c r="N6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O6" s="51" t="s">
+      <c r="O6" s="29" t="s">
         <v>4</v>
       </c>
       <c r="P6"/>
@@ -1256,25 +1317,31 @@
       <c r="AG6"/>
       <c r="AH6"/>
     </row>
-    <row r="7" spans="2:42" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C7" s="32"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="34" t="s">
+    <row r="7" spans="2:42" ht="15" x14ac:dyDescent="0.25">
+      <c r="C7" s="49"/>
+      <c r="D7" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="43"/>
+      <c r="F7" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="50"/>
+      <c r="G7" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="28"/>
       <c r="I7" s="19"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="36" t="s">
+      <c r="J7" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="37"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="18"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="24" t="s">
+        <v>57</v>
+      </c>
       <c r="O7" s="18"/>
       <c r="P7"/>
       <c r="Q7"/>
@@ -1296,7 +1363,7 @@
       <c r="AG7"/>
       <c r="AH7"/>
     </row>
-    <row r="8" spans="2:42" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:42" ht="15" x14ac:dyDescent="0.25">
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
@@ -1331,11 +1398,11 @@
       <c r="AH8" s="15"/>
       <c r="AM8" s="14"/>
     </row>
-    <row r="9" spans="2:42" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C9" s="33" t="s">
+    <row r="9" spans="2:42" ht="15" x14ac:dyDescent="0.25">
+      <c r="C9" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="22">
         <v>1</v>
       </c>
       <c r="E9" s="2">
@@ -1375,9 +1442,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="2:42" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C10" s="33"/>
-      <c r="D10" s="25" t="s">
+    <row r="10" spans="2:42" ht="15" x14ac:dyDescent="0.25">
+      <c r="C10" s="50"/>
+      <c r="D10" s="22" t="s">
         <v>5</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -1395,7 +1462,7 @@
       <c r="I10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J10" s="51" t="s">
+      <c r="J10" s="29" t="s">
         <v>4</v>
       </c>
       <c r="K10" s="2" t="s">
@@ -1417,26 +1484,38 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:42" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C11" s="33"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-    </row>
-    <row r="12" spans="2:42" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C12" s="33"/>
+    <row r="11" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="50"/>
+      <c r="D11" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="43"/>
+      <c r="F11" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="43"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="L11" s="43"/>
+      <c r="M11" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="O11" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="P11" s="18"/>
+    </row>
+    <row r="12" spans="2:42" ht="15" x14ac:dyDescent="0.25">
+      <c r="C12" s="50"/>
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
@@ -1452,9 +1531,9 @@
       <c r="AH12" s="16"/>
       <c r="AI12" s="7"/>
     </row>
-    <row r="13" spans="2:42" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C13" s="33"/>
-      <c r="D13" s="25">
+    <row r="13" spans="2:42" ht="15" x14ac:dyDescent="0.25">
+      <c r="C13" s="50"/>
+      <c r="D13" s="22">
         <v>14</v>
       </c>
       <c r="E13" s="2">
@@ -1494,9 +1573,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="2:42" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C14" s="33"/>
-      <c r="D14" s="52" t="s">
+    <row r="14" spans="2:42" ht="15" x14ac:dyDescent="0.25">
+      <c r="C14" s="50"/>
+      <c r="D14" s="30" t="s">
         <v>4</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -1517,7 +1596,7 @@
       <c r="J14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="51" t="s">
+      <c r="K14" s="29" t="s">
         <v>4</v>
       </c>
       <c r="L14" s="2" t="s">
@@ -1541,28 +1620,36 @@
       <c r="AO14" s="1"/>
       <c r="AP14" s="1"/>
     </row>
-    <row r="15" spans="2:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="33"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="21"/>
-      <c r="I15" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="J15" s="38"/>
-      <c r="K15" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="L15" s="20"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="46" t="s">
-        <v>25</v>
+    <row r="15" spans="2:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="50"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="45"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" s="43"/>
+      <c r="K15" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="M15" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="N15" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="O15" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="P15" s="27" t="s">
+        <v>78</v>
       </c>
       <c r="AL15" s="1"/>
       <c r="AM15" s="1"/>
@@ -1570,14 +1657,14 @@
       <c r="AO15" s="1"/>
       <c r="AP15" s="1"/>
     </row>
-    <row r="16" spans="2:42" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:42" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="4"/>
-      <c r="C16" s="33"/>
-    </row>
-    <row r="17" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="50"/>
+    </row>
+    <row r="17" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="25">
+      <c r="C17" s="50"/>
+      <c r="D17" s="22">
         <v>27</v>
       </c>
       <c r="E17" s="2">
@@ -1593,13 +1680,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="25" t="s">
+      <c r="C18" s="50"/>
+      <c r="D18" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="51" t="s">
+      <c r="E18" s="29" t="s">
         <v>4</v>
       </c>
       <c r="F18" s="2" t="s">
@@ -1612,26 +1699,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="38"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="43"/>
+      <c r="F19" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" s="43"/>
       <c r="H19" s="18"/>
     </row>
-    <row r="20" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="11"/>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="25">
+      <c r="D21" s="22">
         <v>1</v>
       </c>
       <c r="E21" s="2">
@@ -1672,10 +1761,10 @@
       </c>
       <c r="AH21" s="15"/>
     </row>
-    <row r="22" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="25" t="s">
+      <c r="C22" s="50"/>
+      <c r="D22" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E22" s="2" t="s">
@@ -1684,7 +1773,7 @@
       <c r="F22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="51" t="s">
+      <c r="G22" s="29" t="s">
         <v>4</v>
       </c>
       <c r="H22" s="2" t="s">
@@ -1705,7 +1794,7 @@
       <c r="M22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="51" t="s">
+      <c r="N22" s="29" t="s">
         <v>4</v>
       </c>
       <c r="O22" s="2" t="s">
@@ -1716,29 +1805,35 @@
       </c>
       <c r="AH22" s="15"/>
     </row>
-    <row r="23" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="11"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="29"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="24" t="s">
+        <v>74</v>
+      </c>
       <c r="E23" s="18"/>
-      <c r="F23" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
+      <c r="F23" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="G23" s="43"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="K23" s="43"/>
       <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
+      <c r="M23" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="N23" s="43"/>
       <c r="O23" s="19"/>
       <c r="P23" s="19"/>
       <c r="AH23" s="15"/>
     </row>
-    <row r="24" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="11"/>
-      <c r="C24" s="33"/>
+      <c r="C24" s="50"/>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
@@ -1771,10 +1866,10 @@
       <c r="AG24" s="17"/>
       <c r="AH24" s="17"/>
     </row>
-    <row r="25" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="11"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="25">
+      <c r="C25" s="50"/>
+      <c r="D25" s="22">
         <v>14</v>
       </c>
       <c r="E25" s="2">
@@ -1826,10 +1921,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="25" t="s">
+      <c r="C26" s="50"/>
+      <c r="D26" s="22" t="s">
         <v>1</v>
       </c>
       <c r="E26" s="2" t="s">
@@ -1841,7 +1936,7 @@
       <c r="G26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="51" t="s">
+      <c r="H26" s="29" t="s">
         <v>4</v>
       </c>
       <c r="I26" s="2" t="s">
@@ -1862,7 +1957,7 @@
       <c r="N26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O26" s="51" t="s">
+      <c r="O26" s="29" t="s">
         <v>4</v>
       </c>
       <c r="P26" s="2" t="s">
@@ -1881,39 +1976,41 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="11"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27" s="18"/>
-      <c r="H27" s="34" t="s">
-        <v>18</v>
+      <c r="C27" s="50"/>
+      <c r="D27" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" s="43"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="H27" s="53" t="s">
+        <v>17</v>
       </c>
       <c r="I27" s="19"/>
       <c r="J27" s="19"/>
       <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="N27" s="37"/>
-      <c r="O27" s="38"/>
-      <c r="P27" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q27" s="48"/>
-      <c r="R27" s="49"/>
-      <c r="S27" s="18"/>
-      <c r="T27" s="18"/>
-    </row>
-    <row r="28" spans="2:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L27" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="56"/>
+      <c r="Q27" s="57"/>
+      <c r="R27" s="58"/>
+      <c r="S27" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="T27" s="43"/>
+    </row>
+    <row r="28" spans="2:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="11"/>
     </row>
-    <row r="29" spans="2:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="11"/>
       <c r="C29" s="12" t="s">
         <v>9</v>
@@ -2012,13 +2109,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="2:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="11"/>
       <c r="C30" s="13"/>
       <c r="D30" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="51" t="s">
+      <c r="E30" s="29" t="s">
         <v>4</v>
       </c>
       <c r="F30" s="2" t="s">
@@ -2039,7 +2136,7 @@
       <c r="K30" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L30" s="51" t="s">
+      <c r="L30" s="29" t="s">
         <v>4</v>
       </c>
       <c r="M30" s="2" t="s">
@@ -2060,7 +2157,7 @@
       <c r="R30" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="S30" s="51" t="s">
+      <c r="S30" s="29" t="s">
         <v>4</v>
       </c>
       <c r="T30" s="2" t="s">
@@ -2081,7 +2178,7 @@
       <c r="Y30" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Z30" s="51" t="s">
+      <c r="Z30" s="29" t="s">
         <v>4</v>
       </c>
       <c r="AA30" s="2" t="s">
@@ -2102,59 +2199,63 @@
       <c r="AF30" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AG30" s="51" t="s">
+      <c r="AG30" s="29" t="s">
         <v>4</v>
       </c>
       <c r="AH30" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="2:34" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:34" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="11"/>
       <c r="C31" s="15"/>
-      <c r="D31" s="42" t="s">
-        <v>29</v>
+      <c r="D31" s="41" t="s">
+        <v>22</v>
       </c>
       <c r="E31" s="43"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="35" t="s">
-        <v>23</v>
-      </c>
+      <c r="F31" s="18"/>
+      <c r="G31" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="46"/>
       <c r="K31" s="19"/>
-      <c r="L31" s="34" t="s">
-        <v>19</v>
+      <c r="L31" s="53" t="s">
+        <v>18</v>
       </c>
       <c r="M31" s="19"/>
-      <c r="N31" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="O31" s="18"/>
-      <c r="P31" s="18"/>
-      <c r="Q31" s="18"/>
-      <c r="R31" s="18"/>
-      <c r="S31" s="18"/>
-      <c r="T31" s="19"/>
-      <c r="U31" s="19"/>
-      <c r="V31" s="19"/>
-      <c r="W31" s="22"/>
-      <c r="X31" s="22"/>
-      <c r="Y31" s="22"/>
-      <c r="Z31" s="22"/>
+      <c r="N31" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="O31" s="45"/>
+      <c r="P31" s="45"/>
+      <c r="Q31" s="45"/>
+      <c r="R31" s="46"/>
+      <c r="S31" s="62"/>
+      <c r="T31" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="U31" s="42"/>
+      <c r="V31" s="42"/>
+      <c r="W31" s="43"/>
+      <c r="X31" s="51"/>
+      <c r="Y31" s="55"/>
+      <c r="Z31" s="52"/>
       <c r="AA31" s="19"/>
-      <c r="AB31" s="19"/>
-      <c r="AC31" s="22"/>
-      <c r="AD31" s="22"/>
-      <c r="AE31" s="22"/>
-      <c r="AF31" s="22"/>
-      <c r="AG31" s="22"/>
+      <c r="AB31" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC31" s="60"/>
+      <c r="AD31" s="21"/>
+      <c r="AE31" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF31" s="61"/>
+      <c r="AG31" s="60"/>
       <c r="AH31" s="19"/>
     </row>
-    <row r="32" spans="2:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="11"/>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
@@ -2189,7 +2290,7 @@
       <c r="AG32" s="15"/>
       <c r="AH32" s="15"/>
     </row>
-    <row r="33" spans="1:39" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:39" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33"/>
       <c r="C33" s="12" t="s">
         <v>10</v>
@@ -2255,7 +2356,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:39" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:39" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34"/>
       <c r="C34" s="13"/>
       <c r="D34" s="2" t="s">
@@ -2273,7 +2374,7 @@
       <c r="H34" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I34" s="51" t="s">
+      <c r="I34" s="29" t="s">
         <v>4</v>
       </c>
       <c r="J34" s="2" t="s">
@@ -2294,7 +2395,7 @@
       <c r="O34" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="P34" s="51" t="s">
+      <c r="P34" s="29" t="s">
         <v>4</v>
       </c>
       <c r="Q34" s="2" t="s">
@@ -2319,41 +2420,43 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:39" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:39" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35"/>
       <c r="C35" s="15"/>
       <c r="D35" s="19"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="19"/>
+      <c r="E35" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="F35" s="43"/>
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
-      <c r="I35" s="34" t="s">
+      <c r="I35" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="J35" s="19"/>
+      <c r="K35" s="59" t="s">
+        <v>91</v>
+      </c>
+      <c r="L35" s="61"/>
+      <c r="M35" s="61"/>
+      <c r="N35" s="60"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="53" t="s">
         <v>20</v>
-      </c>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="O35" s="18"/>
-      <c r="P35" s="34" t="s">
-        <v>21</v>
       </c>
       <c r="Q35" s="19"/>
       <c r="R35" s="19"/>
-      <c r="S35" s="34" t="s">
-        <v>22</v>
+      <c r="S35" s="54" t="s">
+        <v>21</v>
       </c>
       <c r="T35" s="18"/>
       <c r="U35" s="18"/>
       <c r="V35" s="18"/>
-      <c r="W35" s="34" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="1:39" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W35" s="54" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:39" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36"/>
       <c r="C36"/>
       <c r="D36"/>
@@ -2361,7 +2464,7 @@
       <c r="F36"/>
       <c r="G36"/>
     </row>
-    <row r="37" spans="1:39" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:39" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37"/>
       <c r="C37"/>
       <c r="D37"/>
@@ -2369,7 +2472,7 @@
       <c r="F37"/>
       <c r="G37"/>
     </row>
-    <row r="38" spans="1:39" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:39" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38"/>
       <c r="C38"/>
       <c r="D38"/>
@@ -2377,7 +2480,7 @@
       <c r="F38"/>
       <c r="G38"/>
     </row>
-    <row r="39" spans="1:39" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:39" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39"/>
       <c r="C39"/>
       <c r="D39"/>
@@ -2385,7 +2488,7 @@
       <c r="F39"/>
       <c r="G39"/>
     </row>
-    <row r="40" spans="1:39" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:39" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40"/>
       <c r="C40"/>
       <c r="D40"/>
@@ -2393,7 +2496,7 @@
       <c r="F40"/>
       <c r="G40"/>
     </row>
-    <row r="41" spans="1:39" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:39" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41"/>
       <c r="C41"/>
       <c r="D41"/>
@@ -2401,7 +2504,7 @@
       <c r="F41"/>
       <c r="G41"/>
     </row>
-    <row r="42" spans="1:39" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:39" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42"/>
       <c r="C42"/>
       <c r="D42"/>
@@ -2409,7 +2512,7 @@
       <c r="F42"/>
       <c r="G42"/>
     </row>
-    <row r="43" spans="1:39" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:39" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -2444,7 +2547,7 @@
       <c r="AG43" s="9"/>
       <c r="AH43"/>
     </row>
-    <row r="44" spans="1:39" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:39" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44"/>
       <c r="C44"/>
       <c r="D44" s="6"/>
@@ -2484,7 +2587,7 @@
       <c r="AL44"/>
       <c r="AM44"/>
     </row>
-    <row r="45" spans="1:39" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:39" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45"/>
       <c r="AI45" s="4"/>
       <c r="AJ45" s="4"/>
@@ -2492,7 +2595,7 @@
       <c r="AL45" s="4"/>
       <c r="AM45" s="4"/>
     </row>
-    <row r="46" spans="1:39" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:39" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -2503,91 +2606,91 @@
       <c r="AL46" s="4"/>
       <c r="AM46" s="4"/>
     </row>
-    <row r="47" spans="1:39" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:39" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
     </row>
-    <row r="48" spans="1:39" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:39" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
     </row>
-    <row r="49" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
     </row>
-    <row r="50" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
     </row>
-    <row r="51" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
     </row>
-    <row r="52" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
     </row>
-    <row r="53" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
     </row>
-    <row r="54" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
     </row>
-    <row r="55" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
     </row>
-    <row r="56" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
     </row>
-    <row r="57" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
     </row>
-    <row r="58" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
     </row>
-    <row r="59" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59"/>
       <c r="C59"/>
@@ -2623,7 +2726,7 @@
       <c r="AG59" s="1"/>
       <c r="AH59" s="1"/>
     </row>
-    <row r="60" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -2664,14 +2767,14 @@
       <c r="AL60" s="4"/>
       <c r="AM60" s="4"/>
     </row>
-    <row r="61" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AI61" s="4"/>
       <c r="AJ61" s="4"/>
       <c r="AK61" s="4"/>
       <c r="AL61" s="4"/>
       <c r="AM61" s="4"/>
     </row>
-    <row r="62" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62"/>
       <c r="AI62" s="4"/>
       <c r="AJ62" s="4"/>
@@ -2679,7 +2782,7 @@
       <c r="AL62" s="4"/>
       <c r="AM62" s="4"/>
     </row>
-    <row r="63" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63"/>
       <c r="AI63" s="4"/>
       <c r="AJ63" s="4"/>
@@ -2687,7 +2790,7 @@
       <c r="AL63" s="4"/>
       <c r="AM63" s="4"/>
     </row>
-    <row r="64" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64"/>
       <c r="AI64"/>
       <c r="AJ64"/>
@@ -2696,7 +2799,7 @@
       <c r="AM64"/>
       <c r="AN64"/>
     </row>
-    <row r="65" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65"/>
       <c r="AI65"/>
       <c r="AJ65"/>
@@ -2705,7 +2808,7 @@
       <c r="AM65"/>
       <c r="AN65"/>
     </row>
-    <row r="66" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66"/>
       <c r="AI66"/>
       <c r="AJ66"/>
@@ -2714,7 +2817,7 @@
       <c r="AM66"/>
       <c r="AN66"/>
     </row>
-    <row r="67" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67"/>
       <c r="AI67"/>
       <c r="AJ67"/>
@@ -2723,7 +2826,7 @@
       <c r="AM67"/>
       <c r="AN67"/>
     </row>
-    <row r="68" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68"/>
       <c r="AI68"/>
       <c r="AJ68"/>
@@ -2732,7 +2835,7 @@
       <c r="AM68"/>
       <c r="AN68"/>
     </row>
-    <row r="69" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69"/>
       <c r="AI69"/>
       <c r="AJ69"/>
@@ -2741,7 +2844,7 @@
       <c r="AM69"/>
       <c r="AN69"/>
     </row>
-    <row r="70" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70"/>
       <c r="AI70"/>
       <c r="AJ70"/>
@@ -2750,7 +2853,7 @@
       <c r="AM70"/>
       <c r="AN70"/>
     </row>
-    <row r="71" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71"/>
       <c r="B71"/>
       <c r="C71"/>
@@ -2762,43 +2865,43 @@
       <c r="AM71"/>
       <c r="AN71"/>
     </row>
-    <row r="72" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72"/>
       <c r="B72"/>
       <c r="C72"/>
       <c r="D72"/>
     </row>
-    <row r="73" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73"/>
       <c r="B73"/>
       <c r="C73"/>
       <c r="D73"/>
     </row>
-    <row r="74" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74"/>
       <c r="B74"/>
       <c r="C74"/>
       <c r="D74"/>
     </row>
-    <row r="75" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75"/>
       <c r="B75"/>
       <c r="C75"/>
       <c r="D75"/>
     </row>
-    <row r="76" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76"/>
     </row>
-    <row r="77" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77"/>
     </row>
-    <row r="78" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78"/>
     </row>
-    <row r="79" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79"/>
     </row>
-    <row r="80" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80" s="4"/>
@@ -2807,7 +2910,7 @@
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
     </row>
-    <row r="81" spans="1:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81"/>
       <c r="B81"/>
       <c r="C81" s="4"/>
@@ -2816,7 +2919,7 @@
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
     </row>
-    <row r="82" spans="1:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82"/>
       <c r="B82"/>
       <c r="C82" s="4"/>
@@ -2825,7 +2928,7 @@
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
     </row>
-    <row r="83" spans="1:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83"/>
       <c r="B83"/>
       <c r="C83" s="4"/>
@@ -2834,7 +2937,7 @@
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
     </row>
-    <row r="84" spans="1:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84" s="4"/>
@@ -2843,7 +2946,7 @@
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
     </row>
-    <row r="85" spans="1:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85"/>
       <c r="B85"/>
       <c r="C85" s="4"/>
@@ -2852,7 +2955,7 @@
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
     </row>
-    <row r="86" spans="1:34" s="3" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:34" s="3" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86"/>
       <c r="B86"/>
       <c r="C86" s="4"/>
@@ -2861,7 +2964,7 @@
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
     </row>
-    <row r="87" spans="1:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87"/>
       <c r="B87"/>
       <c r="C87" s="4"/>
@@ -2870,7 +2973,7 @@
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
     </row>
-    <row r="88" spans="1:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88"/>
       <c r="B88"/>
       <c r="C88" s="4"/>
@@ -2879,7 +2982,7 @@
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
     </row>
-    <row r="89" spans="1:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89"/>
       <c r="B89"/>
       <c r="C89" s="4"/>
@@ -2888,7 +2991,7 @@
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
     </row>
-    <row r="90" spans="1:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90"/>
       <c r="B90"/>
       <c r="C90" s="4"/>
@@ -2897,7 +3000,7 @@
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
     </row>
-    <row r="91" spans="1:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91"/>
@@ -2933,7 +3036,7 @@
       <c r="AG91"/>
       <c r="AH91"/>
     </row>
-    <row r="92" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="9"/>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
@@ -2968,7 +3071,7 @@
       <c r="AG92" s="3"/>
       <c r="AH92" s="3"/>
     </row>
-    <row r="93" spans="1:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="9"/>
       <c r="B93" s="1"/>
       <c r="C93"/>
@@ -3004,7 +3107,7 @@
       <c r="AG93"/>
       <c r="AH93"/>
     </row>
-    <row r="94" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
@@ -3040,7 +3143,7 @@
       <c r="AG94"/>
       <c r="AH94"/>
     </row>
-    <row r="95" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
@@ -3076,7 +3179,7 @@
       <c r="AG95"/>
       <c r="AH95"/>
     </row>
-    <row r="96" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6"/>
       <c r="D96"/>
       <c r="F96"/>
@@ -3106,7 +3209,7 @@
       <c r="AG96"/>
       <c r="AH96"/>
     </row>
-    <row r="97" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D97"/>
       <c r="F97"/>
       <c r="G97"/>
@@ -3135,7 +3238,7 @@
       <c r="AG97"/>
       <c r="AH97"/>
     </row>
-    <row r="98" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D98"/>
       <c r="F98"/>
       <c r="G98"/>
@@ -3164,7 +3267,7 @@
       <c r="AG98"/>
       <c r="AH98"/>
     </row>
-    <row r="99" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D99"/>
       <c r="F99"/>
       <c r="G99"/>
@@ -3193,7 +3296,7 @@
       <c r="AG99"/>
       <c r="AH99"/>
     </row>
-    <row r="100" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D100"/>
       <c r="F100"/>
       <c r="G100"/>
@@ -3222,7 +3325,7 @@
       <c r="AG100"/>
       <c r="AH100"/>
     </row>
-    <row r="101" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D101"/>
       <c r="F101"/>
       <c r="G101"/>
@@ -3252,7 +3355,7 @@
       <c r="AG101"/>
       <c r="AH101"/>
     </row>
-    <row r="102" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D102"/>
       <c r="F102"/>
       <c r="G102"/>
@@ -3282,7 +3385,7 @@
       <c r="AG102"/>
       <c r="AH102"/>
     </row>
-    <row r="103" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D103"/>
       <c r="F103"/>
       <c r="G103"/>
@@ -3312,7 +3415,7 @@
       <c r="AG103"/>
       <c r="AH103"/>
     </row>
-    <row r="104" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D104"/>
       <c r="F104"/>
       <c r="G104"/>
@@ -3342,7 +3445,7 @@
       <c r="AG104"/>
       <c r="AH104"/>
     </row>
-    <row r="105" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D105"/>
       <c r="F105"/>
       <c r="G105"/>
@@ -3372,7 +3475,7 @@
       <c r="AG105"/>
       <c r="AH105"/>
     </row>
-    <row r="106" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D106"/>
       <c r="F106"/>
       <c r="G106"/>
@@ -3402,7 +3505,7 @@
       <c r="AG106"/>
       <c r="AH106"/>
     </row>
-    <row r="107" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D107"/>
       <c r="F107"/>
       <c r="G107"/>
@@ -3432,7 +3535,7 @@
       <c r="AG107"/>
       <c r="AH107"/>
     </row>
-    <row r="108" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="R108"/>
@@ -3453,7 +3556,7 @@
       <c r="AG108"/>
       <c r="AH108"/>
     </row>
-    <row r="109" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -3475,7 +3578,7 @@
       <c r="AG109"/>
       <c r="AH109"/>
     </row>
-    <row r="110" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -3497,7 +3600,7 @@
       <c r="AG110"/>
       <c r="AH110"/>
     </row>
-    <row r="111" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -3519,22 +3622,40 @@
       <c r="AG111"/>
       <c r="AH111"/>
     </row>
-    <row r="112" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F23:I23"/>
+  <mergeCells count="29">
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="AB31:AC31"/>
+    <mergeCell ref="AE31:AG31"/>
+    <mergeCell ref="N31:R31"/>
+    <mergeCell ref="X31:Z31"/>
+    <mergeCell ref="T31:W31"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="G31:J31"/>
     <mergeCell ref="C2:AH2"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="C9:C19"/>
     <mergeCell ref="C21:C27"/>
     <mergeCell ref="K7:M7"/>
     <mergeCell ref="I15:J15"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="L27:O27"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -3555,322 +3676,351 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF50040-4BB5-458D-9086-73113923FCEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B37289-8B84-4EB2-9BD0-AE396547AF0D}">
   <dimension ref="B2:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:I10"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="56"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="53" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="34"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="35">
+        <v>44877</v>
+      </c>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="35">
+        <v>44883</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="57">
-        <v>44877</v>
-      </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="53" t="s">
+      <c r="H7" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="57">
-        <v>44883</v>
-      </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="58" t="s">
+      <c r="I7" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="58" t="s">
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="37">
+        <v>1</v>
+      </c>
+      <c r="C8" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="D8" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="58" t="s">
+      <c r="E8" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="37">
+        <v>2</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="58" t="s">
+      <c r="G9" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="58" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="58" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="59">
-        <v>1</v>
-      </c>
-      <c r="C8" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="61"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="59">
-        <v>2</v>
-      </c>
-      <c r="C9" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="61"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="59">
+      <c r="H9" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="37">
         <v>3</v>
       </c>
-      <c r="C10" s="59" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="61"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62" t="s">
-        <v>40</v>
+      <c r="C10" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="39"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B37289-8B84-4EB2-9BD0-AE396547AF0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93651796-FB77-4096-A18E-5AD6A42E5EF1}">
   <dimension ref="B2:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:I10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="56"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="53" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="34"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="35">
+        <v>44884</v>
+      </c>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="35">
+        <v>44890</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="57">
-        <v>44884</v>
-      </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="53" t="s">
+      <c r="H7" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="57">
-        <v>44890</v>
-      </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="58" t="s">
+      <c r="I7" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="58" t="s">
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="37">
+        <v>1</v>
+      </c>
+      <c r="C8" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="D8" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="58" t="s">
+      <c r="E8" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="58" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="58" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="59">
-        <v>1</v>
-      </c>
-      <c r="C8" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="61"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="59">
+      <c r="H8" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="37">
         <v>2</v>
       </c>
-      <c r="C9" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="61"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="59">
+      <c r="C9" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="39"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="37">
         <v>3</v>
       </c>
-      <c r="C10" s="59" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="61"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62" t="s">
-        <v>40</v>
+      <c r="C10" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="39"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -3879,161 +4029,179 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93651796-FB77-4096-A18E-5AD6A42E5EF1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD9D32F-4E0E-4F37-AA4E-F7DF6B0A90F4}">
   <dimension ref="B2:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="54" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="34"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="35">
+        <v>44891</v>
+      </c>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="35">
+        <v>44897</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="37">
+        <v>1</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="37">
+        <v>2</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="56"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="57">
-        <v>44891</v>
-      </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="57">
-        <v>44897</v>
-      </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="58" t="s">
+      <c r="H9" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="37">
+        <v>3</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="58" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="58" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="59">
-        <v>1</v>
-      </c>
-      <c r="C8" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="61"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="59">
-        <v>2</v>
-      </c>
-      <c r="C9" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="61"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="59">
-        <v>3</v>
-      </c>
-      <c r="C10" s="59" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="61"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62" t="s">
-        <v>40</v>
+      <c r="E10" s="39"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -4042,161 +4210,175 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD9D32F-4E0E-4F37-AA4E-F7DF6B0A90F4}">
-  <dimension ref="B2:I10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D4BD6B-A863-49B8-9700-377978A2FDC0}">
+  <dimension ref="B2:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:I10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="56"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="53" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="34"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="35">
+        <v>44898</v>
+      </c>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="35">
+        <v>44904</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="57">
-        <v>44898</v>
-      </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="53" t="s">
+      <c r="H7" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="57">
-        <v>44904</v>
-      </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="58" t="s">
+      <c r="I7" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="58" t="s">
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="37">
+        <v>1</v>
+      </c>
+      <c r="C8" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="D8" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="58" t="s">
+      <c r="E8" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="58" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="58" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="59">
-        <v>1</v>
-      </c>
-      <c r="C8" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="61"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="59">
+      <c r="H8" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="37">
         <v>2</v>
       </c>
-      <c r="C9" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="61"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="59">
+      <c r="C9" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="39"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="37">
         <v>3</v>
       </c>
-      <c r="C10" s="59" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="61"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62" t="s">
-        <v>40</v>
+      <c r="C10" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="39"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -4205,161 +4387,171 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D4BD6B-A863-49B8-9700-377978A2FDC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB0B3956-A732-4402-86E6-397B6D0A9EC0}">
   <dimension ref="B2:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:I10"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="56"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="53" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="34"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="35">
+        <v>44905</v>
+      </c>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="35">
+        <v>44911</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="57">
-        <v>44905</v>
-      </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="53" t="s">
+      <c r="H7" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="57">
-        <v>44911</v>
-      </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="58" t="s">
+      <c r="I7" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="58" t="s">
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="37">
+        <v>1</v>
+      </c>
+      <c r="C8" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="D8" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="58" t="s">
+      <c r="E8" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="58" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="58" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="59">
-        <v>1</v>
-      </c>
-      <c r="C8" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="61"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="59">
+      <c r="H8" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="37">
         <v>2</v>
       </c>
-      <c r="C9" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="61"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="59">
+      <c r="C9" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="39"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="37">
         <v>3</v>
       </c>
-      <c r="C10" s="59" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="61"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62" t="s">
-        <v>40</v>
+      <c r="C10" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="39"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -4368,161 +4560,181 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB0B3956-A732-4402-86E6-397B6D0A9EC0}">
-  <dimension ref="B2:I10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB677AA4-99B9-4D7D-9849-08E3ECE68FB3}">
+  <dimension ref="B2:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:I10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="56"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="53" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="31"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="34"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="35">
+        <v>44912</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="35">
+        <v>44918</v>
+      </c>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="57">
-        <v>44912</v>
-      </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="53" t="s">
+      <c r="H8" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="57">
-        <v>44918</v>
-      </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="58" t="s">
+      <c r="I8" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="58" t="s">
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="37">
+        <v>1</v>
+      </c>
+      <c r="C9" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="D9" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="58" t="s">
+      <c r="E9" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="58" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="58" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="59">
-        <v>1</v>
-      </c>
-      <c r="C8" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="61"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="59">
+      <c r="H9" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9" s="40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="37">
         <v>2</v>
       </c>
-      <c r="C9" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="61"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="59">
+      <c r="C10" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="39"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="37">
         <v>3</v>
       </c>
-      <c r="C10" s="59" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="61"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62" t="s">
-        <v>40</v>
+      <c r="C11" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="39"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -4531,161 +4743,178 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB677AA4-99B9-4D7D-9849-08E3ECE68FB3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{600E5422-430A-4CED-9F3A-19A88DE65923}">
   <dimension ref="B2:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="56"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="53" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="34"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="35">
+        <v>44919</v>
+      </c>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="35">
+        <v>44925</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="57">
-        <v>44919</v>
-      </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="53" t="s">
+      <c r="H7" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="57">
-        <v>44925</v>
-      </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="58" t="s">
+      <c r="I7" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="58" t="s">
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="37">
+        <v>1</v>
+      </c>
+      <c r="C8" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="D8" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="58" t="s">
+      <c r="E8" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="37">
+        <v>2</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="58" t="s">
+      <c r="G9" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="58" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="58" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="59">
-        <v>1</v>
-      </c>
-      <c r="C8" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="61"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62" t="s">
+      <c r="H9" s="40" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="59">
-        <v>2</v>
-      </c>
-      <c r="C9" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="61"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="59">
+      <c r="I9" s="40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="37">
         <v>3</v>
       </c>
-      <c r="C10" s="59" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="61"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62" t="s">
-        <v>40</v>
+      <c r="C10" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="39"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -4694,161 +4923,170 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{600E5422-430A-4CED-9F3A-19A88DE65923}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029B8FAE-B685-4478-8711-990B27996A3D}">
   <dimension ref="B2:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:I10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="56"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="53" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="34"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="35">
+        <v>44926</v>
+      </c>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="35">
+        <v>44932</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="57">
-        <v>44926</v>
-      </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="53" t="s">
+      <c r="H7" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="57">
-        <v>44932</v>
-      </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="58" t="s">
+      <c r="I7" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="58" t="s">
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="37">
+        <v>1</v>
+      </c>
+      <c r="C8" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="D8" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="58" t="s">
+      <c r="E8" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="58" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="58" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="59">
-        <v>1</v>
-      </c>
-      <c r="C8" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="61"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="59">
+      <c r="H8" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="37">
         <v>2</v>
       </c>
-      <c r="C9" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="61"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="59">
+      <c r="C9" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="39"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="37">
         <v>3</v>
       </c>
-      <c r="C10" s="59" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="61"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62" t="s">
-        <v>40</v>
+      <c r="C10" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="39"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -4857,162 +5095,174 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DF5A3B7-072D-4F33-9723-F2D96E8294CC}">
-  <dimension ref="B2:I10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D557081-6F5C-4A46-8223-3CBC74B9BA90}">
+  <dimension ref="B2:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="56"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="53" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="34"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="35">
+        <v>44933</v>
+      </c>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="35">
+        <v>44939</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="57">
-        <v>44902</v>
-      </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="53" t="s">
+      <c r="H7" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="57">
-        <v>44939</v>
-      </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="58" t="s">
+      <c r="I7" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="58" t="s">
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="37">
+        <v>1</v>
+      </c>
+      <c r="C8" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="D8" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="58" t="s">
+      <c r="E8" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="58" t="s">
+      <c r="G8" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="58" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="58" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="59">
-        <v>1</v>
-      </c>
-      <c r="C8" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="61"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62" t="s">
+      <c r="H8" s="40" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="59">
+      <c r="I8" s="40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="37">
         <v>2</v>
       </c>
-      <c r="C9" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="61"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="59">
+      <c r="C9" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="39"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="37">
         <v>3</v>
       </c>
-      <c r="C10" s="59" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="61"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62" t="s">
-        <v>40</v>
-      </c>
+      <c r="C10" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="39"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F14" s="63"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5024,183 +5274,183 @@
   <dimension ref="B2:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="54" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="34"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="35">
+        <v>44823</v>
+      </c>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="35">
+        <v>44827</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="56"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="53" t="s">
+      <c r="G7" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="57">
-        <v>44823</v>
-      </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="53" t="s">
+      <c r="H7" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="57">
-        <v>44827</v>
-      </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="58" t="s">
+      <c r="I7" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="58" t="s">
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="37">
+        <v>1</v>
+      </c>
+      <c r="C8" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="D8" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="58" t="s">
+      <c r="E8" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="58" t="s">
+      <c r="G8" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="58" t="s">
+      <c r="H8" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="37">
+        <v>2</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="58" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="59">
-        <v>1</v>
-      </c>
-      <c r="C8" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="61" t="s">
-        <v>71</v>
-      </c>
-      <c r="F8" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="62" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" s="62" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="59">
-        <v>2</v>
-      </c>
-      <c r="C9" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="61" t="s">
+      <c r="G9" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="H9" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="I9" s="62" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="59">
+      <c r="H9" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="37">
         <v>3</v>
       </c>
-      <c r="C10" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="61" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="62" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" s="62" t="s">
-        <v>62</v>
-      </c>
-      <c r="H10" s="62" t="s">
-        <v>61</v>
-      </c>
-      <c r="I10" s="62" t="s">
-        <v>40</v>
+      <c r="C10" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="40" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -5213,183 +5463,183 @@
   <dimension ref="B2:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="52.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="54" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="34"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="35">
+        <v>44828</v>
+      </c>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="35">
+        <v>44834</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="56"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="53" t="s">
+      <c r="G7" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="57">
-        <v>44828</v>
-      </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="53" t="s">
+      <c r="H7" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="57">
-        <v>44834</v>
-      </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="58" t="s">
+      <c r="I7" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="58" t="s">
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="37">
+        <v>1</v>
+      </c>
+      <c r="C8" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="D8" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="58" t="s">
+      <c r="E8" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="58" t="s">
+      <c r="H8" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="58" t="s">
+      <c r="I8" s="40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="37">
+        <v>2</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="37">
+        <v>3</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="58" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="59">
-        <v>1</v>
-      </c>
-      <c r="C8" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="61" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="62" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="62" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="59">
-        <v>2</v>
-      </c>
-      <c r="C9" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="62" t="s">
-        <v>66</v>
-      </c>
-      <c r="H9" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="I9" s="62" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="59">
-        <v>3</v>
-      </c>
-      <c r="C10" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="61" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="62" t="s">
-        <v>62</v>
-      </c>
-      <c r="H10" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" s="62" t="s">
-        <v>40</v>
+      <c r="G10" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="40" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -5402,183 +5652,183 @@
   <dimension ref="B2:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="54" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="34"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="35">
+        <v>44835</v>
+      </c>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="35">
+        <v>44841</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="56"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="53" t="s">
+      <c r="G7" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="57">
-        <v>44835</v>
-      </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="53" t="s">
+      <c r="H7" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="57">
-        <v>44841</v>
-      </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="58" t="s">
+      <c r="I7" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="58" t="s">
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="37">
+        <v>1</v>
+      </c>
+      <c r="C8" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="D8" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="58" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="58" t="s">
+      <c r="E8" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="37">
+        <v>2</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="58" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="59">
-        <v>1</v>
-      </c>
-      <c r="C8" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="62" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" s="62" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" s="62" t="s">
-        <v>68</v>
-      </c>
-      <c r="I8" s="62" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="59">
-        <v>2</v>
-      </c>
-      <c r="C9" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="62" t="s">
+      <c r="G9" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="37">
+        <v>3</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="62" t="s">
-        <v>61</v>
-      </c>
-      <c r="I9" s="62" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="59">
-        <v>3</v>
-      </c>
-      <c r="C10" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="62" t="s">
-        <v>69</v>
-      </c>
-      <c r="H10" s="62" t="s">
-        <v>61</v>
-      </c>
-      <c r="I10" s="62" t="s">
-        <v>40</v>
+      <c r="H10" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="40" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -5591,211 +5841,211 @@
   <dimension ref="B2:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="54" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="34"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="35">
+        <v>44842</v>
+      </c>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="35">
+        <v>44848</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="56"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="53" t="s">
+      <c r="G7" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="57">
-        <v>44842</v>
-      </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="53" t="s">
+      <c r="H7" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="57">
-        <v>44848</v>
-      </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="58" t="s">
+      <c r="I7" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="58" t="s">
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="37">
+        <v>1</v>
+      </c>
+      <c r="C8" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="D8" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="58" t="s">
+      <c r="E8" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="58" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="58" t="s">
+      <c r="G8" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="37">
+        <v>2</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="37">
+        <v>3</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="58" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="59">
-        <v>1</v>
-      </c>
-      <c r="C8" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="61" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="62" t="s">
+      <c r="G10" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" s="62" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="59">
-        <v>2</v>
-      </c>
-      <c r="C9" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="61" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="62" t="s">
-        <v>75</v>
-      </c>
-      <c r="G9" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="H9" s="62" t="s">
-        <v>75</v>
-      </c>
-      <c r="I9" s="62" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="59">
-        <v>3</v>
-      </c>
-      <c r="C10" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="F10" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="62" t="s">
+      <c r="H10" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="37">
+        <v>4</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="H10" s="62" t="s">
-        <v>61</v>
-      </c>
-      <c r="I10" s="62" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="59">
-        <v>4</v>
-      </c>
-      <c r="C11" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="61" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="62" t="s">
-        <v>69</v>
-      </c>
-      <c r="H11" s="62" t="s">
-        <v>61</v>
-      </c>
-      <c r="I11" s="62" t="s">
-        <v>40</v>
+      <c r="F11" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" s="40" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -5808,158 +6058,158 @@
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="54" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="34"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="35">
+        <v>44849</v>
+      </c>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="35">
+        <v>44855</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="56"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="53" t="s">
+      <c r="G7" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="57">
-        <v>44849</v>
-      </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="53" t="s">
+      <c r="H7" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="57">
-        <v>44855</v>
-      </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="58" t="s">
+      <c r="I7" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="58" t="s">
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="37">
+        <v>1</v>
+      </c>
+      <c r="C8" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="D8" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="58" t="s">
+      <c r="E8" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="58" t="s">
+      <c r="H8" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="58" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="59">
-        <v>1</v>
-      </c>
-      <c r="C8" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="61" t="s">
-        <v>77</v>
-      </c>
-      <c r="F8" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="62" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="62" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="59">
+      <c r="I8" s="40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="37">
         <v>2</v>
       </c>
-      <c r="C9" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="61" t="s">
-        <v>78</v>
-      </c>
-      <c r="F9" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="62" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="I9" s="62" t="s">
-        <v>40</v>
+      <c r="C9" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="40" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -5972,261 +6222,261 @@
   <dimension ref="B2:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="54" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="34"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="35">
+        <v>44856</v>
+      </c>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="35">
+        <v>44862</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="56"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="53" t="s">
+      <c r="G7" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="57">
-        <v>44856</v>
-      </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="53" t="s">
+      <c r="H7" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="57">
-        <v>44862</v>
-      </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="58" t="s">
+      <c r="I7" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="58" t="s">
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="37">
+        <v>1</v>
+      </c>
+      <c r="C8" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="D8" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="58" t="s">
+      <c r="E8" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="37">
+        <v>2</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="58" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="58" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="59">
-        <v>1</v>
-      </c>
-      <c r="C8" s="59" t="s">
+      <c r="I9" s="40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="37">
+        <v>3</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="61" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="62" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="62" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8" s="62" t="s">
+      <c r="G10" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" s="40" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="59">
-        <v>2</v>
-      </c>
-      <c r="C9" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="62" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="62" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" s="62" t="s">
+      <c r="I10" s="40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="37">
+        <v>4</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="40" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="59">
-        <v>3</v>
-      </c>
-      <c r="C10" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="62" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="H10" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" s="62" t="s">
+      <c r="G11" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="40" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="59">
-        <v>4</v>
-      </c>
-      <c r="C11" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="61" t="s">
-        <v>80</v>
-      </c>
-      <c r="F11" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="62" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" s="62" t="s">
+      <c r="I11" s="40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="37">
+        <v>5</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="40" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="59">
-        <v>5</v>
-      </c>
-      <c r="C12" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="61" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="62" t="s">
-        <v>67</v>
-      </c>
-      <c r="H12" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" s="62" t="s">
+      <c r="G12" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="40" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="59">
+      <c r="I12" s="40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="37">
         <v>6</v>
       </c>
-      <c r="C13" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="61" t="s">
-        <v>86</v>
-      </c>
-      <c r="F13" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="H13" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" s="62" t="s">
+      <c r="C13" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="40" t="s">
         <v>40</v>
+      </c>
+      <c r="G13" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="40" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -6239,184 +6489,184 @@
   <dimension ref="B2:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="54" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="34"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="35">
+        <v>44863</v>
+      </c>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="35">
+        <v>44869</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="56"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="53" t="s">
+      <c r="G7" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="57">
-        <v>44863</v>
-      </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="53" t="s">
+      <c r="H7" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="57">
-        <v>44869</v>
-      </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="58" t="s">
+      <c r="I7" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="58" t="s">
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="37">
+        <v>1</v>
+      </c>
+      <c r="C8" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="D8" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="58" t="s">
+      <c r="E8" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="37">
+        <v>2</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="58" t="s">
+      <c r="G9" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="37">
+        <v>3</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="58" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="58" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="59">
-        <v>1</v>
-      </c>
-      <c r="C8" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="61" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="H8" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="62" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="59">
-        <v>2</v>
-      </c>
-      <c r="C9" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="61" t="s">
-        <v>81</v>
-      </c>
-      <c r="F9" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="62" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" s="62" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="59">
-        <v>3</v>
-      </c>
-      <c r="C10" s="59" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="61" t="s">
-        <v>83</v>
-      </c>
-      <c r="F10" s="62" t="s">
-        <v>75</v>
-      </c>
-      <c r="G10" s="62" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="62" t="s">
-        <v>75</v>
-      </c>
-      <c r="I10" s="62" t="s">
-        <v>40</v>
+      <c r="H10" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" s="40" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -6425,163 +6675,178 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AC03989-E616-4342-AB75-86A3E48665FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF50040-4BB5-458D-9086-73113923FCEB}">
   <dimension ref="B2:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="56"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="53" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="34"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="35">
+        <v>44869</v>
+      </c>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="35">
+        <v>44876</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="57">
-        <v>44870</v>
-      </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="53" t="s">
+      <c r="H7" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="57">
-        <v>44876</v>
-      </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="58" t="s">
+      <c r="I7" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="58" t="s">
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="37">
+        <v>1</v>
+      </c>
+      <c r="C8" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="D8" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="58" t="s">
+      <c r="E8" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="58" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="58" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="59">
-        <v>1</v>
-      </c>
-      <c r="C8" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="61"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="59">
+      <c r="H8" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="37">
         <v>2</v>
       </c>
-      <c r="C9" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="61"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="59">
+      <c r="C9" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="I9" s="40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="37">
         <v>3</v>
       </c>
-      <c r="C10" s="59" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="61"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62" t="s">
-        <v>40</v>
+      <c r="C10" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="39"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gonçalo Cunha\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TrabalhosPraticos\Projeto Aplicado\ipca_gym\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60ACC727-EC7E-421E-AE7F-A8A7C8D24B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BFDF22-E251-44D3-8048-602ECF65727E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20520" yWindow="-120" windowWidth="20640" windowHeight="11160" firstSheet="11" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma_Projecto" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="99">
   <si>
     <t>Dom</t>
   </si>
@@ -350,6 +350,9 @@
   </si>
   <si>
     <t>Documento do Projeto</t>
+  </si>
+  <si>
+    <t>Observações: o que está a vermelho é o final de cada sprint</t>
   </si>
 </sst>
 </file>
@@ -656,7 +659,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -668,30 +671,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -728,7 +726,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -760,13 +758,29 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="18" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="18" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="18" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="10" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -776,6 +790,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="10" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -790,43 +816,15 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="18" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="18" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="18" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1124,8 +1122,8 @@
   </sheetPr>
   <dimension ref="A2:AP112"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="J22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E35" sqref="E34:F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1164,43 +1162,43 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="48"/>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="48"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="55"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="55"/>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="55"/>
+      <c r="AC2" s="55"/>
+      <c r="AD2" s="55"/>
+      <c r="AE2" s="55"/>
+      <c r="AF2" s="55"/>
+      <c r="AG2" s="55"/>
+      <c r="AH2" s="55"/>
     </row>
     <row r="5" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="56" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="2">
@@ -1260,7 +1258,7 @@
       <c r="AH5"/>
     </row>
     <row r="6" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C6" s="49"/>
+      <c r="C6" s="56"/>
       <c r="D6" s="2" t="s">
         <v>1</v>
       </c>
@@ -1273,7 +1271,7 @@
       <c r="G6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="29" t="s">
+      <c r="H6" s="26" t="s">
         <v>4</v>
       </c>
       <c r="I6" s="2" t="s">
@@ -1294,7 +1292,7 @@
       <c r="N6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O6" s="29" t="s">
+      <c r="O6" s="26" t="s">
         <v>4</v>
       </c>
       <c r="P6"/>
@@ -1318,31 +1316,31 @@
       <c r="AH6"/>
     </row>
     <row r="7" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C7" s="49"/>
-      <c r="D7" s="41" t="s">
+      <c r="C7" s="56"/>
+      <c r="D7" s="42" t="s">
         <v>53</v>
       </c>
       <c r="E7" s="43"/>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="25" t="s">
+      <c r="H7" s="25"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="K7" s="41" t="s">
+      <c r="K7" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="42"/>
+      <c r="L7" s="53"/>
       <c r="M7" s="43"/>
-      <c r="N7" s="24" t="s">
+      <c r="N7" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="O7" s="18"/>
+      <c r="O7" s="15"/>
       <c r="P7"/>
       <c r="Q7"/>
       <c r="R7"/>
@@ -1364,45 +1362,44 @@
       <c r="AH7"/>
     </row>
     <row r="8" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="15"/>
-      <c r="AA8" s="15"/>
-      <c r="AB8" s="15"/>
-      <c r="AC8" s="15"/>
-      <c r="AD8" s="15"/>
-      <c r="AE8" s="15"/>
-      <c r="AF8" s="15"/>
-      <c r="AG8" s="15"/>
-      <c r="AH8" s="15"/>
-      <c r="AM8" s="14"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="12"/>
+      <c r="AE8" s="12"/>
+      <c r="AF8" s="12"/>
+      <c r="AG8" s="12"/>
+      <c r="AH8" s="12"/>
     </row>
     <row r="9" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="19">
         <v>1</v>
       </c>
       <c r="E9" s="2">
@@ -1443,8 +1440,8 @@
       </c>
     </row>
     <row r="10" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C10" s="50"/>
-      <c r="D10" s="22" t="s">
+      <c r="C10" s="57"/>
+      <c r="D10" s="19" t="s">
         <v>5</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -1462,7 +1459,7 @@
       <c r="I10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J10" s="29" t="s">
+      <c r="J10" s="26" t="s">
         <v>4</v>
       </c>
       <c r="K10" s="2" t="s">
@@ -1485,37 +1482,37 @@
       </c>
     </row>
     <row r="11" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="50"/>
-      <c r="D11" s="41" t="s">
+      <c r="C11" s="57"/>
+      <c r="D11" s="42" t="s">
         <v>24</v>
       </c>
       <c r="E11" s="43"/>
-      <c r="F11" s="41" t="s">
+      <c r="F11" s="42" t="s">
         <v>63</v>
       </c>
       <c r="G11" s="43"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="26" t="s">
+      <c r="H11" s="25"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="K11" s="41" t="s">
+      <c r="K11" s="42" t="s">
         <v>65</v>
       </c>
       <c r="L11" s="43"/>
-      <c r="M11" s="24" t="s">
+      <c r="M11" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="N11" s="24" t="s">
+      <c r="N11" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="O11" s="24" t="s">
+      <c r="O11" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="P11" s="18"/>
+      <c r="P11" s="15"/>
     </row>
     <row r="12" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C12" s="50"/>
+      <c r="C12" s="57"/>
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
@@ -1528,12 +1525,12 @@
       <c r="AE12" s="5"/>
       <c r="AF12" s="5"/>
       <c r="AG12" s="5"/>
-      <c r="AH12" s="16"/>
+      <c r="AH12" s="13"/>
       <c r="AI12" s="7"/>
     </row>
     <row r="13" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C13" s="50"/>
-      <c r="D13" s="22">
+      <c r="C13" s="57"/>
+      <c r="D13" s="19">
         <v>14</v>
       </c>
       <c r="E13" s="2">
@@ -1574,8 +1571,8 @@
       </c>
     </row>
     <row r="14" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C14" s="50"/>
-      <c r="D14" s="30" t="s">
+      <c r="C14" s="57"/>
+      <c r="D14" s="27" t="s">
         <v>4</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -1596,7 +1593,7 @@
       <c r="J14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="29" t="s">
+      <c r="K14" s="26" t="s">
         <v>4</v>
       </c>
       <c r="L14" s="2" t="s">
@@ -1621,34 +1618,34 @@
       <c r="AP14" s="1"/>
     </row>
     <row r="15" spans="2:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="50"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="44" t="s">
+      <c r="C15" s="57"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="45"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="41" t="s">
+      <c r="F15" s="48"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="42" t="s">
         <v>71</v>
       </c>
       <c r="J15" s="43"/>
-      <c r="K15" s="53" t="s">
+      <c r="K15" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="L15" s="24" t="s">
+      <c r="L15" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="M15" s="24" t="s">
+      <c r="M15" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="N15" s="24" t="s">
+      <c r="N15" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="O15" s="24" t="s">
+      <c r="O15" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="P15" s="27" t="s">
+      <c r="P15" s="24" t="s">
         <v>78</v>
       </c>
       <c r="AL15" s="1"/>
@@ -1659,12 +1656,12 @@
     </row>
     <row r="16" spans="2:42" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="4"/>
-      <c r="C16" s="50"/>
+      <c r="C16" s="57"/>
     </row>
     <row r="17" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="22">
+      <c r="C17" s="57"/>
+      <c r="D17" s="19">
         <v>27</v>
       </c>
       <c r="E17" s="2">
@@ -1682,11 +1679,11 @@
     </row>
     <row r="18" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="22" t="s">
+      <c r="C18" s="57"/>
+      <c r="D18" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="29" t="s">
+      <c r="E18" s="26" t="s">
         <v>4</v>
       </c>
       <c r="F18" s="2" t="s">
@@ -1701,26 +1698,25 @@
     </row>
     <row r="19" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="41" t="s">
+      <c r="C19" s="57"/>
+      <c r="D19" s="42" t="s">
         <v>79</v>
       </c>
       <c r="E19" s="43"/>
-      <c r="F19" s="41" t="s">
+      <c r="F19" s="42" t="s">
         <v>72</v>
       </c>
       <c r="G19" s="43"/>
-      <c r="H19" s="18"/>
+      <c r="H19" s="15"/>
     </row>
     <row r="20" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
     </row>
     <row r="21" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="11"/>
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="19">
         <v>1</v>
       </c>
       <c r="E21" s="2">
@@ -1759,12 +1755,11 @@
       <c r="P21" s="2">
         <v>13</v>
       </c>
-      <c r="AH21" s="15"/>
+      <c r="AH21" s="12"/>
     </row>
     <row r="22" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="11"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="22" t="s">
+      <c r="C22" s="57"/>
+      <c r="D22" s="19" t="s">
         <v>6</v>
       </c>
       <c r="E22" s="2" t="s">
@@ -1773,7 +1768,7 @@
       <c r="F22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="29" t="s">
+      <c r="G22" s="26" t="s">
         <v>4</v>
       </c>
       <c r="H22" s="2" t="s">
@@ -1794,7 +1789,7 @@
       <c r="M22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="29" t="s">
+      <c r="N22" s="26" t="s">
         <v>4</v>
       </c>
       <c r="O22" s="2" t="s">
@@ -1803,73 +1798,70 @@
       <c r="P22" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AH22" s="15"/>
+      <c r="AH22" s="12"/>
     </row>
     <row r="23" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="11"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="24" t="s">
+      <c r="C23" s="57"/>
+      <c r="D23" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="41" t="s">
+      <c r="E23" s="15"/>
+      <c r="F23" s="42" t="s">
         <v>92</v>
       </c>
       <c r="G23" s="43"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="41" t="s">
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="42" t="s">
         <v>83</v>
       </c>
       <c r="K23" s="43"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="41" t="s">
+      <c r="L23" s="15"/>
+      <c r="M23" s="42" t="s">
         <v>93</v>
       </c>
       <c r="N23" s="43"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
-      <c r="AH23" s="15"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="AH23" s="12"/>
     </row>
     <row r="24" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="11"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17"/>
-      <c r="T24" s="17"/>
-      <c r="U24" s="17"/>
-      <c r="V24" s="17"/>
-      <c r="W24" s="17"/>
-      <c r="X24" s="17"/>
-      <c r="Y24" s="17"/>
-      <c r="Z24" s="17"/>
-      <c r="AA24" s="17"/>
-      <c r="AB24" s="17"/>
-      <c r="AC24" s="17"/>
-      <c r="AD24" s="17"/>
-      <c r="AE24" s="17"/>
-      <c r="AF24" s="17"/>
-      <c r="AG24" s="17"/>
-      <c r="AH24" s="17"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="14"/>
+      <c r="Z24" s="14"/>
+      <c r="AA24" s="14"/>
+      <c r="AB24" s="14"/>
+      <c r="AC24" s="14"/>
+      <c r="AD24" s="14"/>
+      <c r="AE24" s="14"/>
+      <c r="AF24" s="14"/>
+      <c r="AG24" s="14"/>
+      <c r="AH24" s="14"/>
     </row>
     <row r="25" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="11"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="22">
+      <c r="C25" s="57"/>
+      <c r="D25" s="19">
         <v>14</v>
       </c>
       <c r="E25" s="2">
@@ -1922,9 +1914,8 @@
       </c>
     </row>
     <row r="26" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="11"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="22" t="s">
+      <c r="C26" s="57"/>
+      <c r="D26" s="19" t="s">
         <v>1</v>
       </c>
       <c r="E26" s="2" t="s">
@@ -1936,7 +1927,7 @@
       <c r="G26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="29" t="s">
+      <c r="H26" s="26" t="s">
         <v>4</v>
       </c>
       <c r="I26" s="2" t="s">
@@ -1957,7 +1948,7 @@
       <c r="N26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O26" s="29" t="s">
+      <c r="O26" s="26" t="s">
         <v>4</v>
       </c>
       <c r="P26" s="2" t="s">
@@ -1977,42 +1968,42 @@
       </c>
     </row>
     <row r="27" spans="2:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="11"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="41" t="s">
+      <c r="B27"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="42" t="s">
         <v>94</v>
       </c>
       <c r="E27" s="43"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="24" t="s">
+      <c r="F27" s="15"/>
+      <c r="G27" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="H27" s="53" t="s">
+      <c r="H27" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="41" t="s">
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="M27" s="42"/>
-      <c r="N27" s="42"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="53"/>
       <c r="O27" s="43"/>
-      <c r="P27" s="56"/>
-      <c r="Q27" s="57"/>
-      <c r="R27" s="58"/>
-      <c r="S27" s="41" t="s">
+      <c r="P27" s="58"/>
+      <c r="Q27" s="59"/>
+      <c r="R27" s="60"/>
+      <c r="S27" s="42" t="s">
         <v>85</v>
       </c>
       <c r="T27" s="43"/>
     </row>
     <row r="28" spans="2:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="11"/>
+      <c r="B28"/>
     </row>
     <row r="29" spans="2:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="11"/>
-      <c r="C29" s="12" t="s">
+      <c r="B29"/>
+      <c r="C29" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2">
@@ -2102,7 +2093,7 @@
       <c r="AF29" s="2">
         <v>29</v>
       </c>
-      <c r="AG29" s="10">
+      <c r="AG29" s="9">
         <v>30</v>
       </c>
       <c r="AH29" s="2">
@@ -2110,12 +2101,12 @@
       </c>
     </row>
     <row r="30" spans="2:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="11"/>
-      <c r="C30" s="13"/>
+      <c r="B30"/>
+      <c r="C30" s="11"/>
       <c r="D30" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="29" t="s">
+      <c r="E30" s="26" t="s">
         <v>4</v>
       </c>
       <c r="F30" s="2" t="s">
@@ -2136,7 +2127,7 @@
       <c r="K30" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L30" s="29" t="s">
+      <c r="L30" s="26" t="s">
         <v>4</v>
       </c>
       <c r="M30" s="2" t="s">
@@ -2157,7 +2148,7 @@
       <c r="R30" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="S30" s="29" t="s">
+      <c r="S30" s="26" t="s">
         <v>4</v>
       </c>
       <c r="T30" s="2" t="s">
@@ -2178,7 +2169,7 @@
       <c r="Y30" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Z30" s="29" t="s">
+      <c r="Z30" s="26" t="s">
         <v>4</v>
       </c>
       <c r="AA30" s="2" t="s">
@@ -2199,7 +2190,7 @@
       <c r="AF30" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AG30" s="29" t="s">
+      <c r="AG30" s="26" t="s">
         <v>4</v>
       </c>
       <c r="AH30" s="2" t="s">
@@ -2207,92 +2198,92 @@
       </c>
     </row>
     <row r="31" spans="2:34" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="11"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="41" t="s">
+      <c r="B31"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="42" t="s">
         <v>22</v>
       </c>
       <c r="E31" s="43"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="44" t="s">
+      <c r="F31" s="15"/>
+      <c r="G31" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="53" t="s">
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="M31" s="19"/>
-      <c r="N31" s="44" t="s">
+      <c r="M31" s="16"/>
+      <c r="N31" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="O31" s="45"/>
-      <c r="P31" s="45"/>
-      <c r="Q31" s="45"/>
-      <c r="R31" s="46"/>
-      <c r="S31" s="62"/>
-      <c r="T31" s="41" t="s">
+      <c r="O31" s="48"/>
+      <c r="P31" s="48"/>
+      <c r="Q31" s="48"/>
+      <c r="R31" s="49"/>
+      <c r="S31" s="40"/>
+      <c r="T31" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="U31" s="42"/>
-      <c r="V31" s="42"/>
+      <c r="U31" s="53"/>
+      <c r="V31" s="53"/>
       <c r="W31" s="43"/>
-      <c r="X31" s="51"/>
-      <c r="Y31" s="55"/>
+      <c r="X31" s="50"/>
+      <c r="Y31" s="51"/>
       <c r="Z31" s="52"/>
-      <c r="AA31" s="19"/>
-      <c r="AB31" s="59" t="s">
+      <c r="AA31" s="16"/>
+      <c r="AB31" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="AC31" s="60"/>
-      <c r="AD31" s="21"/>
-      <c r="AE31" s="59" t="s">
+      <c r="AC31" s="46"/>
+      <c r="AD31" s="18"/>
+      <c r="AE31" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="AF31" s="61"/>
-      <c r="AG31" s="60"/>
-      <c r="AH31" s="19"/>
+      <c r="AF31" s="45"/>
+      <c r="AG31" s="46"/>
+      <c r="AH31" s="16"/>
     </row>
     <row r="32" spans="2:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="11"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="15"/>
-      <c r="R32" s="15"/>
-      <c r="S32" s="15"/>
-      <c r="T32" s="15"/>
-      <c r="U32" s="15"/>
-      <c r="V32" s="15"/>
-      <c r="W32" s="15"/>
-      <c r="X32" s="15"/>
-      <c r="Y32" s="15"/>
-      <c r="Z32" s="15"/>
-      <c r="AA32" s="15"/>
-      <c r="AB32" s="15"/>
-      <c r="AC32" s="15"/>
-      <c r="AD32" s="15"/>
-      <c r="AE32" s="15"/>
-      <c r="AF32" s="15"/>
-      <c r="AG32" s="15"/>
-      <c r="AH32" s="15"/>
+      <c r="B32"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="12"/>
+      <c r="X32" s="12"/>
+      <c r="Y32" s="12"/>
+      <c r="Z32" s="12"/>
+      <c r="AA32" s="12"/>
+      <c r="AB32" s="12"/>
+      <c r="AC32" s="12"/>
+      <c r="AD32" s="12"/>
+      <c r="AE32" s="12"/>
+      <c r="AF32" s="12"/>
+      <c r="AG32" s="12"/>
+      <c r="AH32" s="12"/>
     </row>
     <row r="33" spans="1:39" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33"/>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D33" s="2">
@@ -2358,7 +2349,7 @@
     </row>
     <row r="34" spans="1:39" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34"/>
-      <c r="C34" s="13"/>
+      <c r="C34" s="11"/>
       <c r="D34" s="2" t="s">
         <v>0</v>
       </c>
@@ -2374,7 +2365,7 @@
       <c r="H34" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I34" s="29" t="s">
+      <c r="I34" s="26" t="s">
         <v>4</v>
       </c>
       <c r="J34" s="2" t="s">
@@ -2395,7 +2386,7 @@
       <c r="O34" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="P34" s="29" t="s">
+      <c r="P34" s="26" t="s">
         <v>4</v>
       </c>
       <c r="Q34" s="2" t="s">
@@ -2422,37 +2413,37 @@
     </row>
     <row r="35" spans="1:39" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="41" t="s">
+      <c r="C35" s="12"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="42" t="s">
         <v>90</v>
       </c>
       <c r="F35" s="43"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="53" t="s">
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="J35" s="19"/>
-      <c r="K35" s="59" t="s">
+      <c r="J35" s="16"/>
+      <c r="K35" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="L35" s="61"/>
-      <c r="M35" s="61"/>
-      <c r="N35" s="60"/>
-      <c r="O35" s="18"/>
-      <c r="P35" s="53" t="s">
+      <c r="L35" s="45"/>
+      <c r="M35" s="45"/>
+      <c r="N35" s="46"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="19"/>
-      <c r="S35" s="54" t="s">
+      <c r="Q35" s="16"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T35" s="18"/>
-      <c r="U35" s="18"/>
-      <c r="V35" s="18"/>
-      <c r="W35" s="54" t="s">
+      <c r="T35" s="15"/>
+      <c r="U35" s="15"/>
+      <c r="V35" s="15"/>
+      <c r="W35" s="39" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2480,13 +2471,18 @@
       <c r="F38"/>
       <c r="G38"/>
     </row>
-    <row r="39" spans="1:39" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:39" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39"/>
       <c r="C39"/>
-      <c r="D39"/>
+      <c r="D39" t="s">
+        <v>98</v>
+      </c>
       <c r="E39"/>
       <c r="F39"/>
       <c r="G39"/>
+      <c r="J39" s="3" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="40" spans="1:39" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40"/>
@@ -2542,9 +2538,9 @@
       <c r="AB43" s="8"/>
       <c r="AC43" s="8"/>
       <c r="AD43" s="8"/>
-      <c r="AE43" s="9"/>
-      <c r="AF43" s="9"/>
-      <c r="AG43" s="9"/>
+      <c r="AE43" s="4"/>
+      <c r="AF43" s="4"/>
+      <c r="AG43" s="4"/>
       <c r="AH43"/>
     </row>
     <row r="44" spans="1:39" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2757,10 +2753,10 @@
       <c r="AB60" s="8"/>
       <c r="AC60" s="8"/>
       <c r="AD60" s="8"/>
-      <c r="AE60" s="9"/>
-      <c r="AF60" s="9"/>
-      <c r="AG60" s="9"/>
-      <c r="AH60" s="9"/>
+      <c r="AE60" s="4"/>
+      <c r="AF60" s="4"/>
+      <c r="AG60" s="4"/>
+      <c r="AH60" s="4"/>
       <c r="AI60" s="4"/>
       <c r="AJ60" s="4"/>
       <c r="AK60" s="4"/>
@@ -3037,7 +3033,7 @@
       <c r="AH91"/>
     </row>
     <row r="92" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="9"/>
+      <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
@@ -3072,7 +3068,7 @@
       <c r="AH92" s="3"/>
     </row>
     <row r="93" spans="1:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="9"/>
+      <c r="A93" s="4"/>
       <c r="B93" s="1"/>
       <c r="C93"/>
       <c r="D93"/>
@@ -3627,13 +3623,12 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="AB31:AC31"/>
-    <mergeCell ref="AE31:AG31"/>
-    <mergeCell ref="N31:R31"/>
-    <mergeCell ref="X31:Z31"/>
-    <mergeCell ref="T31:W31"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="L27:O27"/>
     <mergeCell ref="S27:T27"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="G31:J31"/>
@@ -3650,12 +3645,13 @@
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="P27:R27"/>
     <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="L27:O27"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="AB31:AC31"/>
+    <mergeCell ref="AE31:AG31"/>
+    <mergeCell ref="N31:R31"/>
+    <mergeCell ref="X31:Z31"/>
+    <mergeCell ref="T31:W31"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -3693,160 +3689,160 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="34"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="32">
         <v>44877</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="32">
         <v>44883</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="36" t="s">
+      <c r="E7" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="36" t="s">
+      <c r="H7" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="36" t="s">
+      <c r="I7" s="33" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="37">
+      <c r="B8" s="34">
         <v>1</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="H8" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="I8" s="40" t="s">
+      <c r="I8" s="37" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="37">
+      <c r="B9" s="34">
         <v>2</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="F9" s="40" t="s">
+      <c r="F9" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="40" t="s">
+      <c r="H9" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="40" t="s">
+      <c r="I9" s="37" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="37">
+      <c r="B10" s="34">
         <v>3</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40" t="s">
+      <c r="E10" s="36"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3874,152 +3870,152 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="34"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="32">
         <v>44884</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="32">
         <v>44890</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="36" t="s">
+      <c r="E7" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="36" t="s">
+      <c r="H7" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="36" t="s">
+      <c r="I7" s="33" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="37">
+      <c r="B8" s="34">
         <v>1</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="H8" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="I8" s="40" t="s">
+      <c r="I8" s="37" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="37">
+      <c r="B9" s="34">
         <v>2</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40" t="s">
+      <c r="E9" s="36"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="37">
+      <c r="B10" s="34">
         <v>3</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40" t="s">
+      <c r="E10" s="36"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4047,160 +4043,160 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="34"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="32">
         <v>44891</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="32">
         <v>44897</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="36" t="s">
+      <c r="E7" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="36" t="s">
+      <c r="H7" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="36" t="s">
+      <c r="I7" s="33" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="37">
+      <c r="B8" s="34">
         <v>1</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="H8" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="I8" s="40" t="s">
+      <c r="I8" s="37" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="37">
+      <c r="B9" s="34">
         <v>2</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="40" t="s">
+      <c r="F9" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="H9" s="40" t="s">
+      <c r="H9" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="40" t="s">
+      <c r="I9" s="37" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="37">
+      <c r="B10" s="34">
         <v>3</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40" t="s">
+      <c r="E10" s="36"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4227,152 +4223,152 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="34"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="32">
         <v>44898</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="32">
         <v>44904</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="36" t="s">
+      <c r="E7" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="36" t="s">
+      <c r="H7" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="36" t="s">
+      <c r="I7" s="33" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="37">
+      <c r="B8" s="34">
         <v>1</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="H8" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="I8" s="40" t="s">
+      <c r="I8" s="37" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="37">
+      <c r="B9" s="34">
         <v>2</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40" t="s">
+      <c r="E9" s="36"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="37">
+      <c r="B10" s="34">
         <v>3</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40" t="s">
+      <c r="E10" s="36"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4405,152 +4401,152 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="34"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="32">
         <v>44905</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="32">
         <v>44911</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="36" t="s">
+      <c r="E7" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="36" t="s">
+      <c r="H7" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="36" t="s">
+      <c r="I7" s="33" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="37">
+      <c r="B8" s="34">
         <v>1</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="H8" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="I8" s="40" t="s">
+      <c r="I8" s="37" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="37">
+      <c r="B9" s="34">
         <v>2</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40" t="s">
+      <c r="E9" s="36"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="37">
+      <c r="B10" s="34">
         <v>3</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40" t="s">
+      <c r="E10" s="36"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4578,162 +4574,162 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="31"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="34"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="32">
         <v>44912</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="32">
         <v>44918</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="36" t="s">
+      <c r="E8" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="36" t="s">
+      <c r="H8" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="36" t="s">
+      <c r="I8" s="33" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="37">
+      <c r="B9" s="34">
         <v>1</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="F9" s="40" t="s">
+      <c r="F9" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="40" t="s">
+      <c r="H9" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="I9" s="40" t="s">
+      <c r="I9" s="37" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="37">
+      <c r="B10" s="34">
         <v>2</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40" t="s">
+      <c r="E10" s="36"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="37">
+      <c r="B11" s="34">
         <v>3</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="39"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40" t="s">
+      <c r="E11" s="36"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4760,160 +4756,160 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="34"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="32">
         <v>44919</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="32">
         <v>44925</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="36" t="s">
+      <c r="E7" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="36" t="s">
+      <c r="H7" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="36" t="s">
+      <c r="I7" s="33" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="37">
+      <c r="B8" s="34">
         <v>1</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="H8" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="I8" s="40" t="s">
+      <c r="I8" s="37" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="37">
+      <c r="B9" s="34">
         <v>2</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="F9" s="40" t="s">
+      <c r="F9" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="40" t="s">
+      <c r="H9" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="40" t="s">
+      <c r="I9" s="37" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="37">
+      <c r="B10" s="34">
         <v>3</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40" t="s">
+      <c r="E10" s="36"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4940,152 +4936,152 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="34"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="32">
         <v>44926</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="32">
         <v>44932</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="36" t="s">
+      <c r="E7" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="36" t="s">
+      <c r="H7" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="36" t="s">
+      <c r="I7" s="33" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="37">
+      <c r="B8" s="34">
         <v>1</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="H8" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="I8" s="40" t="s">
+      <c r="I8" s="37" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="37">
+      <c r="B9" s="34">
         <v>2</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40" t="s">
+      <c r="E9" s="36"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="37">
+      <c r="B10" s="34">
         <v>3</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40" t="s">
+      <c r="E10" s="36"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37" t="s">
         <v>33</v>
       </c>
     </row>
@@ -5098,8 +5094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D557081-6F5C-4A46-8223-3CBC74B9BA90}">
   <dimension ref="B2:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5112,157 +5108,157 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="34"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="32">
         <v>44933</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="32">
         <v>44939</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="36" t="s">
+      <c r="E7" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="36" t="s">
+      <c r="H7" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="36" t="s">
+      <c r="I7" s="33" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="37">
+      <c r="B8" s="34">
         <v>1</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="H8" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="40" t="s">
+      <c r="I8" s="37" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="37">
+      <c r="B9" s="34">
         <v>2</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40" t="s">
+      <c r="E9" s="36"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="37">
+      <c r="B10" s="34">
         <v>3</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40" t="s">
+      <c r="E10" s="36"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F14" s="63"/>
+      <c r="F14" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5288,168 +5284,168 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="34"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="32">
         <v>44823</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="32">
         <v>44827</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="36" t="s">
+      <c r="E7" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="36" t="s">
+      <c r="H7" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="36" t="s">
+      <c r="I7" s="33" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="37">
+      <c r="B8" s="34">
         <v>1</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="H8" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="40" t="s">
+      <c r="I8" s="37" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="37">
+      <c r="B9" s="34">
         <v>2</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="40" t="s">
+      <c r="F9" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="40" t="s">
+      <c r="H9" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="I9" s="40" t="s">
+      <c r="I9" s="37" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="37">
+      <c r="B10" s="34">
         <v>3</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="40" t="s">
+      <c r="F10" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="40" t="s">
+      <c r="H10" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="I10" s="40" t="s">
+      <c r="I10" s="37" t="s">
         <v>33</v>
       </c>
     </row>
@@ -5477,168 +5473,168 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="34"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="32">
         <v>44828</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="32">
         <v>44834</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="36" t="s">
+      <c r="E7" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="36" t="s">
+      <c r="H7" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="36" t="s">
+      <c r="I7" s="33" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="37">
+      <c r="B8" s="34">
         <v>1</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="H8" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="40" t="s">
+      <c r="I8" s="37" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="37">
+      <c r="B9" s="34">
         <v>2</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="40" t="s">
+      <c r="F9" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="40" t="s">
+      <c r="H9" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="I9" s="40" t="s">
+      <c r="I9" s="37" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="37">
+      <c r="B10" s="34">
         <v>3</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="40" t="s">
+      <c r="F10" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="40" t="s">
+      <c r="H10" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="I10" s="40" t="s">
+      <c r="I10" s="37" t="s">
         <v>33</v>
       </c>
     </row>
@@ -5666,168 +5662,168 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="34"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="32">
         <v>44835</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="32">
         <v>44841</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="36" t="s">
+      <c r="E7" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="36" t="s">
+      <c r="H7" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="36" t="s">
+      <c r="I7" s="33" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="37">
+      <c r="B8" s="34">
         <v>1</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="H8" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="I8" s="40" t="s">
+      <c r="I8" s="37" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="37">
+      <c r="B9" s="34">
         <v>2</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="40" t="s">
+      <c r="F9" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="H9" s="40" t="s">
+      <c r="H9" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="40" t="s">
+      <c r="I9" s="37" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="37">
+      <c r="B10" s="34">
         <v>3</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="40" t="s">
+      <c r="F10" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="40" t="s">
+      <c r="H10" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="I10" s="40" t="s">
+      <c r="I10" s="37" t="s">
         <v>33</v>
       </c>
     </row>
@@ -5857,194 +5853,194 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="34"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="32">
         <v>44842</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="32">
         <v>44848</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="36" t="s">
+      <c r="E7" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="36" t="s">
+      <c r="H7" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="36" t="s">
+      <c r="I7" s="33" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="37">
+      <c r="B8" s="34">
         <v>1</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="H8" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="40" t="s">
+      <c r="I8" s="37" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="37">
+      <c r="B9" s="34">
         <v>2</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="40" t="s">
+      <c r="F9" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="40" t="s">
+      <c r="H9" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="I9" s="40" t="s">
+      <c r="I9" s="37" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="37">
+      <c r="B10" s="34">
         <v>3</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="F10" s="40" t="s">
+      <c r="F10" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="40" t="s">
+      <c r="H10" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="I10" s="40" t="s">
+      <c r="I10" s="37" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="37">
+      <c r="B11" s="34">
         <v>4</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="40" t="s">
+      <c r="F11" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="40" t="s">
+      <c r="G11" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="40" t="s">
+      <c r="H11" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="I11" s="40" t="s">
+      <c r="I11" s="37" t="s">
         <v>33</v>
       </c>
     </row>
@@ -6073,142 +6069,142 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="34"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="32">
         <v>44849</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="32">
         <v>44855</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="36" t="s">
+      <c r="E7" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="36" t="s">
+      <c r="H7" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="36" t="s">
+      <c r="I7" s="33" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="37">
+      <c r="B8" s="34">
         <v>1</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="H8" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="40" t="s">
+      <c r="I8" s="37" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="37">
+      <c r="B9" s="34">
         <v>2</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="40" t="s">
+      <c r="F9" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="40" t="s">
+      <c r="H9" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="I9" s="40" t="s">
+      <c r="I9" s="37" t="s">
         <v>33</v>
       </c>
     </row>
@@ -6236,246 +6232,246 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="34"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="32">
         <v>44856</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="32">
         <v>44862</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="36" t="s">
+      <c r="E7" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="36" t="s">
+      <c r="H7" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="36" t="s">
+      <c r="I7" s="33" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="37">
+      <c r="B8" s="34">
         <v>1</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="H8" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="40" t="s">
+      <c r="I8" s="37" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="37">
+      <c r="B9" s="34">
         <v>2</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="40" t="s">
+      <c r="F9" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="H9" s="40" t="s">
+      <c r="H9" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="40" t="s">
+      <c r="I9" s="37" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="37">
+      <c r="B10" s="34">
         <v>3</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="40" t="s">
+      <c r="F10" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="H10" s="40" t="s">
+      <c r="H10" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="I10" s="40" t="s">
+      <c r="I10" s="37" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="37">
+      <c r="B11" s="34">
         <v>4</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="F11" s="40" t="s">
+      <c r="F11" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="40" t="s">
+      <c r="G11" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="40" t="s">
+      <c r="H11" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="I11" s="40" t="s">
+      <c r="I11" s="37" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="37">
+      <c r="B12" s="34">
         <v>5</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="D12" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="40" t="s">
+      <c r="F12" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="40" t="s">
+      <c r="G12" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="H12" s="40" t="s">
+      <c r="H12" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="I12" s="40" t="s">
+      <c r="I12" s="37" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="37">
+      <c r="B13" s="34">
         <v>6</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="40" t="s">
+      <c r="F13" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="40" t="s">
+      <c r="G13" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="40" t="s">
+      <c r="H13" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="40" t="s">
+      <c r="I13" s="37" t="s">
         <v>33</v>
       </c>
     </row>
@@ -6504,168 +6500,168 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="34"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="32">
         <v>44863</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="32">
         <v>44869</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="36" t="s">
+      <c r="E7" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="36" t="s">
+      <c r="H7" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="36" t="s">
+      <c r="I7" s="33" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="37">
+      <c r="B8" s="34">
         <v>1</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="H8" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="40" t="s">
+      <c r="I8" s="37" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="37">
+      <c r="B9" s="34">
         <v>2</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="40" t="s">
+      <c r="F9" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="H9" s="40" t="s">
+      <c r="H9" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="40" t="s">
+      <c r="I9" s="37" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="37">
+      <c r="B10" s="34">
         <v>3</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="40" t="s">
+      <c r="F10" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="40" t="s">
+      <c r="H10" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="I10" s="40" t="s">
+      <c r="I10" s="37" t="s">
         <v>33</v>
       </c>
     </row>
@@ -6692,160 +6688,160 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="34"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="32">
         <v>44869</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="32">
         <v>44876</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="36" t="s">
+      <c r="E7" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="36" t="s">
+      <c r="H7" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="36" t="s">
+      <c r="I7" s="33" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="37">
+      <c r="B8" s="34">
         <v>1</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="H8" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="I8" s="40" t="s">
+      <c r="I8" s="37" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="37">
+      <c r="B9" s="34">
         <v>2</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="F9" s="40" t="s">
+      <c r="F9" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="40" t="s">
+      <c r="H9" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="I9" s="40" t="s">
+      <c r="I9" s="37" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="37">
+      <c r="B10" s="34">
         <v>3</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40" t="s">
+      <c r="E10" s="36"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37" t="s">
         <v>33</v>
       </c>
     </row>

--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TrabalhosPraticos\Projeto Aplicado\ipca_gym\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BFDF22-E251-44D3-8048-602ECF65727E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BACFDBF-DEF9-4044-A424-CDC4C957DCBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -774,13 +774,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="18" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="18" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="18" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="10" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -790,18 +784,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="10" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -823,6 +805,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="18" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="18" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="18" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1122,8 +1122,8 @@
   </sheetPr>
   <dimension ref="A2:AP112"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E35" sqref="E34:F35"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1162,43 +1162,43 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="55"/>
-      <c r="AD2" s="55"/>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="55"/>
-      <c r="AG2" s="55"/>
-      <c r="AH2" s="55"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="49"/>
+      <c r="AF2" s="49"/>
+      <c r="AG2" s="49"/>
+      <c r="AH2" s="49"/>
     </row>
     <row r="5" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="50" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="2">
@@ -1258,7 +1258,7 @@
       <c r="AH5"/>
     </row>
     <row r="6" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C6" s="56"/>
+      <c r="C6" s="50"/>
       <c r="D6" s="2" t="s">
         <v>1</v>
       </c>
@@ -1315,8 +1315,8 @@
       <c r="AG6"/>
       <c r="AH6"/>
     </row>
-    <row r="7" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C7" s="56"/>
+    <row r="7" spans="2:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="50"/>
       <c r="D7" s="42" t="s">
         <v>53</v>
       </c>
@@ -1335,7 +1335,7 @@
       <c r="K7" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="53"/>
+      <c r="L7" s="44"/>
       <c r="M7" s="43"/>
       <c r="N7" s="21" t="s">
         <v>57</v>
@@ -1396,7 +1396,7 @@
       <c r="AH8" s="12"/>
     </row>
     <row r="9" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="51" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="19">
@@ -1440,7 +1440,7 @@
       </c>
     </row>
     <row r="10" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C10" s="57"/>
+      <c r="C10" s="51"/>
       <c r="D10" s="19" t="s">
         <v>5</v>
       </c>
@@ -1482,7 +1482,7 @@
       </c>
     </row>
     <row r="11" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="57"/>
+      <c r="C11" s="51"/>
       <c r="D11" s="42" t="s">
         <v>24</v>
       </c>
@@ -1512,7 +1512,7 @@
       <c r="P11" s="15"/>
     </row>
     <row r="12" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C12" s="57"/>
+      <c r="C12" s="51"/>
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
@@ -1529,7 +1529,7 @@
       <c r="AI12" s="7"/>
     </row>
     <row r="13" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C13" s="57"/>
+      <c r="C13" s="51"/>
       <c r="D13" s="19">
         <v>14</v>
       </c>
@@ -1571,7 +1571,7 @@
       </c>
     </row>
     <row r="14" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C14" s="57"/>
+      <c r="C14" s="51"/>
       <c r="D14" s="27" t="s">
         <v>4</v>
       </c>
@@ -1618,13 +1618,13 @@
       <c r="AP14" s="1"/>
     </row>
     <row r="15" spans="2:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="57"/>
+      <c r="C15" s="51"/>
       <c r="D15" s="20"/>
-      <c r="E15" s="47" t="s">
+      <c r="E15" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="48"/>
-      <c r="G15" s="49"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="47"/>
       <c r="H15" s="17"/>
       <c r="I15" s="42" t="s">
         <v>71</v>
@@ -1656,11 +1656,11 @@
     </row>
     <row r="16" spans="2:42" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="4"/>
-      <c r="C16" s="57"/>
+      <c r="C16" s="51"/>
     </row>
     <row r="17" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
-      <c r="C17" s="57"/>
+      <c r="C17" s="51"/>
       <c r="D17" s="19">
         <v>27</v>
       </c>
@@ -1679,7 +1679,7 @@
     </row>
     <row r="18" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
-      <c r="C18" s="57"/>
+      <c r="C18" s="51"/>
       <c r="D18" s="19" t="s">
         <v>3</v>
       </c>
@@ -1698,7 +1698,7 @@
     </row>
     <row r="19" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
-      <c r="C19" s="57"/>
+      <c r="C19" s="51"/>
       <c r="D19" s="42" t="s">
         <v>79</v>
       </c>
@@ -1713,7 +1713,7 @@
       <c r="B20" s="1"/>
     </row>
     <row r="21" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="57" t="s">
+      <c r="C21" s="51" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="19">
@@ -1758,7 +1758,7 @@
       <c r="AH21" s="12"/>
     </row>
     <row r="22" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="57"/>
+      <c r="C22" s="51"/>
       <c r="D22" s="19" t="s">
         <v>6</v>
       </c>
@@ -1801,7 +1801,7 @@
       <c r="AH22" s="12"/>
     </row>
     <row r="23" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="57"/>
+      <c r="C23" s="51"/>
       <c r="D23" s="21" t="s">
         <v>74</v>
       </c>
@@ -1826,7 +1826,7 @@
       <c r="AH23" s="12"/>
     </row>
     <row r="24" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="57"/>
+      <c r="C24" s="51"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
@@ -1860,7 +1860,7 @@
       <c r="AH24" s="14"/>
     </row>
     <row r="25" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="57"/>
+      <c r="C25" s="51"/>
       <c r="D25" s="19">
         <v>14</v>
       </c>
@@ -1914,7 +1914,7 @@
       </c>
     </row>
     <row r="26" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="57"/>
+      <c r="C26" s="51"/>
       <c r="D26" s="19" t="s">
         <v>1</v>
       </c>
@@ -1969,7 +1969,7 @@
     </row>
     <row r="27" spans="2:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27"/>
-      <c r="C27" s="57"/>
+      <c r="C27" s="51"/>
       <c r="D27" s="42" t="s">
         <v>94</v>
       </c>
@@ -1987,12 +1987,12 @@
       <c r="L27" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="44"/>
       <c r="O27" s="43"/>
-      <c r="P27" s="58"/>
-      <c r="Q27" s="59"/>
-      <c r="R27" s="60"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="54"/>
       <c r="S27" s="42" t="s">
         <v>85</v>
       </c>
@@ -2205,45 +2205,45 @@
       </c>
       <c r="E31" s="43"/>
       <c r="F31" s="15"/>
-      <c r="G31" s="47" t="s">
+      <c r="G31" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="49"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="47"/>
       <c r="K31" s="16"/>
       <c r="L31" s="38" t="s">
         <v>18</v>
       </c>
       <c r="M31" s="16"/>
-      <c r="N31" s="47" t="s">
+      <c r="N31" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="O31" s="48"/>
-      <c r="P31" s="48"/>
-      <c r="Q31" s="48"/>
-      <c r="R31" s="49"/>
+      <c r="O31" s="46"/>
+      <c r="P31" s="46"/>
+      <c r="Q31" s="46"/>
+      <c r="R31" s="47"/>
       <c r="S31" s="40"/>
       <c r="T31" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="U31" s="53"/>
-      <c r="V31" s="53"/>
+      <c r="U31" s="44"/>
+      <c r="V31" s="44"/>
       <c r="W31" s="43"/>
-      <c r="X31" s="50"/>
-      <c r="Y31" s="51"/>
-      <c r="Z31" s="52"/>
+      <c r="X31" s="58"/>
+      <c r="Y31" s="59"/>
+      <c r="Z31" s="60"/>
       <c r="AA31" s="16"/>
-      <c r="AB31" s="44" t="s">
+      <c r="AB31" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="AC31" s="46"/>
+      <c r="AC31" s="57"/>
       <c r="AD31" s="18"/>
-      <c r="AE31" s="44" t="s">
+      <c r="AE31" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="AF31" s="45"/>
-      <c r="AG31" s="46"/>
+      <c r="AF31" s="56"/>
+      <c r="AG31" s="57"/>
       <c r="AH31" s="16"/>
     </row>
     <row r="32" spans="2:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2425,12 +2425,12 @@
         <v>19</v>
       </c>
       <c r="J35" s="16"/>
-      <c r="K35" s="44" t="s">
+      <c r="K35" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="L35" s="45"/>
-      <c r="M35" s="45"/>
-      <c r="N35" s="46"/>
+      <c r="L35" s="56"/>
+      <c r="M35" s="56"/>
+      <c r="N35" s="57"/>
       <c r="O35" s="15"/>
       <c r="P35" s="38" t="s">
         <v>20</v>
@@ -3623,12 +3623,13 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="L27:O27"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="AB31:AC31"/>
+    <mergeCell ref="AE31:AG31"/>
+    <mergeCell ref="N31:R31"/>
+    <mergeCell ref="X31:Z31"/>
+    <mergeCell ref="T31:W31"/>
     <mergeCell ref="S27:T27"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="G31:J31"/>
@@ -3645,13 +3646,12 @@
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="P27:R27"/>
     <mergeCell ref="D19:E19"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="AB31:AC31"/>
-    <mergeCell ref="AE31:AG31"/>
-    <mergeCell ref="N31:R31"/>
-    <mergeCell ref="X31:Z31"/>
-    <mergeCell ref="T31:W31"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="L27:O27"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TrabalhosPraticos\Projeto Aplicado\ipca_gym\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BACFDBF-DEF9-4044-A424-CDC4C957DCBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DB3B19-93CC-4367-B00F-47997ECD086B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma_Projecto" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="100">
   <si>
     <t>Dom</t>
   </si>
@@ -353,6 +353,9 @@
   </si>
   <si>
     <t>Observações: o que está a vermelho é o final de cada sprint</t>
+  </si>
+  <si>
+    <t>To-Do</t>
   </si>
 </sst>
 </file>
@@ -1122,8 +1125,8 @@
   </sheetPr>
   <dimension ref="A2:AP112"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C7"/>
+    <sheetView showRuler="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3676,7 +3679,7 @@
   <dimension ref="B2:I10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D8" sqref="D8:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3784,7 +3787,7 @@
         <v>38</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E8" s="36" t="s">
         <v>85</v>
@@ -3810,7 +3813,7 @@
         <v>38</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E9" s="36" t="s">
         <v>86</v>
@@ -3836,7 +3839,7 @@
         <v>75</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E10" s="36"/>
       <c r="F10" s="37"/>
@@ -3857,7 +3860,7 @@
   <dimension ref="B2:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D8" sqref="D8:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3965,7 +3968,7 @@
         <v>38</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E8" s="36" t="s">
         <v>85</v>
@@ -3991,7 +3994,7 @@
         <v>38</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E9" s="36"/>
       <c r="F9" s="37"/>
@@ -4009,7 +4012,7 @@
         <v>75</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E10" s="36"/>
       <c r="F10" s="37"/>
@@ -4029,7 +4032,7 @@
   <dimension ref="B2:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D8" sqref="D8:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4138,7 +4141,7 @@
         <v>38</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E8" s="36" t="s">
         <v>85</v>
@@ -4164,7 +4167,7 @@
         <v>38</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E9" s="36" t="s">
         <v>22</v>
@@ -4190,7 +4193,7 @@
         <v>75</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E10" s="36"/>
       <c r="F10" s="37"/>
@@ -4210,7 +4213,7 @@
   <dimension ref="B2:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D8" sqref="D8:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4318,7 +4321,7 @@
         <v>38</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E8" s="36" t="s">
         <v>85</v>
@@ -4344,7 +4347,7 @@
         <v>38</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E9" s="36"/>
       <c r="F9" s="37"/>
@@ -4362,7 +4365,7 @@
         <v>75</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E10" s="36"/>
       <c r="F10" s="37"/>
@@ -4387,7 +4390,7 @@
   <dimension ref="B2:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4496,7 +4499,7 @@
         <v>38</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E8" s="36" t="s">
         <v>85</v>
@@ -4522,7 +4525,7 @@
         <v>38</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E9" s="36"/>
       <c r="F9" s="37"/>
@@ -4540,7 +4543,7 @@
         <v>75</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E10" s="36"/>
       <c r="F10" s="37"/>
@@ -4560,7 +4563,7 @@
   <dimension ref="B2:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D9" sqref="D9:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4679,7 +4682,7 @@
         <v>38</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E9" s="36" t="s">
         <v>85</v>
@@ -4705,7 +4708,7 @@
         <v>38</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E10" s="36"/>
       <c r="F10" s="37"/>
@@ -4723,7 +4726,7 @@
         <v>75</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E11" s="36"/>
       <c r="F11" s="37"/>
@@ -4743,7 +4746,7 @@
   <dimension ref="B2:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="D8" sqref="D8:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4851,7 +4854,7 @@
         <v>38</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E8" s="36" t="s">
         <v>95</v>
@@ -4877,7 +4880,7 @@
         <v>38</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E9" s="36" t="s">
         <v>89</v>
@@ -4903,7 +4906,7 @@
         <v>75</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E10" s="36"/>
       <c r="F10" s="37"/>
@@ -4923,12 +4926,12 @@
   <dimension ref="B2:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D8" sqref="D8:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
     <col min="5" max="5" width="23.85546875" customWidth="1"/>
     <col min="6" max="6" width="26.140625" customWidth="1"/>
@@ -5031,7 +5034,7 @@
         <v>38</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E8" s="36" t="s">
         <v>90</v>
@@ -5057,7 +5060,7 @@
         <v>38</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E9" s="36"/>
       <c r="F9" s="37"/>
@@ -5075,7 +5078,7 @@
         <v>75</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E10" s="36"/>
       <c r="F10" s="37"/>
@@ -5095,12 +5098,12 @@
   <dimension ref="B2:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D8" sqref="D8:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.28515625" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
@@ -5203,7 +5206,7 @@
         <v>38</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E8" s="36" t="s">
         <v>91</v>
@@ -5229,7 +5232,7 @@
         <v>38</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E9" s="36"/>
       <c r="F9" s="37"/>
@@ -5247,7 +5250,7 @@
         <v>75</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E10" s="36"/>
       <c r="F10" s="37"/>
@@ -6053,8 +6056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08B12089-A125-43C4-B991-1713BAF1DE71}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6164,7 +6167,7 @@
         <v>38</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E8" s="36" t="s">
         <v>70</v>
@@ -6190,7 +6193,7 @@
         <v>38</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E9" s="36" t="s">
         <v>71</v>
@@ -6218,7 +6221,7 @@
   <dimension ref="B2:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6327,7 +6330,7 @@
         <v>38</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E8" s="36" t="s">
         <v>44</v>
@@ -6353,7 +6356,7 @@
         <v>38</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E9" s="36" t="s">
         <v>47</v>
@@ -6379,7 +6382,7 @@
         <v>38</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E10" s="36" t="s">
         <v>49</v>
@@ -6405,7 +6408,7 @@
         <v>38</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E11" s="36" t="s">
         <v>73</v>
@@ -6431,7 +6434,7 @@
         <v>38</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E12" s="36" t="s">
         <v>78</v>
@@ -6457,7 +6460,7 @@
         <v>38</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E13" s="36" t="s">
         <v>79</v>
@@ -6485,7 +6488,7 @@
   <dimension ref="B2:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6595,7 +6598,7 @@
         <v>38</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E8" s="36" t="s">
         <v>72</v>
@@ -6621,7 +6624,7 @@
         <v>38</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E9" s="36" t="s">
         <v>74</v>
@@ -6647,7 +6650,7 @@
         <v>75</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E10" s="36" t="s">
         <v>76</v>
@@ -6675,7 +6678,7 @@
   <dimension ref="B2:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="D8" sqref="D8:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6783,7 +6786,7 @@
         <v>38</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E8" s="36" t="s">
         <v>83</v>
@@ -6809,7 +6812,7 @@
         <v>38</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E9" s="36" t="s">
         <v>93</v>
@@ -6835,7 +6838,7 @@
         <v>75</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E10" s="36"/>
       <c r="F10" s="37"/>

--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TrabalhosPraticos\Projeto Aplicado\ipca_gym\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DB3B19-93CC-4367-B00F-47997ECD086B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF04F67D-AB22-4D40-B822-806B60EF2CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma_Projecto" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="101">
   <si>
     <t>Dom</t>
   </si>
@@ -356,6 +356,9 @@
   </si>
   <si>
     <t>To-Do</t>
+  </si>
+  <si>
+    <t>Doing</t>
   </si>
 </sst>
 </file>
@@ -777,7 +780,13 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="18" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="18" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="18" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="10" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -787,6 +796,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="10" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -808,24 +829,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="18" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="18" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="18" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1165,43 +1168,43 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="49"/>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="49"/>
-      <c r="AC2" s="49"/>
-      <c r="AD2" s="49"/>
-      <c r="AE2" s="49"/>
-      <c r="AF2" s="49"/>
-      <c r="AG2" s="49"/>
-      <c r="AH2" s="49"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="55"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="55"/>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="55"/>
+      <c r="AC2" s="55"/>
+      <c r="AD2" s="55"/>
+      <c r="AE2" s="55"/>
+      <c r="AF2" s="55"/>
+      <c r="AG2" s="55"/>
+      <c r="AH2" s="55"/>
     </row>
     <row r="5" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="56" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="2">
@@ -1261,7 +1264,7 @@
       <c r="AH5"/>
     </row>
     <row r="6" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C6" s="50"/>
+      <c r="C6" s="56"/>
       <c r="D6" s="2" t="s">
         <v>1</v>
       </c>
@@ -1319,7 +1322,7 @@
       <c r="AH6"/>
     </row>
     <row r="7" spans="2:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="50"/>
+      <c r="C7" s="56"/>
       <c r="D7" s="42" t="s">
         <v>53</v>
       </c>
@@ -1338,7 +1341,7 @@
       <c r="K7" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="44"/>
+      <c r="L7" s="53"/>
       <c r="M7" s="43"/>
       <c r="N7" s="21" t="s">
         <v>57</v>
@@ -1399,7 +1402,7 @@
       <c r="AH8" s="12"/>
     </row>
     <row r="9" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="57" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="19">
@@ -1443,7 +1446,7 @@
       </c>
     </row>
     <row r="10" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C10" s="51"/>
+      <c r="C10" s="57"/>
       <c r="D10" s="19" t="s">
         <v>5</v>
       </c>
@@ -1485,7 +1488,7 @@
       </c>
     </row>
     <row r="11" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="51"/>
+      <c r="C11" s="57"/>
       <c r="D11" s="42" t="s">
         <v>24</v>
       </c>
@@ -1515,7 +1518,7 @@
       <c r="P11" s="15"/>
     </row>
     <row r="12" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C12" s="51"/>
+      <c r="C12" s="57"/>
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
@@ -1532,7 +1535,7 @@
       <c r="AI12" s="7"/>
     </row>
     <row r="13" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C13" s="51"/>
+      <c r="C13" s="57"/>
       <c r="D13" s="19">
         <v>14</v>
       </c>
@@ -1574,7 +1577,7 @@
       </c>
     </row>
     <row r="14" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C14" s="51"/>
+      <c r="C14" s="57"/>
       <c r="D14" s="27" t="s">
         <v>4</v>
       </c>
@@ -1621,13 +1624,13 @@
       <c r="AP14" s="1"/>
     </row>
     <row r="15" spans="2:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="51"/>
+      <c r="C15" s="57"/>
       <c r="D15" s="20"/>
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="46"/>
-      <c r="G15" s="47"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="49"/>
       <c r="H15" s="17"/>
       <c r="I15" s="42" t="s">
         <v>71</v>
@@ -1659,11 +1662,11 @@
     </row>
     <row r="16" spans="2:42" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="4"/>
-      <c r="C16" s="51"/>
+      <c r="C16" s="57"/>
     </row>
     <row r="17" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
-      <c r="C17" s="51"/>
+      <c r="C17" s="57"/>
       <c r="D17" s="19">
         <v>27</v>
       </c>
@@ -1682,7 +1685,7 @@
     </row>
     <row r="18" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
-      <c r="C18" s="51"/>
+      <c r="C18" s="57"/>
       <c r="D18" s="19" t="s">
         <v>3</v>
       </c>
@@ -1701,7 +1704,7 @@
     </row>
     <row r="19" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
-      <c r="C19" s="51"/>
+      <c r="C19" s="57"/>
       <c r="D19" s="42" t="s">
         <v>79</v>
       </c>
@@ -1716,7 +1719,7 @@
       <c r="B20" s="1"/>
     </row>
     <row r="21" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="51" t="s">
+      <c r="C21" s="57" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="19">
@@ -1761,7 +1764,7 @@
       <c r="AH21" s="12"/>
     </row>
     <row r="22" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="51"/>
+      <c r="C22" s="57"/>
       <c r="D22" s="19" t="s">
         <v>6</v>
       </c>
@@ -1804,7 +1807,7 @@
       <c r="AH22" s="12"/>
     </row>
     <row r="23" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="51"/>
+      <c r="C23" s="57"/>
       <c r="D23" s="21" t="s">
         <v>74</v>
       </c>
@@ -1829,7 +1832,7 @@
       <c r="AH23" s="12"/>
     </row>
     <row r="24" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="51"/>
+      <c r="C24" s="57"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
@@ -1863,7 +1866,7 @@
       <c r="AH24" s="14"/>
     </row>
     <row r="25" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="51"/>
+      <c r="C25" s="57"/>
       <c r="D25" s="19">
         <v>14</v>
       </c>
@@ -1917,7 +1920,7 @@
       </c>
     </row>
     <row r="26" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="51"/>
+      <c r="C26" s="57"/>
       <c r="D26" s="19" t="s">
         <v>1</v>
       </c>
@@ -1972,7 +1975,7 @@
     </row>
     <row r="27" spans="2:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27"/>
-      <c r="C27" s="51"/>
+      <c r="C27" s="57"/>
       <c r="D27" s="42" t="s">
         <v>94</v>
       </c>
@@ -1990,12 +1993,12 @@
       <c r="L27" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="M27" s="44"/>
-      <c r="N27" s="44"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="53"/>
       <c r="O27" s="43"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="54"/>
+      <c r="P27" s="58"/>
+      <c r="Q27" s="59"/>
+      <c r="R27" s="60"/>
       <c r="S27" s="42" t="s">
         <v>85</v>
       </c>
@@ -2208,45 +2211,45 @@
       </c>
       <c r="E31" s="43"/>
       <c r="F31" s="15"/>
-      <c r="G31" s="45" t="s">
+      <c r="G31" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="47"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="49"/>
       <c r="K31" s="16"/>
       <c r="L31" s="38" t="s">
         <v>18</v>
       </c>
       <c r="M31" s="16"/>
-      <c r="N31" s="45" t="s">
+      <c r="N31" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="O31" s="46"/>
-      <c r="P31" s="46"/>
-      <c r="Q31" s="46"/>
-      <c r="R31" s="47"/>
+      <c r="O31" s="48"/>
+      <c r="P31" s="48"/>
+      <c r="Q31" s="48"/>
+      <c r="R31" s="49"/>
       <c r="S31" s="40"/>
       <c r="T31" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="U31" s="44"/>
-      <c r="V31" s="44"/>
+      <c r="U31" s="53"/>
+      <c r="V31" s="53"/>
       <c r="W31" s="43"/>
-      <c r="X31" s="58"/>
-      <c r="Y31" s="59"/>
-      <c r="Z31" s="60"/>
+      <c r="X31" s="50"/>
+      <c r="Y31" s="51"/>
+      <c r="Z31" s="52"/>
       <c r="AA31" s="16"/>
-      <c r="AB31" s="55" t="s">
+      <c r="AB31" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="AC31" s="57"/>
+      <c r="AC31" s="46"/>
       <c r="AD31" s="18"/>
-      <c r="AE31" s="55" t="s">
+      <c r="AE31" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="AF31" s="56"/>
-      <c r="AG31" s="57"/>
+      <c r="AF31" s="45"/>
+      <c r="AG31" s="46"/>
       <c r="AH31" s="16"/>
     </row>
     <row r="32" spans="2:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2428,12 +2431,12 @@
         <v>19</v>
       </c>
       <c r="J35" s="16"/>
-      <c r="K35" s="55" t="s">
+      <c r="K35" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="L35" s="56"/>
-      <c r="M35" s="56"/>
-      <c r="N35" s="57"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="45"/>
+      <c r="N35" s="46"/>
       <c r="O35" s="15"/>
       <c r="P35" s="38" t="s">
         <v>20</v>
@@ -3626,13 +3629,12 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="AB31:AC31"/>
-    <mergeCell ref="AE31:AG31"/>
-    <mergeCell ref="N31:R31"/>
-    <mergeCell ref="X31:Z31"/>
-    <mergeCell ref="T31:W31"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="L27:O27"/>
     <mergeCell ref="S27:T27"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="G31:J31"/>
@@ -3649,12 +3651,13 @@
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="P27:R27"/>
     <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="L27:O27"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="AB31:AC31"/>
+    <mergeCell ref="AE31:AG31"/>
+    <mergeCell ref="N31:R31"/>
+    <mergeCell ref="X31:Z31"/>
+    <mergeCell ref="T31:W31"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -6056,7 +6059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08B12089-A125-43C4-B991-1713BAF1DE71}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -6220,8 +6223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE48A7C-8AF9-4A0B-A8FC-E8EB53F5818B}">
   <dimension ref="B2:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6330,7 +6333,7 @@
         <v>38</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E8" s="36" t="s">
         <v>44</v>
@@ -6356,7 +6359,7 @@
         <v>38</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="E9" s="36" t="s">
         <v>47</v>
@@ -6408,7 +6411,7 @@
         <v>38</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="E11" s="36" t="s">
         <v>73</v>

--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TrabalhosPraticos\Projeto Aplicado\ipca_gym\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF04F67D-AB22-4D40-B822-806B60EF2CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8194E091-052A-4C54-B25A-7ABE4ED6BBCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="285" yWindow="0" windowWidth="21600" windowHeight="11295" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma_Projecto" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="100">
   <si>
     <t>Dom</t>
   </si>
@@ -356,9 +356,6 @@
   </si>
   <si>
     <t>To-Do</t>
-  </si>
-  <si>
-    <t>Doing</t>
   </si>
 </sst>
 </file>
@@ -780,13 +777,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="18" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="18" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="18" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="10" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -796,18 +787,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="10" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -829,6 +808,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="18" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="18" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="18" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1168,43 +1165,43 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="55"/>
-      <c r="AD2" s="55"/>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="55"/>
-      <c r="AG2" s="55"/>
-      <c r="AH2" s="55"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="49"/>
+      <c r="AF2" s="49"/>
+      <c r="AG2" s="49"/>
+      <c r="AH2" s="49"/>
     </row>
     <row r="5" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="50" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="2">
@@ -1264,7 +1261,7 @@
       <c r="AH5"/>
     </row>
     <row r="6" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C6" s="56"/>
+      <c r="C6" s="50"/>
       <c r="D6" s="2" t="s">
         <v>1</v>
       </c>
@@ -1322,7 +1319,7 @@
       <c r="AH6"/>
     </row>
     <row r="7" spans="2:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="56"/>
+      <c r="C7" s="50"/>
       <c r="D7" s="42" t="s">
         <v>53</v>
       </c>
@@ -1341,7 +1338,7 @@
       <c r="K7" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="53"/>
+      <c r="L7" s="44"/>
       <c r="M7" s="43"/>
       <c r="N7" s="21" t="s">
         <v>57</v>
@@ -1402,7 +1399,7 @@
       <c r="AH8" s="12"/>
     </row>
     <row r="9" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="51" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="19">
@@ -1446,7 +1443,7 @@
       </c>
     </row>
     <row r="10" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C10" s="57"/>
+      <c r="C10" s="51"/>
       <c r="D10" s="19" t="s">
         <v>5</v>
       </c>
@@ -1488,7 +1485,7 @@
       </c>
     </row>
     <row r="11" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="57"/>
+      <c r="C11" s="51"/>
       <c r="D11" s="42" t="s">
         <v>24</v>
       </c>
@@ -1518,7 +1515,7 @@
       <c r="P11" s="15"/>
     </row>
     <row r="12" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C12" s="57"/>
+      <c r="C12" s="51"/>
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
@@ -1535,7 +1532,7 @@
       <c r="AI12" s="7"/>
     </row>
     <row r="13" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C13" s="57"/>
+      <c r="C13" s="51"/>
       <c r="D13" s="19">
         <v>14</v>
       </c>
@@ -1577,7 +1574,7 @@
       </c>
     </row>
     <row r="14" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C14" s="57"/>
+      <c r="C14" s="51"/>
       <c r="D14" s="27" t="s">
         <v>4</v>
       </c>
@@ -1624,13 +1621,13 @@
       <c r="AP14" s="1"/>
     </row>
     <row r="15" spans="2:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="57"/>
+      <c r="C15" s="51"/>
       <c r="D15" s="20"/>
-      <c r="E15" s="47" t="s">
+      <c r="E15" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="48"/>
-      <c r="G15" s="49"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="47"/>
       <c r="H15" s="17"/>
       <c r="I15" s="42" t="s">
         <v>71</v>
@@ -1662,11 +1659,11 @@
     </row>
     <row r="16" spans="2:42" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="4"/>
-      <c r="C16" s="57"/>
+      <c r="C16" s="51"/>
     </row>
     <row r="17" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
-      <c r="C17" s="57"/>
+      <c r="C17" s="51"/>
       <c r="D17" s="19">
         <v>27</v>
       </c>
@@ -1685,7 +1682,7 @@
     </row>
     <row r="18" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
-      <c r="C18" s="57"/>
+      <c r="C18" s="51"/>
       <c r="D18" s="19" t="s">
         <v>3</v>
       </c>
@@ -1704,7 +1701,7 @@
     </row>
     <row r="19" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
-      <c r="C19" s="57"/>
+      <c r="C19" s="51"/>
       <c r="D19" s="42" t="s">
         <v>79</v>
       </c>
@@ -1719,7 +1716,7 @@
       <c r="B20" s="1"/>
     </row>
     <row r="21" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="57" t="s">
+      <c r="C21" s="51" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="19">
@@ -1764,7 +1761,7 @@
       <c r="AH21" s="12"/>
     </row>
     <row r="22" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="57"/>
+      <c r="C22" s="51"/>
       <c r="D22" s="19" t="s">
         <v>6</v>
       </c>
@@ -1807,7 +1804,7 @@
       <c r="AH22" s="12"/>
     </row>
     <row r="23" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="57"/>
+      <c r="C23" s="51"/>
       <c r="D23" s="21" t="s">
         <v>74</v>
       </c>
@@ -1832,7 +1829,7 @@
       <c r="AH23" s="12"/>
     </row>
     <row r="24" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="57"/>
+      <c r="C24" s="51"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
@@ -1866,7 +1863,7 @@
       <c r="AH24" s="14"/>
     </row>
     <row r="25" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="57"/>
+      <c r="C25" s="51"/>
       <c r="D25" s="19">
         <v>14</v>
       </c>
@@ -1920,7 +1917,7 @@
       </c>
     </row>
     <row r="26" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="57"/>
+      <c r="C26" s="51"/>
       <c r="D26" s="19" t="s">
         <v>1</v>
       </c>
@@ -1975,7 +1972,7 @@
     </row>
     <row r="27" spans="2:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27"/>
-      <c r="C27" s="57"/>
+      <c r="C27" s="51"/>
       <c r="D27" s="42" t="s">
         <v>94</v>
       </c>
@@ -1993,12 +1990,12 @@
       <c r="L27" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="44"/>
       <c r="O27" s="43"/>
-      <c r="P27" s="58"/>
-      <c r="Q27" s="59"/>
-      <c r="R27" s="60"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="54"/>
       <c r="S27" s="42" t="s">
         <v>85</v>
       </c>
@@ -2211,45 +2208,45 @@
       </c>
       <c r="E31" s="43"/>
       <c r="F31" s="15"/>
-      <c r="G31" s="47" t="s">
+      <c r="G31" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="49"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="47"/>
       <c r="K31" s="16"/>
       <c r="L31" s="38" t="s">
         <v>18</v>
       </c>
       <c r="M31" s="16"/>
-      <c r="N31" s="47" t="s">
+      <c r="N31" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="O31" s="48"/>
-      <c r="P31" s="48"/>
-      <c r="Q31" s="48"/>
-      <c r="R31" s="49"/>
+      <c r="O31" s="46"/>
+      <c r="P31" s="46"/>
+      <c r="Q31" s="46"/>
+      <c r="R31" s="47"/>
       <c r="S31" s="40"/>
       <c r="T31" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="U31" s="53"/>
-      <c r="V31" s="53"/>
+      <c r="U31" s="44"/>
+      <c r="V31" s="44"/>
       <c r="W31" s="43"/>
-      <c r="X31" s="50"/>
-      <c r="Y31" s="51"/>
-      <c r="Z31" s="52"/>
+      <c r="X31" s="58"/>
+      <c r="Y31" s="59"/>
+      <c r="Z31" s="60"/>
       <c r="AA31" s="16"/>
-      <c r="AB31" s="44" t="s">
+      <c r="AB31" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="AC31" s="46"/>
+      <c r="AC31" s="57"/>
       <c r="AD31" s="18"/>
-      <c r="AE31" s="44" t="s">
+      <c r="AE31" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="AF31" s="45"/>
-      <c r="AG31" s="46"/>
+      <c r="AF31" s="56"/>
+      <c r="AG31" s="57"/>
       <c r="AH31" s="16"/>
     </row>
     <row r="32" spans="2:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2431,12 +2428,12 @@
         <v>19</v>
       </c>
       <c r="J35" s="16"/>
-      <c r="K35" s="44" t="s">
+      <c r="K35" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="L35" s="45"/>
-      <c r="M35" s="45"/>
-      <c r="N35" s="46"/>
+      <c r="L35" s="56"/>
+      <c r="M35" s="56"/>
+      <c r="N35" s="57"/>
       <c r="O35" s="15"/>
       <c r="P35" s="38" t="s">
         <v>20</v>
@@ -3629,12 +3626,13 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="L27:O27"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="AB31:AC31"/>
+    <mergeCell ref="AE31:AG31"/>
+    <mergeCell ref="N31:R31"/>
+    <mergeCell ref="X31:Z31"/>
+    <mergeCell ref="T31:W31"/>
     <mergeCell ref="S27:T27"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="G31:J31"/>
@@ -3651,13 +3649,12 @@
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="P27:R27"/>
     <mergeCell ref="D19:E19"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="AB31:AC31"/>
-    <mergeCell ref="AE31:AG31"/>
-    <mergeCell ref="N31:R31"/>
-    <mergeCell ref="X31:Z31"/>
-    <mergeCell ref="T31:W31"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="L27:O27"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -6224,7 +6221,7 @@
   <dimension ref="B2:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6333,7 +6330,7 @@
         <v>38</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="E8" s="36" t="s">
         <v>44</v>

--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TrabalhosPraticos\Projeto Aplicado\ipca_gym\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8194E091-052A-4C54-B25A-7ABE4ED6BBCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA59C05-3946-4BD0-9A3A-8C1F69605FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="0" windowWidth="21600" windowHeight="11295" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma_Projecto" sheetId="1" r:id="rId1"/>
@@ -777,7 +777,13 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="18" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="18" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="18" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="10" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -787,6 +793,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="10" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -808,24 +826,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="18" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="18" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="18" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1165,43 +1165,43 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="49"/>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="49"/>
-      <c r="AC2" s="49"/>
-      <c r="AD2" s="49"/>
-      <c r="AE2" s="49"/>
-      <c r="AF2" s="49"/>
-      <c r="AG2" s="49"/>
-      <c r="AH2" s="49"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="55"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="55"/>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="55"/>
+      <c r="AC2" s="55"/>
+      <c r="AD2" s="55"/>
+      <c r="AE2" s="55"/>
+      <c r="AF2" s="55"/>
+      <c r="AG2" s="55"/>
+      <c r="AH2" s="55"/>
     </row>
     <row r="5" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="56" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="2">
@@ -1261,7 +1261,7 @@
       <c r="AH5"/>
     </row>
     <row r="6" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C6" s="50"/>
+      <c r="C6" s="56"/>
       <c r="D6" s="2" t="s">
         <v>1</v>
       </c>
@@ -1319,7 +1319,7 @@
       <c r="AH6"/>
     </row>
     <row r="7" spans="2:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="50"/>
+      <c r="C7" s="56"/>
       <c r="D7" s="42" t="s">
         <v>53</v>
       </c>
@@ -1338,7 +1338,7 @@
       <c r="K7" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="44"/>
+      <c r="L7" s="53"/>
       <c r="M7" s="43"/>
       <c r="N7" s="21" t="s">
         <v>57</v>
@@ -1399,7 +1399,7 @@
       <c r="AH8" s="12"/>
     </row>
     <row r="9" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="57" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="19">
@@ -1443,7 +1443,7 @@
       </c>
     </row>
     <row r="10" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C10" s="51"/>
+      <c r="C10" s="57"/>
       <c r="D10" s="19" t="s">
         <v>5</v>
       </c>
@@ -1485,7 +1485,7 @@
       </c>
     </row>
     <row r="11" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="51"/>
+      <c r="C11" s="57"/>
       <c r="D11" s="42" t="s">
         <v>24</v>
       </c>
@@ -1515,7 +1515,7 @@
       <c r="P11" s="15"/>
     </row>
     <row r="12" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C12" s="51"/>
+      <c r="C12" s="57"/>
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
@@ -1532,7 +1532,7 @@
       <c r="AI12" s="7"/>
     </row>
     <row r="13" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C13" s="51"/>
+      <c r="C13" s="57"/>
       <c r="D13" s="19">
         <v>14</v>
       </c>
@@ -1574,7 +1574,7 @@
       </c>
     </row>
     <row r="14" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C14" s="51"/>
+      <c r="C14" s="57"/>
       <c r="D14" s="27" t="s">
         <v>4</v>
       </c>
@@ -1621,13 +1621,13 @@
       <c r="AP14" s="1"/>
     </row>
     <row r="15" spans="2:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="51"/>
+      <c r="C15" s="57"/>
       <c r="D15" s="20"/>
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="46"/>
-      <c r="G15" s="47"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="49"/>
       <c r="H15" s="17"/>
       <c r="I15" s="42" t="s">
         <v>71</v>
@@ -1659,11 +1659,11 @@
     </row>
     <row r="16" spans="2:42" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="4"/>
-      <c r="C16" s="51"/>
+      <c r="C16" s="57"/>
     </row>
     <row r="17" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
-      <c r="C17" s="51"/>
+      <c r="C17" s="57"/>
       <c r="D17" s="19">
         <v>27</v>
       </c>
@@ -1682,7 +1682,7 @@
     </row>
     <row r="18" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
-      <c r="C18" s="51"/>
+      <c r="C18" s="57"/>
       <c r="D18" s="19" t="s">
         <v>3</v>
       </c>
@@ -1701,7 +1701,7 @@
     </row>
     <row r="19" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
-      <c r="C19" s="51"/>
+      <c r="C19" s="57"/>
       <c r="D19" s="42" t="s">
         <v>79</v>
       </c>
@@ -1716,7 +1716,7 @@
       <c r="B20" s="1"/>
     </row>
     <row r="21" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="51" t="s">
+      <c r="C21" s="57" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="19">
@@ -1761,7 +1761,7 @@
       <c r="AH21" s="12"/>
     </row>
     <row r="22" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="51"/>
+      <c r="C22" s="57"/>
       <c r="D22" s="19" t="s">
         <v>6</v>
       </c>
@@ -1804,7 +1804,7 @@
       <c r="AH22" s="12"/>
     </row>
     <row r="23" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="51"/>
+      <c r="C23" s="57"/>
       <c r="D23" s="21" t="s">
         <v>74</v>
       </c>
@@ -1829,7 +1829,7 @@
       <c r="AH23" s="12"/>
     </row>
     <row r="24" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="51"/>
+      <c r="C24" s="57"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
@@ -1863,7 +1863,7 @@
       <c r="AH24" s="14"/>
     </row>
     <row r="25" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="51"/>
+      <c r="C25" s="57"/>
       <c r="D25" s="19">
         <v>14</v>
       </c>
@@ -1917,7 +1917,7 @@
       </c>
     </row>
     <row r="26" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="51"/>
+      <c r="C26" s="57"/>
       <c r="D26" s="19" t="s">
         <v>1</v>
       </c>
@@ -1972,7 +1972,7 @@
     </row>
     <row r="27" spans="2:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27"/>
-      <c r="C27" s="51"/>
+      <c r="C27" s="57"/>
       <c r="D27" s="42" t="s">
         <v>94</v>
       </c>
@@ -1990,12 +1990,12 @@
       <c r="L27" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="M27" s="44"/>
-      <c r="N27" s="44"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="53"/>
       <c r="O27" s="43"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="54"/>
+      <c r="P27" s="58"/>
+      <c r="Q27" s="59"/>
+      <c r="R27" s="60"/>
       <c r="S27" s="42" t="s">
         <v>85</v>
       </c>
@@ -2208,45 +2208,45 @@
       </c>
       <c r="E31" s="43"/>
       <c r="F31" s="15"/>
-      <c r="G31" s="45" t="s">
+      <c r="G31" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="47"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="49"/>
       <c r="K31" s="16"/>
       <c r="L31" s="38" t="s">
         <v>18</v>
       </c>
       <c r="M31" s="16"/>
-      <c r="N31" s="45" t="s">
+      <c r="N31" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="O31" s="46"/>
-      <c r="P31" s="46"/>
-      <c r="Q31" s="46"/>
-      <c r="R31" s="47"/>
+      <c r="O31" s="48"/>
+      <c r="P31" s="48"/>
+      <c r="Q31" s="48"/>
+      <c r="R31" s="49"/>
       <c r="S31" s="40"/>
       <c r="T31" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="U31" s="44"/>
-      <c r="V31" s="44"/>
+      <c r="U31" s="53"/>
+      <c r="V31" s="53"/>
       <c r="W31" s="43"/>
-      <c r="X31" s="58"/>
-      <c r="Y31" s="59"/>
-      <c r="Z31" s="60"/>
+      <c r="X31" s="50"/>
+      <c r="Y31" s="51"/>
+      <c r="Z31" s="52"/>
       <c r="AA31" s="16"/>
-      <c r="AB31" s="55" t="s">
+      <c r="AB31" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="AC31" s="57"/>
+      <c r="AC31" s="46"/>
       <c r="AD31" s="18"/>
-      <c r="AE31" s="55" t="s">
+      <c r="AE31" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="AF31" s="56"/>
-      <c r="AG31" s="57"/>
+      <c r="AF31" s="45"/>
+      <c r="AG31" s="46"/>
       <c r="AH31" s="16"/>
     </row>
     <row r="32" spans="2:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2428,12 +2428,12 @@
         <v>19</v>
       </c>
       <c r="J35" s="16"/>
-      <c r="K35" s="55" t="s">
+      <c r="K35" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="L35" s="56"/>
-      <c r="M35" s="56"/>
-      <c r="N35" s="57"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="45"/>
+      <c r="N35" s="46"/>
       <c r="O35" s="15"/>
       <c r="P35" s="38" t="s">
         <v>20</v>
@@ -3626,13 +3626,12 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="AB31:AC31"/>
-    <mergeCell ref="AE31:AG31"/>
-    <mergeCell ref="N31:R31"/>
-    <mergeCell ref="X31:Z31"/>
-    <mergeCell ref="T31:W31"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="L27:O27"/>
     <mergeCell ref="S27:T27"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="G31:J31"/>
@@ -3649,12 +3648,13 @@
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="P27:R27"/>
     <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="L27:O27"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="AB31:AC31"/>
+    <mergeCell ref="AE31:AG31"/>
+    <mergeCell ref="N31:R31"/>
+    <mergeCell ref="X31:Z31"/>
+    <mergeCell ref="T31:W31"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -6221,7 +6221,7 @@
   <dimension ref="B2:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6488,7 +6488,7 @@
   <dimension ref="B2:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6598,7 +6598,7 @@
         <v>38</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="E8" s="36" t="s">
         <v>72</v>

--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TrabalhosPraticos\Projeto Aplicado\ipca_gym\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gonçalo Cunha\Desktop\IPCA\PA\ipca_gym\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA59C05-3946-4BD0-9A3A-8C1F69605FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81075C4-DE74-47F7-95D7-7005A4AA538C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma_Projecto" sheetId="1" r:id="rId1"/>
@@ -777,13 +777,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="18" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="18" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="18" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="10" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -793,18 +787,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="10" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -826,6 +808,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="18" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="18" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="18" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1165,43 +1165,43 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="55"/>
-      <c r="AD2" s="55"/>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="55"/>
-      <c r="AG2" s="55"/>
-      <c r="AH2" s="55"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="49"/>
+      <c r="AF2" s="49"/>
+      <c r="AG2" s="49"/>
+      <c r="AH2" s="49"/>
     </row>
     <row r="5" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="50" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="2">
@@ -1261,7 +1261,7 @@
       <c r="AH5"/>
     </row>
     <row r="6" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C6" s="56"/>
+      <c r="C6" s="50"/>
       <c r="D6" s="2" t="s">
         <v>1</v>
       </c>
@@ -1319,7 +1319,7 @@
       <c r="AH6"/>
     </row>
     <row r="7" spans="2:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="56"/>
+      <c r="C7" s="50"/>
       <c r="D7" s="42" t="s">
         <v>53</v>
       </c>
@@ -1338,7 +1338,7 @@
       <c r="K7" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="53"/>
+      <c r="L7" s="44"/>
       <c r="M7" s="43"/>
       <c r="N7" s="21" t="s">
         <v>57</v>
@@ -1399,7 +1399,7 @@
       <c r="AH8" s="12"/>
     </row>
     <row r="9" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="51" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="19">
@@ -1443,7 +1443,7 @@
       </c>
     </row>
     <row r="10" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C10" s="57"/>
+      <c r="C10" s="51"/>
       <c r="D10" s="19" t="s">
         <v>5</v>
       </c>
@@ -1485,7 +1485,7 @@
       </c>
     </row>
     <row r="11" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="57"/>
+      <c r="C11" s="51"/>
       <c r="D11" s="42" t="s">
         <v>24</v>
       </c>
@@ -1515,7 +1515,7 @@
       <c r="P11" s="15"/>
     </row>
     <row r="12" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C12" s="57"/>
+      <c r="C12" s="51"/>
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
@@ -1532,7 +1532,7 @@
       <c r="AI12" s="7"/>
     </row>
     <row r="13" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C13" s="57"/>
+      <c r="C13" s="51"/>
       <c r="D13" s="19">
         <v>14</v>
       </c>
@@ -1574,7 +1574,7 @@
       </c>
     </row>
     <row r="14" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C14" s="57"/>
+      <c r="C14" s="51"/>
       <c r="D14" s="27" t="s">
         <v>4</v>
       </c>
@@ -1621,13 +1621,13 @@
       <c r="AP14" s="1"/>
     </row>
     <row r="15" spans="2:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="57"/>
+      <c r="C15" s="51"/>
       <c r="D15" s="20"/>
-      <c r="E15" s="47" t="s">
+      <c r="E15" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="48"/>
-      <c r="G15" s="49"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="47"/>
       <c r="H15" s="17"/>
       <c r="I15" s="42" t="s">
         <v>71</v>
@@ -1659,11 +1659,11 @@
     </row>
     <row r="16" spans="2:42" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="4"/>
-      <c r="C16" s="57"/>
+      <c r="C16" s="51"/>
     </row>
     <row r="17" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
-      <c r="C17" s="57"/>
+      <c r="C17" s="51"/>
       <c r="D17" s="19">
         <v>27</v>
       </c>
@@ -1682,7 +1682,7 @@
     </row>
     <row r="18" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
-      <c r="C18" s="57"/>
+      <c r="C18" s="51"/>
       <c r="D18" s="19" t="s">
         <v>3</v>
       </c>
@@ -1701,7 +1701,7 @@
     </row>
     <row r="19" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
-      <c r="C19" s="57"/>
+      <c r="C19" s="51"/>
       <c r="D19" s="42" t="s">
         <v>79</v>
       </c>
@@ -1716,7 +1716,7 @@
       <c r="B20" s="1"/>
     </row>
     <row r="21" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="57" t="s">
+      <c r="C21" s="51" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="19">
@@ -1761,7 +1761,7 @@
       <c r="AH21" s="12"/>
     </row>
     <row r="22" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="57"/>
+      <c r="C22" s="51"/>
       <c r="D22" s="19" t="s">
         <v>6</v>
       </c>
@@ -1804,7 +1804,7 @@
       <c r="AH22" s="12"/>
     </row>
     <row r="23" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="57"/>
+      <c r="C23" s="51"/>
       <c r="D23" s="21" t="s">
         <v>74</v>
       </c>
@@ -1829,7 +1829,7 @@
       <c r="AH23" s="12"/>
     </row>
     <row r="24" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="57"/>
+      <c r="C24" s="51"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
@@ -1863,7 +1863,7 @@
       <c r="AH24" s="14"/>
     </row>
     <row r="25" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="57"/>
+      <c r="C25" s="51"/>
       <c r="D25" s="19">
         <v>14</v>
       </c>
@@ -1917,7 +1917,7 @@
       </c>
     </row>
     <row r="26" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="57"/>
+      <c r="C26" s="51"/>
       <c r="D26" s="19" t="s">
         <v>1</v>
       </c>
@@ -1972,7 +1972,7 @@
     </row>
     <row r="27" spans="2:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27"/>
-      <c r="C27" s="57"/>
+      <c r="C27" s="51"/>
       <c r="D27" s="42" t="s">
         <v>94</v>
       </c>
@@ -1990,12 +1990,12 @@
       <c r="L27" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="44"/>
       <c r="O27" s="43"/>
-      <c r="P27" s="58"/>
-      <c r="Q27" s="59"/>
-      <c r="R27" s="60"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="54"/>
       <c r="S27" s="42" t="s">
         <v>85</v>
       </c>
@@ -2208,45 +2208,45 @@
       </c>
       <c r="E31" s="43"/>
       <c r="F31" s="15"/>
-      <c r="G31" s="47" t="s">
+      <c r="G31" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="49"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="47"/>
       <c r="K31" s="16"/>
       <c r="L31" s="38" t="s">
         <v>18</v>
       </c>
       <c r="M31" s="16"/>
-      <c r="N31" s="47" t="s">
+      <c r="N31" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="O31" s="48"/>
-      <c r="P31" s="48"/>
-      <c r="Q31" s="48"/>
-      <c r="R31" s="49"/>
+      <c r="O31" s="46"/>
+      <c r="P31" s="46"/>
+      <c r="Q31" s="46"/>
+      <c r="R31" s="47"/>
       <c r="S31" s="40"/>
       <c r="T31" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="U31" s="53"/>
-      <c r="V31" s="53"/>
+      <c r="U31" s="44"/>
+      <c r="V31" s="44"/>
       <c r="W31" s="43"/>
-      <c r="X31" s="50"/>
-      <c r="Y31" s="51"/>
-      <c r="Z31" s="52"/>
+      <c r="X31" s="58"/>
+      <c r="Y31" s="59"/>
+      <c r="Z31" s="60"/>
       <c r="AA31" s="16"/>
-      <c r="AB31" s="44" t="s">
+      <c r="AB31" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="AC31" s="46"/>
+      <c r="AC31" s="57"/>
       <c r="AD31" s="18"/>
-      <c r="AE31" s="44" t="s">
+      <c r="AE31" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="AF31" s="45"/>
-      <c r="AG31" s="46"/>
+      <c r="AF31" s="56"/>
+      <c r="AG31" s="57"/>
       <c r="AH31" s="16"/>
     </row>
     <row r="32" spans="2:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2428,12 +2428,12 @@
         <v>19</v>
       </c>
       <c r="J35" s="16"/>
-      <c r="K35" s="44" t="s">
+      <c r="K35" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="L35" s="45"/>
-      <c r="M35" s="45"/>
-      <c r="N35" s="46"/>
+      <c r="L35" s="56"/>
+      <c r="M35" s="56"/>
+      <c r="N35" s="57"/>
       <c r="O35" s="15"/>
       <c r="P35" s="38" t="s">
         <v>20</v>
@@ -3626,12 +3626,13 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="L27:O27"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="AB31:AC31"/>
+    <mergeCell ref="AE31:AG31"/>
+    <mergeCell ref="N31:R31"/>
+    <mergeCell ref="X31:Z31"/>
+    <mergeCell ref="T31:W31"/>
     <mergeCell ref="S27:T27"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="G31:J31"/>
@@ -3648,13 +3649,12 @@
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="P27:R27"/>
     <mergeCell ref="D19:E19"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="AB31:AC31"/>
-    <mergeCell ref="AE31:AG31"/>
-    <mergeCell ref="N31:R31"/>
-    <mergeCell ref="X31:Z31"/>
-    <mergeCell ref="T31:W31"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="L27:O27"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -6221,7 +6221,7 @@
   <dimension ref="B2:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6434,7 +6434,7 @@
         <v>38</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="E12" s="36" t="s">
         <v>78</v>

--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gonçalo Cunha\Desktop\IPCA\PA\ipca_gym\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TrabalhosPraticos\Projeto Aplicado\ipca_gym\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81075C4-DE74-47F7-95D7-7005A4AA538C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB09AFA-CE89-4A06-B8A5-FEB13736269D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma_Projecto" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="101">
   <si>
     <t>Dom</t>
   </si>
@@ -356,6 +356,9 @@
   </si>
   <si>
     <t>To-Do</t>
+  </si>
+  <si>
+    <t>Doing</t>
   </si>
 </sst>
 </file>
@@ -777,7 +780,13 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="18" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="18" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="18" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="10" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -787,6 +796,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="10" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -808,24 +829,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="18" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="18" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="18" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1165,43 +1168,43 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="49"/>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="49"/>
-      <c r="AC2" s="49"/>
-      <c r="AD2" s="49"/>
-      <c r="AE2" s="49"/>
-      <c r="AF2" s="49"/>
-      <c r="AG2" s="49"/>
-      <c r="AH2" s="49"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="55"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="55"/>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="55"/>
+      <c r="AC2" s="55"/>
+      <c r="AD2" s="55"/>
+      <c r="AE2" s="55"/>
+      <c r="AF2" s="55"/>
+      <c r="AG2" s="55"/>
+      <c r="AH2" s="55"/>
     </row>
     <row r="5" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="56" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="2">
@@ -1261,7 +1264,7 @@
       <c r="AH5"/>
     </row>
     <row r="6" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C6" s="50"/>
+      <c r="C6" s="56"/>
       <c r="D6" s="2" t="s">
         <v>1</v>
       </c>
@@ -1319,7 +1322,7 @@
       <c r="AH6"/>
     </row>
     <row r="7" spans="2:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="50"/>
+      <c r="C7" s="56"/>
       <c r="D7" s="42" t="s">
         <v>53</v>
       </c>
@@ -1338,7 +1341,7 @@
       <c r="K7" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="44"/>
+      <c r="L7" s="53"/>
       <c r="M7" s="43"/>
       <c r="N7" s="21" t="s">
         <v>57</v>
@@ -1399,7 +1402,7 @@
       <c r="AH8" s="12"/>
     </row>
     <row r="9" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="57" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="19">
@@ -1443,7 +1446,7 @@
       </c>
     </row>
     <row r="10" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C10" s="51"/>
+      <c r="C10" s="57"/>
       <c r="D10" s="19" t="s">
         <v>5</v>
       </c>
@@ -1485,7 +1488,7 @@
       </c>
     </row>
     <row r="11" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="51"/>
+      <c r="C11" s="57"/>
       <c r="D11" s="42" t="s">
         <v>24</v>
       </c>
@@ -1515,7 +1518,7 @@
       <c r="P11" s="15"/>
     </row>
     <row r="12" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C12" s="51"/>
+      <c r="C12" s="57"/>
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
@@ -1532,7 +1535,7 @@
       <c r="AI12" s="7"/>
     </row>
     <row r="13" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C13" s="51"/>
+      <c r="C13" s="57"/>
       <c r="D13" s="19">
         <v>14</v>
       </c>
@@ -1574,7 +1577,7 @@
       </c>
     </row>
     <row r="14" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C14" s="51"/>
+      <c r="C14" s="57"/>
       <c r="D14" s="27" t="s">
         <v>4</v>
       </c>
@@ -1621,13 +1624,13 @@
       <c r="AP14" s="1"/>
     </row>
     <row r="15" spans="2:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="51"/>
+      <c r="C15" s="57"/>
       <c r="D15" s="20"/>
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="46"/>
-      <c r="G15" s="47"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="49"/>
       <c r="H15" s="17"/>
       <c r="I15" s="42" t="s">
         <v>71</v>
@@ -1659,11 +1662,11 @@
     </row>
     <row r="16" spans="2:42" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="4"/>
-      <c r="C16" s="51"/>
+      <c r="C16" s="57"/>
     </row>
     <row r="17" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
-      <c r="C17" s="51"/>
+      <c r="C17" s="57"/>
       <c r="D17" s="19">
         <v>27</v>
       </c>
@@ -1682,7 +1685,7 @@
     </row>
     <row r="18" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
-      <c r="C18" s="51"/>
+      <c r="C18" s="57"/>
       <c r="D18" s="19" t="s">
         <v>3</v>
       </c>
@@ -1701,7 +1704,7 @@
     </row>
     <row r="19" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
-      <c r="C19" s="51"/>
+      <c r="C19" s="57"/>
       <c r="D19" s="42" t="s">
         <v>79</v>
       </c>
@@ -1716,7 +1719,7 @@
       <c r="B20" s="1"/>
     </row>
     <row r="21" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="51" t="s">
+      <c r="C21" s="57" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="19">
@@ -1761,7 +1764,7 @@
       <c r="AH21" s="12"/>
     </row>
     <row r="22" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="51"/>
+      <c r="C22" s="57"/>
       <c r="D22" s="19" t="s">
         <v>6</v>
       </c>
@@ -1804,7 +1807,7 @@
       <c r="AH22" s="12"/>
     </row>
     <row r="23" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="51"/>
+      <c r="C23" s="57"/>
       <c r="D23" s="21" t="s">
         <v>74</v>
       </c>
@@ -1829,7 +1832,7 @@
       <c r="AH23" s="12"/>
     </row>
     <row r="24" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="51"/>
+      <c r="C24" s="57"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
@@ -1863,7 +1866,7 @@
       <c r="AH24" s="14"/>
     </row>
     <row r="25" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="51"/>
+      <c r="C25" s="57"/>
       <c r="D25" s="19">
         <v>14</v>
       </c>
@@ -1917,7 +1920,7 @@
       </c>
     </row>
     <row r="26" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="51"/>
+      <c r="C26" s="57"/>
       <c r="D26" s="19" t="s">
         <v>1</v>
       </c>
@@ -1972,7 +1975,7 @@
     </row>
     <row r="27" spans="2:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27"/>
-      <c r="C27" s="51"/>
+      <c r="C27" s="57"/>
       <c r="D27" s="42" t="s">
         <v>94</v>
       </c>
@@ -1990,12 +1993,12 @@
       <c r="L27" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="M27" s="44"/>
-      <c r="N27" s="44"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="53"/>
       <c r="O27" s="43"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="54"/>
+      <c r="P27" s="58"/>
+      <c r="Q27" s="59"/>
+      <c r="R27" s="60"/>
       <c r="S27" s="42" t="s">
         <v>85</v>
       </c>
@@ -2208,45 +2211,45 @@
       </c>
       <c r="E31" s="43"/>
       <c r="F31" s="15"/>
-      <c r="G31" s="45" t="s">
+      <c r="G31" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="47"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="49"/>
       <c r="K31" s="16"/>
       <c r="L31" s="38" t="s">
         <v>18</v>
       </c>
       <c r="M31" s="16"/>
-      <c r="N31" s="45" t="s">
+      <c r="N31" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="O31" s="46"/>
-      <c r="P31" s="46"/>
-      <c r="Q31" s="46"/>
-      <c r="R31" s="47"/>
+      <c r="O31" s="48"/>
+      <c r="P31" s="48"/>
+      <c r="Q31" s="48"/>
+      <c r="R31" s="49"/>
       <c r="S31" s="40"/>
       <c r="T31" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="U31" s="44"/>
-      <c r="V31" s="44"/>
+      <c r="U31" s="53"/>
+      <c r="V31" s="53"/>
       <c r="W31" s="43"/>
-      <c r="X31" s="58"/>
-      <c r="Y31" s="59"/>
-      <c r="Z31" s="60"/>
+      <c r="X31" s="50"/>
+      <c r="Y31" s="51"/>
+      <c r="Z31" s="52"/>
       <c r="AA31" s="16"/>
-      <c r="AB31" s="55" t="s">
+      <c r="AB31" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="AC31" s="57"/>
+      <c r="AC31" s="46"/>
       <c r="AD31" s="18"/>
-      <c r="AE31" s="55" t="s">
+      <c r="AE31" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="AF31" s="56"/>
-      <c r="AG31" s="57"/>
+      <c r="AF31" s="45"/>
+      <c r="AG31" s="46"/>
       <c r="AH31" s="16"/>
     </row>
     <row r="32" spans="2:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2428,12 +2431,12 @@
         <v>19</v>
       </c>
       <c r="J35" s="16"/>
-      <c r="K35" s="55" t="s">
+      <c r="K35" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="L35" s="56"/>
-      <c r="M35" s="56"/>
-      <c r="N35" s="57"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="45"/>
+      <c r="N35" s="46"/>
       <c r="O35" s="15"/>
       <c r="P35" s="38" t="s">
         <v>20</v>
@@ -3626,13 +3629,12 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="AB31:AC31"/>
-    <mergeCell ref="AE31:AG31"/>
-    <mergeCell ref="N31:R31"/>
-    <mergeCell ref="X31:Z31"/>
-    <mergeCell ref="T31:W31"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="L27:O27"/>
     <mergeCell ref="S27:T27"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="G31:J31"/>
@@ -3649,12 +3651,13 @@
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="P27:R27"/>
     <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="L27:O27"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="AB31:AC31"/>
+    <mergeCell ref="AE31:AG31"/>
+    <mergeCell ref="N31:R31"/>
+    <mergeCell ref="X31:Z31"/>
+    <mergeCell ref="T31:W31"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -6221,7 +6224,7 @@
   <dimension ref="B2:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6460,7 +6463,7 @@
         <v>38</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E13" s="36" t="s">
         <v>79</v>

--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TrabalhosPraticos\Projeto Aplicado\ipca_gym\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB09AFA-CE89-4A06-B8A5-FEB13736269D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE7A5DE-F7C3-4236-9F41-222772DB47EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma_Projecto" sheetId="1" r:id="rId1"/>
@@ -358,7 +358,7 @@
     <t>To-Do</t>
   </si>
   <si>
-    <t>Doing</t>
+    <t>Doing(duvida com stor)</t>
   </si>
 </sst>
 </file>
@@ -780,13 +780,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="18" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="18" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="18" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="10" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -796,18 +790,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="10" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -829,6 +811,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="18" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="18" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="18" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1129,7 +1129,7 @@
   <dimension ref="A2:AP112"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1168,43 +1168,43 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="55"/>
-      <c r="AD2" s="55"/>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="55"/>
-      <c r="AG2" s="55"/>
-      <c r="AH2" s="55"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="49"/>
+      <c r="AF2" s="49"/>
+      <c r="AG2" s="49"/>
+      <c r="AH2" s="49"/>
     </row>
     <row r="5" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="50" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="2">
@@ -1264,7 +1264,7 @@
       <c r="AH5"/>
     </row>
     <row r="6" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C6" s="56"/>
+      <c r="C6" s="50"/>
       <c r="D6" s="2" t="s">
         <v>1</v>
       </c>
@@ -1322,7 +1322,7 @@
       <c r="AH6"/>
     </row>
     <row r="7" spans="2:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="56"/>
+      <c r="C7" s="50"/>
       <c r="D7" s="42" t="s">
         <v>53</v>
       </c>
@@ -1341,7 +1341,7 @@
       <c r="K7" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="53"/>
+      <c r="L7" s="44"/>
       <c r="M7" s="43"/>
       <c r="N7" s="21" t="s">
         <v>57</v>
@@ -1402,7 +1402,7 @@
       <c r="AH8" s="12"/>
     </row>
     <row r="9" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="51" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="19">
@@ -1446,7 +1446,7 @@
       </c>
     </row>
     <row r="10" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C10" s="57"/>
+      <c r="C10" s="51"/>
       <c r="D10" s="19" t="s">
         <v>5</v>
       </c>
@@ -1488,7 +1488,7 @@
       </c>
     </row>
     <row r="11" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="57"/>
+      <c r="C11" s="51"/>
       <c r="D11" s="42" t="s">
         <v>24</v>
       </c>
@@ -1518,7 +1518,7 @@
       <c r="P11" s="15"/>
     </row>
     <row r="12" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C12" s="57"/>
+      <c r="C12" s="51"/>
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
@@ -1535,7 +1535,7 @@
       <c r="AI12" s="7"/>
     </row>
     <row r="13" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C13" s="57"/>
+      <c r="C13" s="51"/>
       <c r="D13" s="19">
         <v>14</v>
       </c>
@@ -1577,7 +1577,7 @@
       </c>
     </row>
     <row r="14" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C14" s="57"/>
+      <c r="C14" s="51"/>
       <c r="D14" s="27" t="s">
         <v>4</v>
       </c>
@@ -1624,13 +1624,13 @@
       <c r="AP14" s="1"/>
     </row>
     <row r="15" spans="2:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="57"/>
+      <c r="C15" s="51"/>
       <c r="D15" s="20"/>
-      <c r="E15" s="47" t="s">
+      <c r="E15" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="48"/>
-      <c r="G15" s="49"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="47"/>
       <c r="H15" s="17"/>
       <c r="I15" s="42" t="s">
         <v>71</v>
@@ -1662,11 +1662,11 @@
     </row>
     <row r="16" spans="2:42" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="4"/>
-      <c r="C16" s="57"/>
+      <c r="C16" s="51"/>
     </row>
     <row r="17" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
-      <c r="C17" s="57"/>
+      <c r="C17" s="51"/>
       <c r="D17" s="19">
         <v>27</v>
       </c>
@@ -1685,7 +1685,7 @@
     </row>
     <row r="18" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
-      <c r="C18" s="57"/>
+      <c r="C18" s="51"/>
       <c r="D18" s="19" t="s">
         <v>3</v>
       </c>
@@ -1704,7 +1704,7 @@
     </row>
     <row r="19" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
-      <c r="C19" s="57"/>
+      <c r="C19" s="51"/>
       <c r="D19" s="42" t="s">
         <v>79</v>
       </c>
@@ -1719,7 +1719,7 @@
       <c r="B20" s="1"/>
     </row>
     <row r="21" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="57" t="s">
+      <c r="C21" s="51" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="19">
@@ -1764,7 +1764,7 @@
       <c r="AH21" s="12"/>
     </row>
     <row r="22" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="57"/>
+      <c r="C22" s="51"/>
       <c r="D22" s="19" t="s">
         <v>6</v>
       </c>
@@ -1807,7 +1807,7 @@
       <c r="AH22" s="12"/>
     </row>
     <row r="23" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="57"/>
+      <c r="C23" s="51"/>
       <c r="D23" s="21" t="s">
         <v>74</v>
       </c>
@@ -1832,7 +1832,7 @@
       <c r="AH23" s="12"/>
     </row>
     <row r="24" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="57"/>
+      <c r="C24" s="51"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
@@ -1866,7 +1866,7 @@
       <c r="AH24" s="14"/>
     </row>
     <row r="25" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="57"/>
+      <c r="C25" s="51"/>
       <c r="D25" s="19">
         <v>14</v>
       </c>
@@ -1920,7 +1920,7 @@
       </c>
     </row>
     <row r="26" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="57"/>
+      <c r="C26" s="51"/>
       <c r="D26" s="19" t="s">
         <v>1</v>
       </c>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="27" spans="2:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27"/>
-      <c r="C27" s="57"/>
+      <c r="C27" s="51"/>
       <c r="D27" s="42" t="s">
         <v>94</v>
       </c>
@@ -1993,12 +1993,12 @@
       <c r="L27" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="44"/>
       <c r="O27" s="43"/>
-      <c r="P27" s="58"/>
-      <c r="Q27" s="59"/>
-      <c r="R27" s="60"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="54"/>
       <c r="S27" s="42" t="s">
         <v>85</v>
       </c>
@@ -2211,45 +2211,45 @@
       </c>
       <c r="E31" s="43"/>
       <c r="F31" s="15"/>
-      <c r="G31" s="47" t="s">
+      <c r="G31" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="49"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="47"/>
       <c r="K31" s="16"/>
       <c r="L31" s="38" t="s">
         <v>18</v>
       </c>
       <c r="M31" s="16"/>
-      <c r="N31" s="47" t="s">
+      <c r="N31" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="O31" s="48"/>
-      <c r="P31" s="48"/>
-      <c r="Q31" s="48"/>
-      <c r="R31" s="49"/>
+      <c r="O31" s="46"/>
+      <c r="P31" s="46"/>
+      <c r="Q31" s="46"/>
+      <c r="R31" s="47"/>
       <c r="S31" s="40"/>
       <c r="T31" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="U31" s="53"/>
-      <c r="V31" s="53"/>
+      <c r="U31" s="44"/>
+      <c r="V31" s="44"/>
       <c r="W31" s="43"/>
-      <c r="X31" s="50"/>
-      <c r="Y31" s="51"/>
-      <c r="Z31" s="52"/>
+      <c r="X31" s="58"/>
+      <c r="Y31" s="59"/>
+      <c r="Z31" s="60"/>
       <c r="AA31" s="16"/>
-      <c r="AB31" s="44" t="s">
+      <c r="AB31" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="AC31" s="46"/>
+      <c r="AC31" s="57"/>
       <c r="AD31" s="18"/>
-      <c r="AE31" s="44" t="s">
+      <c r="AE31" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="AF31" s="45"/>
-      <c r="AG31" s="46"/>
+      <c r="AF31" s="56"/>
+      <c r="AG31" s="57"/>
       <c r="AH31" s="16"/>
     </row>
     <row r="32" spans="2:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2431,12 +2431,12 @@
         <v>19</v>
       </c>
       <c r="J35" s="16"/>
-      <c r="K35" s="44" t="s">
+      <c r="K35" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="L35" s="45"/>
-      <c r="M35" s="45"/>
-      <c r="N35" s="46"/>
+      <c r="L35" s="56"/>
+      <c r="M35" s="56"/>
+      <c r="N35" s="57"/>
       <c r="O35" s="15"/>
       <c r="P35" s="38" t="s">
         <v>20</v>
@@ -3629,12 +3629,13 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="L27:O27"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="AB31:AC31"/>
+    <mergeCell ref="AE31:AG31"/>
+    <mergeCell ref="N31:R31"/>
+    <mergeCell ref="X31:Z31"/>
+    <mergeCell ref="T31:W31"/>
     <mergeCell ref="S27:T27"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="G31:J31"/>
@@ -3651,13 +3652,12 @@
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="P27:R27"/>
     <mergeCell ref="D19:E19"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="AB31:AC31"/>
-    <mergeCell ref="AE31:AG31"/>
-    <mergeCell ref="N31:R31"/>
-    <mergeCell ref="X31:Z31"/>
-    <mergeCell ref="T31:W31"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="L27:O27"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -6060,7 +6060,7 @@
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6224,13 +6224,14 @@
   <dimension ref="B2:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" customWidth="1"/>
     <col min="5" max="5" width="32.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
@@ -6385,7 +6386,7 @@
         <v>38</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E10" s="36" t="s">
         <v>49</v>
@@ -6463,7 +6464,7 @@
         <v>38</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="E13" s="36" t="s">
         <v>79</v>
@@ -6491,7 +6492,7 @@
   <dimension ref="B2:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TrabalhosPraticos\Projeto Aplicado\ipca_gym\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE7A5DE-F7C3-4236-9F41-222772DB47EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248AFDEC-B938-4D43-BC6F-CC684173C2A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma_Projecto" sheetId="1" r:id="rId1"/>
@@ -358,7 +358,7 @@
     <t>To-Do</t>
   </si>
   <si>
-    <t>Doing(duvida com stor)</t>
+    <t>Done (duvida com stor)</t>
   </si>
 </sst>
 </file>
@@ -780,7 +780,13 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="18" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="18" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="18" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="10" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -790,6 +796,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="10" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -811,24 +829,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="18" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="18" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="18" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1168,43 +1168,43 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="49"/>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="49"/>
-      <c r="AC2" s="49"/>
-      <c r="AD2" s="49"/>
-      <c r="AE2" s="49"/>
-      <c r="AF2" s="49"/>
-      <c r="AG2" s="49"/>
-      <c r="AH2" s="49"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="55"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="55"/>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="55"/>
+      <c r="AC2" s="55"/>
+      <c r="AD2" s="55"/>
+      <c r="AE2" s="55"/>
+      <c r="AF2" s="55"/>
+      <c r="AG2" s="55"/>
+      <c r="AH2" s="55"/>
     </row>
     <row r="5" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="56" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="2">
@@ -1264,7 +1264,7 @@
       <c r="AH5"/>
     </row>
     <row r="6" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C6" s="50"/>
+      <c r="C6" s="56"/>
       <c r="D6" s="2" t="s">
         <v>1</v>
       </c>
@@ -1322,7 +1322,7 @@
       <c r="AH6"/>
     </row>
     <row r="7" spans="2:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="50"/>
+      <c r="C7" s="56"/>
       <c r="D7" s="42" t="s">
         <v>53</v>
       </c>
@@ -1341,7 +1341,7 @@
       <c r="K7" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="44"/>
+      <c r="L7" s="53"/>
       <c r="M7" s="43"/>
       <c r="N7" s="21" t="s">
         <v>57</v>
@@ -1402,7 +1402,7 @@
       <c r="AH8" s="12"/>
     </row>
     <row r="9" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="57" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="19">
@@ -1446,7 +1446,7 @@
       </c>
     </row>
     <row r="10" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C10" s="51"/>
+      <c r="C10" s="57"/>
       <c r="D10" s="19" t="s">
         <v>5</v>
       </c>
@@ -1488,7 +1488,7 @@
       </c>
     </row>
     <row r="11" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="51"/>
+      <c r="C11" s="57"/>
       <c r="D11" s="42" t="s">
         <v>24</v>
       </c>
@@ -1518,7 +1518,7 @@
       <c r="P11" s="15"/>
     </row>
     <row r="12" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C12" s="51"/>
+      <c r="C12" s="57"/>
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
@@ -1535,7 +1535,7 @@
       <c r="AI12" s="7"/>
     </row>
     <row r="13" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C13" s="51"/>
+      <c r="C13" s="57"/>
       <c r="D13" s="19">
         <v>14</v>
       </c>
@@ -1577,7 +1577,7 @@
       </c>
     </row>
     <row r="14" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C14" s="51"/>
+      <c r="C14" s="57"/>
       <c r="D14" s="27" t="s">
         <v>4</v>
       </c>
@@ -1624,13 +1624,13 @@
       <c r="AP14" s="1"/>
     </row>
     <row r="15" spans="2:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="51"/>
+      <c r="C15" s="57"/>
       <c r="D15" s="20"/>
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="46"/>
-      <c r="G15" s="47"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="49"/>
       <c r="H15" s="17"/>
       <c r="I15" s="42" t="s">
         <v>71</v>
@@ -1662,11 +1662,11 @@
     </row>
     <row r="16" spans="2:42" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="4"/>
-      <c r="C16" s="51"/>
+      <c r="C16" s="57"/>
     </row>
     <row r="17" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
-      <c r="C17" s="51"/>
+      <c r="C17" s="57"/>
       <c r="D17" s="19">
         <v>27</v>
       </c>
@@ -1685,7 +1685,7 @@
     </row>
     <row r="18" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
-      <c r="C18" s="51"/>
+      <c r="C18" s="57"/>
       <c r="D18" s="19" t="s">
         <v>3</v>
       </c>
@@ -1704,7 +1704,7 @@
     </row>
     <row r="19" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
-      <c r="C19" s="51"/>
+      <c r="C19" s="57"/>
       <c r="D19" s="42" t="s">
         <v>79</v>
       </c>
@@ -1719,7 +1719,7 @@
       <c r="B20" s="1"/>
     </row>
     <row r="21" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="51" t="s">
+      <c r="C21" s="57" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="19">
@@ -1764,7 +1764,7 @@
       <c r="AH21" s="12"/>
     </row>
     <row r="22" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="51"/>
+      <c r="C22" s="57"/>
       <c r="D22" s="19" t="s">
         <v>6</v>
       </c>
@@ -1807,7 +1807,7 @@
       <c r="AH22" s="12"/>
     </row>
     <row r="23" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="51"/>
+      <c r="C23" s="57"/>
       <c r="D23" s="21" t="s">
         <v>74</v>
       </c>
@@ -1832,7 +1832,7 @@
       <c r="AH23" s="12"/>
     </row>
     <row r="24" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="51"/>
+      <c r="C24" s="57"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
@@ -1866,7 +1866,7 @@
       <c r="AH24" s="14"/>
     </row>
     <row r="25" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="51"/>
+      <c r="C25" s="57"/>
       <c r="D25" s="19">
         <v>14</v>
       </c>
@@ -1920,7 +1920,7 @@
       </c>
     </row>
     <row r="26" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="51"/>
+      <c r="C26" s="57"/>
       <c r="D26" s="19" t="s">
         <v>1</v>
       </c>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="27" spans="2:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27"/>
-      <c r="C27" s="51"/>
+      <c r="C27" s="57"/>
       <c r="D27" s="42" t="s">
         <v>94</v>
       </c>
@@ -1993,12 +1993,12 @@
       <c r="L27" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="M27" s="44"/>
-      <c r="N27" s="44"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="53"/>
       <c r="O27" s="43"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="54"/>
+      <c r="P27" s="58"/>
+      <c r="Q27" s="59"/>
+      <c r="R27" s="60"/>
       <c r="S27" s="42" t="s">
         <v>85</v>
       </c>
@@ -2211,45 +2211,45 @@
       </c>
       <c r="E31" s="43"/>
       <c r="F31" s="15"/>
-      <c r="G31" s="45" t="s">
+      <c r="G31" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="47"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="49"/>
       <c r="K31" s="16"/>
       <c r="L31" s="38" t="s">
         <v>18</v>
       </c>
       <c r="M31" s="16"/>
-      <c r="N31" s="45" t="s">
+      <c r="N31" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="O31" s="46"/>
-      <c r="P31" s="46"/>
-      <c r="Q31" s="46"/>
-      <c r="R31" s="47"/>
+      <c r="O31" s="48"/>
+      <c r="P31" s="48"/>
+      <c r="Q31" s="48"/>
+      <c r="R31" s="49"/>
       <c r="S31" s="40"/>
       <c r="T31" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="U31" s="44"/>
-      <c r="V31" s="44"/>
+      <c r="U31" s="53"/>
+      <c r="V31" s="53"/>
       <c r="W31" s="43"/>
-      <c r="X31" s="58"/>
-      <c r="Y31" s="59"/>
-      <c r="Z31" s="60"/>
+      <c r="X31" s="50"/>
+      <c r="Y31" s="51"/>
+      <c r="Z31" s="52"/>
       <c r="AA31" s="16"/>
-      <c r="AB31" s="55" t="s">
+      <c r="AB31" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="AC31" s="57"/>
+      <c r="AC31" s="46"/>
       <c r="AD31" s="18"/>
-      <c r="AE31" s="55" t="s">
+      <c r="AE31" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="AF31" s="56"/>
-      <c r="AG31" s="57"/>
+      <c r="AF31" s="45"/>
+      <c r="AG31" s="46"/>
       <c r="AH31" s="16"/>
     </row>
     <row r="32" spans="2:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2431,12 +2431,12 @@
         <v>19</v>
       </c>
       <c r="J35" s="16"/>
-      <c r="K35" s="55" t="s">
+      <c r="K35" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="L35" s="56"/>
-      <c r="M35" s="56"/>
-      <c r="N35" s="57"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="45"/>
+      <c r="N35" s="46"/>
       <c r="O35" s="15"/>
       <c r="P35" s="38" t="s">
         <v>20</v>
@@ -3629,13 +3629,12 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="AB31:AC31"/>
-    <mergeCell ref="AE31:AG31"/>
-    <mergeCell ref="N31:R31"/>
-    <mergeCell ref="X31:Z31"/>
-    <mergeCell ref="T31:W31"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="L27:O27"/>
     <mergeCell ref="S27:T27"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="G31:J31"/>
@@ -3652,12 +3651,13 @@
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="P27:R27"/>
     <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="L27:O27"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="AB31:AC31"/>
+    <mergeCell ref="AE31:AG31"/>
+    <mergeCell ref="N31:R31"/>
+    <mergeCell ref="X31:Z31"/>
+    <mergeCell ref="T31:W31"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -6224,7 +6224,7 @@
   <dimension ref="B2:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TrabalhosPraticos\Projeto Aplicado\ipca_gym\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248AFDEC-B938-4D43-BC6F-CC684173C2A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E934F8-916F-498B-A426-972BEE80C432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma_Projecto" sheetId="1" r:id="rId1"/>
@@ -780,13 +780,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="18" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="18" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="18" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="10" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -796,18 +790,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="10" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -829,6 +811,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="18" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="18" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="18" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1128,8 +1128,8 @@
   </sheetPr>
   <dimension ref="A2:AP112"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1168,43 +1168,43 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="55"/>
-      <c r="AD2" s="55"/>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="55"/>
-      <c r="AG2" s="55"/>
-      <c r="AH2" s="55"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="49"/>
+      <c r="AF2" s="49"/>
+      <c r="AG2" s="49"/>
+      <c r="AH2" s="49"/>
     </row>
     <row r="5" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="50" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="2">
@@ -1264,7 +1264,7 @@
       <c r="AH5"/>
     </row>
     <row r="6" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C6" s="56"/>
+      <c r="C6" s="50"/>
       <c r="D6" s="2" t="s">
         <v>1</v>
       </c>
@@ -1322,7 +1322,7 @@
       <c r="AH6"/>
     </row>
     <row r="7" spans="2:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="56"/>
+      <c r="C7" s="50"/>
       <c r="D7" s="42" t="s">
         <v>53</v>
       </c>
@@ -1341,7 +1341,7 @@
       <c r="K7" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="53"/>
+      <c r="L7" s="44"/>
       <c r="M7" s="43"/>
       <c r="N7" s="21" t="s">
         <v>57</v>
@@ -1402,7 +1402,7 @@
       <c r="AH8" s="12"/>
     </row>
     <row r="9" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="51" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="19">
@@ -1446,7 +1446,7 @@
       </c>
     </row>
     <row r="10" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C10" s="57"/>
+      <c r="C10" s="51"/>
       <c r="D10" s="19" t="s">
         <v>5</v>
       </c>
@@ -1488,7 +1488,7 @@
       </c>
     </row>
     <row r="11" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="57"/>
+      <c r="C11" s="51"/>
       <c r="D11" s="42" t="s">
         <v>24</v>
       </c>
@@ -1518,7 +1518,7 @@
       <c r="P11" s="15"/>
     </row>
     <row r="12" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C12" s="57"/>
+      <c r="C12" s="51"/>
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
@@ -1535,7 +1535,7 @@
       <c r="AI12" s="7"/>
     </row>
     <row r="13" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C13" s="57"/>
+      <c r="C13" s="51"/>
       <c r="D13" s="19">
         <v>14</v>
       </c>
@@ -1577,7 +1577,7 @@
       </c>
     </row>
     <row r="14" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C14" s="57"/>
+      <c r="C14" s="51"/>
       <c r="D14" s="27" t="s">
         <v>4</v>
       </c>
@@ -1624,13 +1624,13 @@
       <c r="AP14" s="1"/>
     </row>
     <row r="15" spans="2:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="57"/>
+      <c r="C15" s="51"/>
       <c r="D15" s="20"/>
-      <c r="E15" s="47" t="s">
+      <c r="E15" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="48"/>
-      <c r="G15" s="49"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="47"/>
       <c r="H15" s="17"/>
       <c r="I15" s="42" t="s">
         <v>71</v>
@@ -1662,11 +1662,11 @@
     </row>
     <row r="16" spans="2:42" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="4"/>
-      <c r="C16" s="57"/>
+      <c r="C16" s="51"/>
     </row>
     <row r="17" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
-      <c r="C17" s="57"/>
+      <c r="C17" s="51"/>
       <c r="D17" s="19">
         <v>27</v>
       </c>
@@ -1685,7 +1685,7 @@
     </row>
     <row r="18" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
-      <c r="C18" s="57"/>
+      <c r="C18" s="51"/>
       <c r="D18" s="19" t="s">
         <v>3</v>
       </c>
@@ -1704,7 +1704,7 @@
     </row>
     <row r="19" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
-      <c r="C19" s="57"/>
+      <c r="C19" s="51"/>
       <c r="D19" s="42" t="s">
         <v>79</v>
       </c>
@@ -1719,7 +1719,7 @@
       <c r="B20" s="1"/>
     </row>
     <row r="21" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="57" t="s">
+      <c r="C21" s="51" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="19">
@@ -1764,7 +1764,7 @@
       <c r="AH21" s="12"/>
     </row>
     <row r="22" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="57"/>
+      <c r="C22" s="51"/>
       <c r="D22" s="19" t="s">
         <v>6</v>
       </c>
@@ -1807,7 +1807,7 @@
       <c r="AH22" s="12"/>
     </row>
     <row r="23" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="57"/>
+      <c r="C23" s="51"/>
       <c r="D23" s="21" t="s">
         <v>74</v>
       </c>
@@ -1832,7 +1832,7 @@
       <c r="AH23" s="12"/>
     </row>
     <row r="24" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="57"/>
+      <c r="C24" s="51"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
@@ -1866,7 +1866,7 @@
       <c r="AH24" s="14"/>
     </row>
     <row r="25" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="57"/>
+      <c r="C25" s="51"/>
       <c r="D25" s="19">
         <v>14</v>
       </c>
@@ -1920,7 +1920,7 @@
       </c>
     </row>
     <row r="26" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="57"/>
+      <c r="C26" s="51"/>
       <c r="D26" s="19" t="s">
         <v>1</v>
       </c>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="27" spans="2:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27"/>
-      <c r="C27" s="57"/>
+      <c r="C27" s="51"/>
       <c r="D27" s="42" t="s">
         <v>94</v>
       </c>
@@ -1993,12 +1993,12 @@
       <c r="L27" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="44"/>
       <c r="O27" s="43"/>
-      <c r="P27" s="58"/>
-      <c r="Q27" s="59"/>
-      <c r="R27" s="60"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="54"/>
       <c r="S27" s="42" t="s">
         <v>85</v>
       </c>
@@ -2211,45 +2211,45 @@
       </c>
       <c r="E31" s="43"/>
       <c r="F31" s="15"/>
-      <c r="G31" s="47" t="s">
+      <c r="G31" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="49"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="47"/>
       <c r="K31" s="16"/>
       <c r="L31" s="38" t="s">
         <v>18</v>
       </c>
       <c r="M31" s="16"/>
-      <c r="N31" s="47" t="s">
+      <c r="N31" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="O31" s="48"/>
-      <c r="P31" s="48"/>
-      <c r="Q31" s="48"/>
-      <c r="R31" s="49"/>
+      <c r="O31" s="46"/>
+      <c r="P31" s="46"/>
+      <c r="Q31" s="46"/>
+      <c r="R31" s="47"/>
       <c r="S31" s="40"/>
       <c r="T31" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="U31" s="53"/>
-      <c r="V31" s="53"/>
+      <c r="U31" s="44"/>
+      <c r="V31" s="44"/>
       <c r="W31" s="43"/>
-      <c r="X31" s="50"/>
-      <c r="Y31" s="51"/>
-      <c r="Z31" s="52"/>
+      <c r="X31" s="58"/>
+      <c r="Y31" s="59"/>
+      <c r="Z31" s="60"/>
       <c r="AA31" s="16"/>
-      <c r="AB31" s="44" t="s">
+      <c r="AB31" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="AC31" s="46"/>
+      <c r="AC31" s="57"/>
       <c r="AD31" s="18"/>
-      <c r="AE31" s="44" t="s">
+      <c r="AE31" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="AF31" s="45"/>
-      <c r="AG31" s="46"/>
+      <c r="AF31" s="56"/>
+      <c r="AG31" s="57"/>
       <c r="AH31" s="16"/>
     </row>
     <row r="32" spans="2:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2431,12 +2431,12 @@
         <v>19</v>
       </c>
       <c r="J35" s="16"/>
-      <c r="K35" s="44" t="s">
+      <c r="K35" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="L35" s="45"/>
-      <c r="M35" s="45"/>
-      <c r="N35" s="46"/>
+      <c r="L35" s="56"/>
+      <c r="M35" s="56"/>
+      <c r="N35" s="57"/>
       <c r="O35" s="15"/>
       <c r="P35" s="38" t="s">
         <v>20</v>
@@ -3629,12 +3629,13 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="L27:O27"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="AB31:AC31"/>
+    <mergeCell ref="AE31:AG31"/>
+    <mergeCell ref="N31:R31"/>
+    <mergeCell ref="X31:Z31"/>
+    <mergeCell ref="T31:W31"/>
     <mergeCell ref="S27:T27"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="G31:J31"/>
@@ -3651,13 +3652,12 @@
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="P27:R27"/>
     <mergeCell ref="D19:E19"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="AB31:AC31"/>
-    <mergeCell ref="AE31:AG31"/>
-    <mergeCell ref="N31:R31"/>
-    <mergeCell ref="X31:Z31"/>
-    <mergeCell ref="T31:W31"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="L27:O27"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -6060,7 +6060,7 @@
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6196,7 +6196,7 @@
         <v>38</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="E9" s="36" t="s">
         <v>71</v>
@@ -6223,7 +6223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE48A7C-8AF9-4A0B-A8FC-E8EB53F5818B}">
   <dimension ref="B2:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>

--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TrabalhosPraticos\Projeto Aplicado\ipca_gym\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TrabalhosPraticos\Projeto_Aplicado\ipca_gym\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E934F8-916F-498B-A426-972BEE80C432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979B2C7D-56EA-4D60-9265-606B6B8A0EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma_Projecto" sheetId="1" r:id="rId1"/>
@@ -780,7 +780,13 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="18" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="18" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="18" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="10" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -790,6 +796,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="10" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -811,24 +829,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="18" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="18" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="18" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1128,83 +1128,83 @@
   </sheetPr>
   <dimension ref="A2:AP112"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="F4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="4.6640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="1.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="37.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="1.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="37.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="26" style="1" customWidth="1"/>
-    <col min="6" max="6" width="33.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="47.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="47.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="61" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="29.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="40.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="49.5703125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="23.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="27.140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="33.42578125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="19.140625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="10.7109375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="14.140625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="12.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="40.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="49.5546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="23.88671875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="27.109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="33.44140625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="19.109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="14.44140625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="10.6640625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="14.109375" style="1" customWidth="1"/>
+    <col min="24" max="24" width="12.88671875" style="1" customWidth="1"/>
     <col min="25" max="25" width="11" style="1" customWidth="1"/>
     <col min="26" max="27" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="27.7109375" style="1" customWidth="1"/>
-    <col min="29" max="29" width="8.5703125" style="1" customWidth="1"/>
-    <col min="30" max="30" width="14.42578125" style="1" customWidth="1"/>
-    <col min="31" max="31" width="16.42578125" style="1" customWidth="1"/>
-    <col min="32" max="32" width="15.7109375" style="1" customWidth="1"/>
-    <col min="33" max="33" width="18.5703125" style="1" customWidth="1"/>
-    <col min="34" max="34" width="25.140625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="27.6640625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="8.5546875" style="1" customWidth="1"/>
+    <col min="30" max="30" width="14.44140625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="16.44140625" style="1" customWidth="1"/>
+    <col min="32" max="32" width="15.6640625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="18.5546875" style="1" customWidth="1"/>
+    <col min="34" max="34" width="25.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="48" t="s">
+    <row r="2" spans="2:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="49"/>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="49"/>
-      <c r="AC2" s="49"/>
-      <c r="AD2" s="49"/>
-      <c r="AE2" s="49"/>
-      <c r="AF2" s="49"/>
-      <c r="AG2" s="49"/>
-      <c r="AH2" s="49"/>
-    </row>
-    <row r="5" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C5" s="50" t="s">
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="55"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="55"/>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="55"/>
+      <c r="AC2" s="55"/>
+      <c r="AD2" s="55"/>
+      <c r="AE2" s="55"/>
+      <c r="AF2" s="55"/>
+      <c r="AG2" s="55"/>
+      <c r="AH2" s="55"/>
+    </row>
+    <row r="5" spans="2:42" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C5" s="56" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="2">
@@ -1263,8 +1263,8 @@
       <c r="AG5"/>
       <c r="AH5"/>
     </row>
-    <row r="6" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C6" s="50"/>
+    <row r="6" spans="2:42" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C6" s="56"/>
       <c r="D6" s="2" t="s">
         <v>1</v>
       </c>
@@ -1321,8 +1321,8 @@
       <c r="AG6"/>
       <c r="AH6"/>
     </row>
-    <row r="7" spans="2:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="50"/>
+    <row r="7" spans="2:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="56"/>
       <c r="D7" s="42" t="s">
         <v>53</v>
       </c>
@@ -1341,7 +1341,7 @@
       <c r="K7" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="44"/>
+      <c r="L7" s="53"/>
       <c r="M7" s="43"/>
       <c r="N7" s="21" t="s">
         <v>57</v>
@@ -1367,7 +1367,7 @@
       <c r="AG7"/>
       <c r="AH7"/>
     </row>
-    <row r="8" spans="2:42" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:42" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
@@ -1401,8 +1401,8 @@
       <c r="AG8" s="12"/>
       <c r="AH8" s="12"/>
     </row>
-    <row r="9" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C9" s="51" t="s">
+    <row r="9" spans="2:42" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C9" s="57" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="19">
@@ -1445,8 +1445,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C10" s="51"/>
+    <row r="10" spans="2:42" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C10" s="57"/>
       <c r="D10" s="19" t="s">
         <v>5</v>
       </c>
@@ -1487,8 +1487,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="51"/>
+    <row r="11" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="57"/>
       <c r="D11" s="42" t="s">
         <v>24</v>
       </c>
@@ -1517,8 +1517,8 @@
       </c>
       <c r="P11" s="15"/>
     </row>
-    <row r="12" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C12" s="51"/>
+    <row r="12" spans="2:42" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C12" s="57"/>
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
@@ -1534,8 +1534,8 @@
       <c r="AH12" s="13"/>
       <c r="AI12" s="7"/>
     </row>
-    <row r="13" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C13" s="51"/>
+    <row r="13" spans="2:42" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C13" s="57"/>
       <c r="D13" s="19">
         <v>14</v>
       </c>
@@ -1576,8 +1576,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="C14" s="51"/>
+    <row r="14" spans="2:42" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C14" s="57"/>
       <c r="D14" s="27" t="s">
         <v>4</v>
       </c>
@@ -1623,14 +1623,14 @@
       <c r="AO14" s="1"/>
       <c r="AP14" s="1"/>
     </row>
-    <row r="15" spans="2:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="51"/>
+    <row r="15" spans="2:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="57"/>
       <c r="D15" s="20"/>
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="46"/>
-      <c r="G15" s="47"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="49"/>
       <c r="H15" s="17"/>
       <c r="I15" s="42" t="s">
         <v>71</v>
@@ -1660,13 +1660,13 @@
       <c r="AO15" s="1"/>
       <c r="AP15" s="1"/>
     </row>
-    <row r="16" spans="2:42" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:42" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
-      <c r="C16" s="51"/>
-    </row>
-    <row r="17" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="57"/>
+    </row>
+    <row r="17" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
-      <c r="C17" s="51"/>
+      <c r="C17" s="57"/>
       <c r="D17" s="19">
         <v>27</v>
       </c>
@@ -1683,9 +1683,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
-      <c r="C18" s="51"/>
+      <c r="C18" s="57"/>
       <c r="D18" s="19" t="s">
         <v>3</v>
       </c>
@@ -1702,9 +1702,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
-      <c r="C19" s="51"/>
+      <c r="C19" s="57"/>
       <c r="D19" s="42" t="s">
         <v>79</v>
       </c>
@@ -1715,11 +1715,11 @@
       <c r="G19" s="43"/>
       <c r="H19" s="15"/>
     </row>
-    <row r="20" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="51" t="s">
+    <row r="21" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="57" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="19">
@@ -1763,8 +1763,8 @@
       </c>
       <c r="AH21" s="12"/>
     </row>
-    <row r="22" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="51"/>
+    <row r="22" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="57"/>
       <c r="D22" s="19" t="s">
         <v>6</v>
       </c>
@@ -1806,8 +1806,8 @@
       </c>
       <c r="AH22" s="12"/>
     </row>
-    <row r="23" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="51"/>
+    <row r="23" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="57"/>
       <c r="D23" s="21" t="s">
         <v>74</v>
       </c>
@@ -1831,8 +1831,8 @@
       <c r="P23" s="16"/>
       <c r="AH23" s="12"/>
     </row>
-    <row r="24" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="51"/>
+    <row r="24" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="57"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
@@ -1865,8 +1865,8 @@
       <c r="AG24" s="14"/>
       <c r="AH24" s="14"/>
     </row>
-    <row r="25" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="51"/>
+    <row r="25" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="57"/>
       <c r="D25" s="19">
         <v>14</v>
       </c>
@@ -1919,8 +1919,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="51"/>
+    <row r="26" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="57"/>
       <c r="D26" s="19" t="s">
         <v>1</v>
       </c>
@@ -1973,9 +1973,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27"/>
-      <c r="C27" s="51"/>
+      <c r="C27" s="57"/>
       <c r="D27" s="42" t="s">
         <v>94</v>
       </c>
@@ -1993,21 +1993,21 @@
       <c r="L27" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="M27" s="44"/>
-      <c r="N27" s="44"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="53"/>
       <c r="O27" s="43"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="54"/>
+      <c r="P27" s="58"/>
+      <c r="Q27" s="59"/>
+      <c r="R27" s="60"/>
       <c r="S27" s="42" t="s">
         <v>85</v>
       </c>
       <c r="T27" s="43"/>
     </row>
-    <row r="28" spans="2:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28"/>
     </row>
-    <row r="29" spans="2:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29"/>
       <c r="C29" s="10" t="s">
         <v>9</v>
@@ -2106,7 +2106,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="2:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30"/>
       <c r="C30" s="11"/>
       <c r="D30" s="2" t="s">
@@ -2203,7 +2203,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="2:34" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:34" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31"/>
       <c r="C31" s="12"/>
       <c r="D31" s="42" t="s">
@@ -2211,48 +2211,48 @@
       </c>
       <c r="E31" s="43"/>
       <c r="F31" s="15"/>
-      <c r="G31" s="45" t="s">
+      <c r="G31" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="47"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="49"/>
       <c r="K31" s="16"/>
       <c r="L31" s="38" t="s">
         <v>18</v>
       </c>
       <c r="M31" s="16"/>
-      <c r="N31" s="45" t="s">
+      <c r="N31" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="O31" s="46"/>
-      <c r="P31" s="46"/>
-      <c r="Q31" s="46"/>
-      <c r="R31" s="47"/>
+      <c r="O31" s="48"/>
+      <c r="P31" s="48"/>
+      <c r="Q31" s="48"/>
+      <c r="R31" s="49"/>
       <c r="S31" s="40"/>
       <c r="T31" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="U31" s="44"/>
-      <c r="V31" s="44"/>
+      <c r="U31" s="53"/>
+      <c r="V31" s="53"/>
       <c r="W31" s="43"/>
-      <c r="X31" s="58"/>
-      <c r="Y31" s="59"/>
-      <c r="Z31" s="60"/>
+      <c r="X31" s="50"/>
+      <c r="Y31" s="51"/>
+      <c r="Z31" s="52"/>
       <c r="AA31" s="16"/>
-      <c r="AB31" s="55" t="s">
+      <c r="AB31" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="AC31" s="57"/>
+      <c r="AC31" s="46"/>
       <c r="AD31" s="18"/>
-      <c r="AE31" s="55" t="s">
+      <c r="AE31" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="AF31" s="56"/>
-      <c r="AG31" s="57"/>
+      <c r="AF31" s="45"/>
+      <c r="AG31" s="46"/>
       <c r="AH31" s="16"/>
     </row>
-    <row r="32" spans="2:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
@@ -2287,7 +2287,7 @@
       <c r="AG32" s="12"/>
       <c r="AH32" s="12"/>
     </row>
-    <row r="33" spans="1:39" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:39" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33"/>
       <c r="C33" s="10" t="s">
         <v>10</v>
@@ -2353,7 +2353,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:39" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:39" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34"/>
       <c r="C34" s="11"/>
       <c r="D34" s="2" t="s">
@@ -2417,7 +2417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:39" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:39" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35"/>
       <c r="C35" s="12"/>
       <c r="D35" s="16"/>
@@ -2431,12 +2431,12 @@
         <v>19</v>
       </c>
       <c r="J35" s="16"/>
-      <c r="K35" s="55" t="s">
+      <c r="K35" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="L35" s="56"/>
-      <c r="M35" s="56"/>
-      <c r="N35" s="57"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="45"/>
+      <c r="N35" s="46"/>
       <c r="O35" s="15"/>
       <c r="P35" s="38" t="s">
         <v>20</v>
@@ -2453,7 +2453,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:39" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:39" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36"/>
       <c r="C36"/>
       <c r="D36"/>
@@ -2461,7 +2461,7 @@
       <c r="F36"/>
       <c r="G36"/>
     </row>
-    <row r="37" spans="1:39" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:39" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37"/>
       <c r="C37"/>
       <c r="D37"/>
@@ -2469,7 +2469,7 @@
       <c r="F37"/>
       <c r="G37"/>
     </row>
-    <row r="38" spans="1:39" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:39" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38"/>
       <c r="C38"/>
       <c r="D38"/>
@@ -2477,7 +2477,7 @@
       <c r="F38"/>
       <c r="G38"/>
     </row>
-    <row r="39" spans="1:39" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:39" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39"/>
       <c r="C39"/>
       <c r="D39" t="s">
@@ -2490,7 +2490,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:39" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:39" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40"/>
       <c r="C40"/>
       <c r="D40"/>
@@ -2498,7 +2498,7 @@
       <c r="F40"/>
       <c r="G40"/>
     </row>
-    <row r="41" spans="1:39" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:39" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41"/>
       <c r="C41"/>
       <c r="D41"/>
@@ -2506,7 +2506,7 @@
       <c r="F41"/>
       <c r="G41"/>
     </row>
-    <row r="42" spans="1:39" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:39" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42"/>
       <c r="C42"/>
       <c r="D42"/>
@@ -2514,7 +2514,7 @@
       <c r="F42"/>
       <c r="G42"/>
     </row>
-    <row r="43" spans="1:39" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:39" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -2549,7 +2549,7 @@
       <c r="AG43" s="4"/>
       <c r="AH43"/>
     </row>
-    <row r="44" spans="1:39" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:39" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44"/>
       <c r="C44"/>
       <c r="D44" s="6"/>
@@ -2589,7 +2589,7 @@
       <c r="AL44"/>
       <c r="AM44"/>
     </row>
-    <row r="45" spans="1:39" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:39" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45"/>
       <c r="AI45" s="4"/>
       <c r="AJ45" s="4"/>
@@ -2597,7 +2597,7 @@
       <c r="AL45" s="4"/>
       <c r="AM45" s="4"/>
     </row>
-    <row r="46" spans="1:39" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:39" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -2608,91 +2608,91 @@
       <c r="AL46" s="4"/>
       <c r="AM46" s="4"/>
     </row>
-    <row r="47" spans="1:39" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:39" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
     </row>
-    <row r="48" spans="1:39" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:39" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
     </row>
-    <row r="49" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
     </row>
-    <row r="50" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
     </row>
-    <row r="51" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
     </row>
-    <row r="52" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
     </row>
-    <row r="53" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
     </row>
-    <row r="54" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
     </row>
-    <row r="55" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
     </row>
-    <row r="56" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
     </row>
-    <row r="57" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
     </row>
-    <row r="58" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
     </row>
-    <row r="59" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="B59"/>
       <c r="C59"/>
@@ -2728,7 +2728,7 @@
       <c r="AG59" s="1"/>
       <c r="AH59" s="1"/>
     </row>
-    <row r="60" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -2769,14 +2769,14 @@
       <c r="AL60" s="4"/>
       <c r="AM60" s="4"/>
     </row>
-    <row r="61" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AI61" s="4"/>
       <c r="AJ61" s="4"/>
       <c r="AK61" s="4"/>
       <c r="AL61" s="4"/>
       <c r="AM61" s="4"/>
     </row>
-    <row r="62" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62"/>
       <c r="AI62" s="4"/>
       <c r="AJ62" s="4"/>
@@ -2784,7 +2784,7 @@
       <c r="AL62" s="4"/>
       <c r="AM62" s="4"/>
     </row>
-    <row r="63" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63"/>
       <c r="AI63" s="4"/>
       <c r="AJ63" s="4"/>
@@ -2792,7 +2792,7 @@
       <c r="AL63" s="4"/>
       <c r="AM63" s="4"/>
     </row>
-    <row r="64" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64"/>
       <c r="AI64"/>
       <c r="AJ64"/>
@@ -2801,7 +2801,7 @@
       <c r="AM64"/>
       <c r="AN64"/>
     </row>
-    <row r="65" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65"/>
       <c r="AI65"/>
       <c r="AJ65"/>
@@ -2810,7 +2810,7 @@
       <c r="AM65"/>
       <c r="AN65"/>
     </row>
-    <row r="66" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66"/>
       <c r="AI66"/>
       <c r="AJ66"/>
@@ -2819,7 +2819,7 @@
       <c r="AM66"/>
       <c r="AN66"/>
     </row>
-    <row r="67" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67"/>
       <c r="AI67"/>
       <c r="AJ67"/>
@@ -2828,7 +2828,7 @@
       <c r="AM67"/>
       <c r="AN67"/>
     </row>
-    <row r="68" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68"/>
       <c r="AI68"/>
       <c r="AJ68"/>
@@ -2837,7 +2837,7 @@
       <c r="AM68"/>
       <c r="AN68"/>
     </row>
-    <row r="69" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69"/>
       <c r="AI69"/>
       <c r="AJ69"/>
@@ -2846,7 +2846,7 @@
       <c r="AM69"/>
       <c r="AN69"/>
     </row>
-    <row r="70" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70"/>
       <c r="AI70"/>
       <c r="AJ70"/>
@@ -2855,7 +2855,7 @@
       <c r="AM70"/>
       <c r="AN70"/>
     </row>
-    <row r="71" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71"/>
       <c r="B71"/>
       <c r="C71"/>
@@ -2867,43 +2867,43 @@
       <c r="AM71"/>
       <c r="AN71"/>
     </row>
-    <row r="72" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72"/>
       <c r="B72"/>
       <c r="C72"/>
       <c r="D72"/>
     </row>
-    <row r="73" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73"/>
       <c r="B73"/>
       <c r="C73"/>
       <c r="D73"/>
     </row>
-    <row r="74" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74"/>
       <c r="B74"/>
       <c r="C74"/>
       <c r="D74"/>
     </row>
-    <row r="75" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75"/>
       <c r="B75"/>
       <c r="C75"/>
       <c r="D75"/>
     </row>
-    <row r="76" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76"/>
     </row>
-    <row r="77" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77"/>
     </row>
-    <row r="78" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78"/>
     </row>
-    <row r="79" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79"/>
     </row>
-    <row r="80" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:40" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80" s="4"/>
@@ -2912,7 +2912,7 @@
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
     </row>
-    <row r="81" spans="1:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81"/>
       <c r="B81"/>
       <c r="C81" s="4"/>
@@ -2921,7 +2921,7 @@
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
     </row>
-    <row r="82" spans="1:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82"/>
       <c r="B82"/>
       <c r="C82" s="4"/>
@@ -2930,7 +2930,7 @@
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
     </row>
-    <row r="83" spans="1:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83"/>
       <c r="B83"/>
       <c r="C83" s="4"/>
@@ -2939,7 +2939,7 @@
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
     </row>
-    <row r="84" spans="1:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84" s="4"/>
@@ -2948,7 +2948,7 @@
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
     </row>
-    <row r="85" spans="1:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85"/>
       <c r="B85"/>
       <c r="C85" s="4"/>
@@ -2957,7 +2957,7 @@
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
     </row>
-    <row r="86" spans="1:34" s="3" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:34" s="3" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86"/>
       <c r="B86"/>
       <c r="C86" s="4"/>
@@ -2966,7 +2966,7 @@
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
     </row>
-    <row r="87" spans="1:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87"/>
       <c r="B87"/>
       <c r="C87" s="4"/>
@@ -2975,7 +2975,7 @@
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
     </row>
-    <row r="88" spans="1:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88"/>
       <c r="B88"/>
       <c r="C88" s="4"/>
@@ -2984,7 +2984,7 @@
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
     </row>
-    <row r="89" spans="1:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89"/>
       <c r="B89"/>
       <c r="C89" s="4"/>
@@ -2993,7 +2993,7 @@
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
     </row>
-    <row r="90" spans="1:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90"/>
       <c r="B90"/>
       <c r="C90" s="4"/>
@@ -3002,7 +3002,7 @@
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
     </row>
-    <row r="91" spans="1:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91"/>
@@ -3038,7 +3038,7 @@
       <c r="AG91"/>
       <c r="AH91"/>
     </row>
-    <row r="92" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
@@ -3073,7 +3073,7 @@
       <c r="AG92" s="3"/>
       <c r="AH92" s="3"/>
     </row>
-    <row r="93" spans="1:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:34" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4"/>
       <c r="B93" s="1"/>
       <c r="C93"/>
@@ -3109,7 +3109,7 @@
       <c r="AG93"/>
       <c r="AH93"/>
     </row>
-    <row r="94" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
@@ -3145,7 +3145,7 @@
       <c r="AG94"/>
       <c r="AH94"/>
     </row>
-    <row r="95" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
@@ -3181,7 +3181,7 @@
       <c r="AG95"/>
       <c r="AH95"/>
     </row>
-    <row r="96" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="6"/>
       <c r="D96"/>
       <c r="F96"/>
@@ -3211,7 +3211,7 @@
       <c r="AG96"/>
       <c r="AH96"/>
     </row>
-    <row r="97" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D97"/>
       <c r="F97"/>
       <c r="G97"/>
@@ -3240,7 +3240,7 @@
       <c r="AG97"/>
       <c r="AH97"/>
     </row>
-    <row r="98" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D98"/>
       <c r="F98"/>
       <c r="G98"/>
@@ -3269,7 +3269,7 @@
       <c r="AG98"/>
       <c r="AH98"/>
     </row>
-    <row r="99" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D99"/>
       <c r="F99"/>
       <c r="G99"/>
@@ -3298,7 +3298,7 @@
       <c r="AG99"/>
       <c r="AH99"/>
     </row>
-    <row r="100" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D100"/>
       <c r="F100"/>
       <c r="G100"/>
@@ -3327,7 +3327,7 @@
       <c r="AG100"/>
       <c r="AH100"/>
     </row>
-    <row r="101" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D101"/>
       <c r="F101"/>
       <c r="G101"/>
@@ -3357,7 +3357,7 @@
       <c r="AG101"/>
       <c r="AH101"/>
     </row>
-    <row r="102" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D102"/>
       <c r="F102"/>
       <c r="G102"/>
@@ -3387,7 +3387,7 @@
       <c r="AG102"/>
       <c r="AH102"/>
     </row>
-    <row r="103" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D103"/>
       <c r="F103"/>
       <c r="G103"/>
@@ -3417,7 +3417,7 @@
       <c r="AG103"/>
       <c r="AH103"/>
     </row>
-    <row r="104" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D104"/>
       <c r="F104"/>
       <c r="G104"/>
@@ -3447,7 +3447,7 @@
       <c r="AG104"/>
       <c r="AH104"/>
     </row>
-    <row r="105" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D105"/>
       <c r="F105"/>
       <c r="G105"/>
@@ -3477,7 +3477,7 @@
       <c r="AG105"/>
       <c r="AH105"/>
     </row>
-    <row r="106" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D106"/>
       <c r="F106"/>
       <c r="G106"/>
@@ -3507,7 +3507,7 @@
       <c r="AG106"/>
       <c r="AH106"/>
     </row>
-    <row r="107" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D107"/>
       <c r="F107"/>
       <c r="G107"/>
@@ -3537,7 +3537,7 @@
       <c r="AG107"/>
       <c r="AH107"/>
     </row>
-    <row r="108" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="R108"/>
@@ -3558,7 +3558,7 @@
       <c r="AG108"/>
       <c r="AH108"/>
     </row>
-    <row r="109" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -3580,7 +3580,7 @@
       <c r="AG109"/>
       <c r="AH109"/>
     </row>
-    <row r="110" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -3602,7 +3602,7 @@
       <c r="AG110"/>
       <c r="AH110"/>
     </row>
-    <row r="111" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -3624,18 +3624,17 @@
       <c r="AG111"/>
       <c r="AH111"/>
     </row>
-    <row r="112" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="AB31:AC31"/>
-    <mergeCell ref="AE31:AG31"/>
-    <mergeCell ref="N31:R31"/>
-    <mergeCell ref="X31:Z31"/>
-    <mergeCell ref="T31:W31"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="L27:O27"/>
     <mergeCell ref="S27:T27"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="G31:J31"/>
@@ -3652,12 +3651,13 @@
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="P27:R27"/>
     <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="L27:O27"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="AB31:AC31"/>
+    <mergeCell ref="AE31:AG31"/>
+    <mergeCell ref="N31:R31"/>
+    <mergeCell ref="X31:Z31"/>
+    <mergeCell ref="T31:W31"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -3685,16 +3685,16 @@
       <selection activeCell="D8" sqref="D8:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.140625" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.109375" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="28" t="s">
         <v>26</v>
       </c>
@@ -3708,7 +3708,7 @@
       <c r="H2" s="30"/>
       <c r="I2" s="30"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="31"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
@@ -3718,7 +3718,7 @@
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="28" t="s">
         <v>28</v>
       </c>
@@ -3732,7 +3732,7 @@
       <c r="H4" s="30"/>
       <c r="I4" s="30"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="28" t="s">
         <v>29</v>
       </c>
@@ -3746,7 +3746,7 @@
       <c r="H5" s="30"/>
       <c r="I5" s="30"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -3756,7 +3756,7 @@
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="33" t="s">
         <v>30</v>
       </c>
@@ -3782,7 +3782,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="34">
         <v>1</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="34">
         <v>2</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="34">
         <v>3</v>
       </c>
@@ -3866,16 +3866,16 @@
       <selection activeCell="D8" sqref="D8:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.42578125" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.44140625" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="28" t="s">
         <v>26</v>
       </c>
@@ -3889,7 +3889,7 @@
       <c r="H2" s="30"/>
       <c r="I2" s="30"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="31"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
@@ -3899,7 +3899,7 @@
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="28" t="s">
         <v>28</v>
       </c>
@@ -3913,7 +3913,7 @@
       <c r="H4" s="30"/>
       <c r="I4" s="30"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="28" t="s">
         <v>29</v>
       </c>
@@ -3927,7 +3927,7 @@
       <c r="H5" s="30"/>
       <c r="I5" s="30"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -3937,7 +3937,7 @@
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="33" t="s">
         <v>30</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="34">
         <v>1</v>
       </c>
@@ -3989,7 +3989,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="34">
         <v>2</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="34">
         <v>3</v>
       </c>
@@ -4038,17 +4038,17 @@
       <selection activeCell="D8" sqref="D8:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="28" t="s">
         <v>26</v>
       </c>
@@ -4062,7 +4062,7 @@
       <c r="H2" s="30"/>
       <c r="I2" s="30"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="31"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
@@ -4072,7 +4072,7 @@
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="28" t="s">
         <v>28</v>
       </c>
@@ -4086,7 +4086,7 @@
       <c r="H4" s="30"/>
       <c r="I4" s="30"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="28" t="s">
         <v>29</v>
       </c>
@@ -4100,7 +4100,7 @@
       <c r="H5" s="30"/>
       <c r="I5" s="30"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -4110,7 +4110,7 @@
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="33" t="s">
         <v>30</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="34">
         <v>1</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="34">
         <v>2</v>
       </c>
@@ -4188,7 +4188,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="34">
         <v>3</v>
       </c>
@@ -4219,16 +4219,16 @@
       <selection activeCell="D8" sqref="D8:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.140625" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.109375" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="28" t="s">
         <v>26</v>
       </c>
@@ -4242,7 +4242,7 @@
       <c r="H2" s="30"/>
       <c r="I2" s="30"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="31"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
@@ -4252,7 +4252,7 @@
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="28" t="s">
         <v>28</v>
       </c>
@@ -4266,7 +4266,7 @@
       <c r="H4" s="30"/>
       <c r="I4" s="30"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="28" t="s">
         <v>29</v>
       </c>
@@ -4280,7 +4280,7 @@
       <c r="H5" s="30"/>
       <c r="I5" s="30"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -4290,7 +4290,7 @@
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="33" t="s">
         <v>30</v>
       </c>
@@ -4316,7 +4316,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="34">
         <v>1</v>
       </c>
@@ -4342,7 +4342,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="34">
         <v>2</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="34">
         <v>3</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
         <v>88</v>
       </c>
@@ -4396,17 +4396,17 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="28" t="s">
         <v>26</v>
       </c>
@@ -4420,7 +4420,7 @@
       <c r="H2" s="30"/>
       <c r="I2" s="30"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="31"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
@@ -4430,7 +4430,7 @@
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="28" t="s">
         <v>28</v>
       </c>
@@ -4444,7 +4444,7 @@
       <c r="H4" s="30"/>
       <c r="I4" s="30"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="28" t="s">
         <v>29</v>
       </c>
@@ -4458,7 +4458,7 @@
       <c r="H5" s="30"/>
       <c r="I5" s="30"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -4468,7 +4468,7 @@
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="33" t="s">
         <v>30</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="34">
         <v>1</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="34">
         <v>2</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="34">
         <v>3</v>
       </c>
@@ -4569,17 +4569,17 @@
       <selection activeCell="D9" sqref="D9:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="28"/>
       <c r="C2" s="29"/>
       <c r="D2" s="30"/>
@@ -4589,7 +4589,7 @@
       <c r="H2" s="30"/>
       <c r="I2" s="30"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="28" t="s">
         <v>26</v>
       </c>
@@ -4603,7 +4603,7 @@
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="31"/>
       <c r="C4" s="30"/>
       <c r="D4" s="30"/>
@@ -4613,7 +4613,7 @@
       <c r="H4" s="30"/>
       <c r="I4" s="30"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="28" t="s">
         <v>28</v>
       </c>
@@ -4627,7 +4627,7 @@
       <c r="H5" s="30"/>
       <c r="I5" s="30"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="28" t="s">
         <v>29</v>
       </c>
@@ -4641,7 +4641,7 @@
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="30"/>
       <c r="C7" s="30"/>
       <c r="D7" s="30"/>
@@ -4651,7 +4651,7 @@
       <c r="H7" s="30"/>
       <c r="I7" s="30"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="33" t="s">
         <v>30</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="34">
         <v>1</v>
       </c>
@@ -4703,7 +4703,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="34">
         <v>2</v>
       </c>
@@ -4721,7 +4721,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="34">
         <v>3</v>
       </c>
@@ -4752,16 +4752,16 @@
       <selection activeCell="D8" sqref="D8:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="28" t="s">
         <v>26</v>
       </c>
@@ -4775,7 +4775,7 @@
       <c r="H2" s="30"/>
       <c r="I2" s="30"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="31"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
@@ -4785,7 +4785,7 @@
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="28" t="s">
         <v>28</v>
       </c>
@@ -4799,7 +4799,7 @@
       <c r="H4" s="30"/>
       <c r="I4" s="30"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="28" t="s">
         <v>29</v>
       </c>
@@ -4813,7 +4813,7 @@
       <c r="H5" s="30"/>
       <c r="I5" s="30"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -4823,7 +4823,7 @@
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="33" t="s">
         <v>30</v>
       </c>
@@ -4849,7 +4849,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="34">
         <v>1</v>
       </c>
@@ -4875,7 +4875,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="34">
         <v>2</v>
       </c>
@@ -4901,7 +4901,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="34">
         <v>3</v>
       </c>
@@ -4932,16 +4932,16 @@
       <selection activeCell="D8" sqref="D8:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" customWidth="1"/>
+    <col min="6" max="6" width="26.109375" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="28" t="s">
         <v>26</v>
       </c>
@@ -4955,7 +4955,7 @@
       <c r="H2" s="30"/>
       <c r="I2" s="30"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="31"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
@@ -4965,7 +4965,7 @@
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="28" t="s">
         <v>28</v>
       </c>
@@ -4979,7 +4979,7 @@
       <c r="H4" s="30"/>
       <c r="I4" s="30"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="28" t="s">
         <v>29</v>
       </c>
@@ -4993,7 +4993,7 @@
       <c r="H5" s="30"/>
       <c r="I5" s="30"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -5003,7 +5003,7 @@
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="33" t="s">
         <v>30</v>
       </c>
@@ -5029,7 +5029,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="34">
         <v>1</v>
       </c>
@@ -5055,7 +5055,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="34">
         <v>2</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="34">
         <v>3</v>
       </c>
@@ -5104,16 +5104,16 @@
       <selection activeCell="D8" sqref="D8:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="28" t="s">
         <v>26</v>
       </c>
@@ -5127,7 +5127,7 @@
       <c r="H2" s="30"/>
       <c r="I2" s="30"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="31"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
@@ -5137,7 +5137,7 @@
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="28" t="s">
         <v>28</v>
       </c>
@@ -5151,7 +5151,7 @@
       <c r="H4" s="30"/>
       <c r="I4" s="30"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="28" t="s">
         <v>29</v>
       </c>
@@ -5165,7 +5165,7 @@
       <c r="H5" s="30"/>
       <c r="I5" s="30"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -5175,7 +5175,7 @@
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="33" t="s">
         <v>30</v>
       </c>
@@ -5201,7 +5201,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="34">
         <v>1</v>
       </c>
@@ -5227,7 +5227,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="34">
         <v>2</v>
       </c>
@@ -5245,7 +5245,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="34">
         <v>3</v>
       </c>
@@ -5263,7 +5263,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="F14" s="41"/>
     </row>
   </sheetData>
@@ -5279,17 +5279,17 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="28" t="s">
         <v>26</v>
       </c>
@@ -5303,7 +5303,7 @@
       <c r="H2" s="30"/>
       <c r="I2" s="30"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="31"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
@@ -5313,7 +5313,7 @@
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="28" t="s">
         <v>28</v>
       </c>
@@ -5327,7 +5327,7 @@
       <c r="H4" s="30"/>
       <c r="I4" s="30"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="28" t="s">
         <v>29</v>
       </c>
@@ -5341,7 +5341,7 @@
       <c r="H5" s="30"/>
       <c r="I5" s="30"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -5351,7 +5351,7 @@
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="33" t="s">
         <v>30</v>
       </c>
@@ -5377,7 +5377,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="34">
         <v>1</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="34">
         <v>2</v>
       </c>
@@ -5429,7 +5429,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="34">
         <v>3</v>
       </c>
@@ -5468,17 +5468,17 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="52.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="28" t="s">
         <v>26</v>
       </c>
@@ -5492,7 +5492,7 @@
       <c r="H2" s="30"/>
       <c r="I2" s="30"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="31"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
@@ -5502,7 +5502,7 @@
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="28" t="s">
         <v>28</v>
       </c>
@@ -5516,7 +5516,7 @@
       <c r="H4" s="30"/>
       <c r="I4" s="30"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="28" t="s">
         <v>29</v>
       </c>
@@ -5530,7 +5530,7 @@
       <c r="H5" s="30"/>
       <c r="I5" s="30"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -5540,7 +5540,7 @@
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="33" t="s">
         <v>30</v>
       </c>
@@ -5566,7 +5566,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="34">
         <v>1</v>
       </c>
@@ -5592,7 +5592,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="34">
         <v>2</v>
       </c>
@@ -5618,7 +5618,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="34">
         <v>3</v>
       </c>
@@ -5657,17 +5657,17 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="28" t="s">
         <v>26</v>
       </c>
@@ -5681,7 +5681,7 @@
       <c r="H2" s="30"/>
       <c r="I2" s="30"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="31"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
@@ -5691,7 +5691,7 @@
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="28" t="s">
         <v>28</v>
       </c>
@@ -5705,7 +5705,7 @@
       <c r="H4" s="30"/>
       <c r="I4" s="30"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="28" t="s">
         <v>29</v>
       </c>
@@ -5719,7 +5719,7 @@
       <c r="H5" s="30"/>
       <c r="I5" s="30"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -5729,7 +5729,7 @@
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="33" t="s">
         <v>30</v>
       </c>
@@ -5755,7 +5755,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="34">
         <v>1</v>
       </c>
@@ -5781,7 +5781,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="34">
         <v>2</v>
       </c>
@@ -5807,7 +5807,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="34">
         <v>3</v>
       </c>
@@ -5846,19 +5846,19 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="28" t="s">
         <v>26</v>
       </c>
@@ -5872,7 +5872,7 @@
       <c r="H2" s="30"/>
       <c r="I2" s="30"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="31"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
@@ -5882,7 +5882,7 @@
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="28" t="s">
         <v>28</v>
       </c>
@@ -5896,7 +5896,7 @@
       <c r="H4" s="30"/>
       <c r="I4" s="30"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="28" t="s">
         <v>29</v>
       </c>
@@ -5910,7 +5910,7 @@
       <c r="H5" s="30"/>
       <c r="I5" s="30"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -5920,7 +5920,7 @@
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="33" t="s">
         <v>30</v>
       </c>
@@ -5946,7 +5946,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="34">
         <v>1</v>
       </c>
@@ -5972,7 +5972,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="34">
         <v>2</v>
       </c>
@@ -5998,7 +5998,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="34">
         <v>3</v>
       </c>
@@ -6024,7 +6024,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="34">
         <v>4</v>
       </c>
@@ -6063,18 +6063,18 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="28" t="s">
         <v>26</v>
       </c>
@@ -6088,7 +6088,7 @@
       <c r="H2" s="30"/>
       <c r="I2" s="30"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="31"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
@@ -6098,7 +6098,7 @@
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="28" t="s">
         <v>28</v>
       </c>
@@ -6112,7 +6112,7 @@
       <c r="H4" s="30"/>
       <c r="I4" s="30"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="28" t="s">
         <v>29</v>
       </c>
@@ -6126,7 +6126,7 @@
       <c r="H5" s="30"/>
       <c r="I5" s="30"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -6136,7 +6136,7 @@
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="33" t="s">
         <v>30</v>
       </c>
@@ -6162,7 +6162,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="34">
         <v>1</v>
       </c>
@@ -6188,7 +6188,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="34">
         <v>2</v>
       </c>
@@ -6227,18 +6227,18 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" customWidth="1"/>
-    <col min="5" max="5" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.44140625" customWidth="1"/>
+    <col min="5" max="5" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="28" t="s">
         <v>26</v>
       </c>
@@ -6252,7 +6252,7 @@
       <c r="H2" s="30"/>
       <c r="I2" s="30"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="31"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
@@ -6262,7 +6262,7 @@
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="28" t="s">
         <v>28</v>
       </c>
@@ -6276,7 +6276,7 @@
       <c r="H4" s="30"/>
       <c r="I4" s="30"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="28" t="s">
         <v>29</v>
       </c>
@@ -6290,7 +6290,7 @@
       <c r="H5" s="30"/>
       <c r="I5" s="30"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -6300,7 +6300,7 @@
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="33" t="s">
         <v>30</v>
       </c>
@@ -6326,7 +6326,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="34">
         <v>1</v>
       </c>
@@ -6352,7 +6352,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="34">
         <v>2</v>
       </c>
@@ -6378,7 +6378,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="34">
         <v>3</v>
       </c>
@@ -6404,7 +6404,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="34">
         <v>4</v>
       </c>
@@ -6430,7 +6430,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="34">
         <v>5</v>
       </c>
@@ -6456,7 +6456,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="34">
         <v>6</v>
       </c>
@@ -6495,18 +6495,18 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="28" t="s">
         <v>26</v>
       </c>
@@ -6520,7 +6520,7 @@
       <c r="H2" s="30"/>
       <c r="I2" s="30"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="31"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
@@ -6530,7 +6530,7 @@
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="28" t="s">
         <v>28</v>
       </c>
@@ -6544,7 +6544,7 @@
       <c r="H4" s="30"/>
       <c r="I4" s="30"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="28" t="s">
         <v>29</v>
       </c>
@@ -6558,7 +6558,7 @@
       <c r="H5" s="30"/>
       <c r="I5" s="30"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -6568,7 +6568,7 @@
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="33" t="s">
         <v>30</v>
       </c>
@@ -6594,7 +6594,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="34">
         <v>1</v>
       </c>
@@ -6620,7 +6620,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="34">
         <v>2</v>
       </c>
@@ -6646,7 +6646,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="34">
         <v>3</v>
       </c>
@@ -6685,16 +6685,16 @@
       <selection activeCell="D8" sqref="D8:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="28" t="s">
         <v>26</v>
       </c>
@@ -6708,7 +6708,7 @@
       <c r="H2" s="30"/>
       <c r="I2" s="30"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="31"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
@@ -6718,7 +6718,7 @@
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="28" t="s">
         <v>28</v>
       </c>
@@ -6732,7 +6732,7 @@
       <c r="H4" s="30"/>
       <c r="I4" s="30"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="28" t="s">
         <v>29</v>
       </c>
@@ -6746,7 +6746,7 @@
       <c r="H5" s="30"/>
       <c r="I5" s="30"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -6756,7 +6756,7 @@
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="33" t="s">
         <v>30</v>
       </c>
@@ -6782,7 +6782,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="34">
         <v>1</v>
       </c>
@@ -6808,7 +6808,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="34">
         <v>2</v>
       </c>
@@ -6834,7 +6834,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="34">
         <v>3</v>
       </c>
